--- a/personal_health_care.xlsx
+++ b/personal_health_care.xlsx
@@ -29975,22 +29975,22 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>S6061001_S_57509</t>
+          <t>H5096001_S_10216155</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>No Added Sugar Super Granola Strawberry (500G)</t>
+          <t>Ultra Strength Vitamin B Complex 100 120 caplets (RANDOM Packing) [Parallel Goods] Best Before:30 September 2026</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>main/OrganicMaMa-Ltd/s/S6061001/Supermarket/Supermarket/Snacks-%26-Desserts/Cereal-%26-Energy-Bars/No-Added-Sugar-Super-Granola-Strawberry-500G/p/S6061001_S_57509</t>
+          <t>main/Health-Express/s/H5096001/Personal-Care-%26-Health/Personal-Care-%26-Health/Health/Vitamin/Ultra-Strength-Vitamin-B-Complex-100-120-caplets-RANDOM-Packing-Parallel-Goods-Best-Before30-September-2026/p/H5096001_S_10216155</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>&lt;p style="vertical-align: baseline;font-size: 14px;"&gt;&lt;a href="https://www.hktvmall.com/hktv/zh/main/%E6%9C%89%E6%A9%9F%E8%BE%B2%E7%A4%BE%E6%9C%89%E9%99%90%E5%85%AC%E5%8F%B8/s/S6061001?page=0&amp;amp;q=%3Arelevance%3Astore%3AS6061001%3ApriceValue%3A%5B0%20TO%202250%5D%3Astreet%3Amain%3A" target="" style="vertical-align: baseline;background-color: transparent;font-size: 14px;"&gt;Click for more Hot Item at Organic Mama&lt;/a&gt;&lt;/p&gt;&lt;!--StartFragment--&gt;&lt;p&gt;&lt;/p&gt;&lt;p&gt;High Protein, High Fiber, No Added Sugar!&lt;/p&gt;&lt;p&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="font-size: 14px;float: none;"&gt;Strawberry Mysli is a premium crunchy mysli with no added sugar or artificial sweeteners. . Freeze-dried strawberries retain their color, flavor and vitamins like fresh fruit. Free of palm oil and additives.&lt;/span&gt;&lt;/p&gt;&lt;div style="font-size: 14px;"&gt;&lt;div&gt;&lt;div&gt;Features:&lt;/div&gt;&lt;div&gt;&lt;ul&gt;&lt;li&gt;No Added Sugar or Artificial Sweeteners&lt;/li&gt;&lt;li&gt;Fiber Extracted from Chicory Root&lt;/li&gt;&lt;li&gt;contain lots of oatmeal, are high in fiber&lt;/li&gt;&lt;/ul&gt;&lt;div&gt;Ingredients: Oat flakes 51%, vegetable fiber 22% (corn), wheat flour, rapeseed oil, corn-wheat crisp (corn semolina, wheat flour, wheat semolina, corn flour), corn-wheat extrudate (corn, wheat, table salt), grated coconut 2%, freeze-dried strawberries 1.5%, natural aroma, antioxidants.&lt;br/&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;div style="font-size: 14px;"&gt;&lt;br/&gt;&lt;/div&gt;&lt;div style="font-size: 14px;"&gt;The product may contain peanuts, milk and tree nuts. &lt;br/&gt;&lt;/div&gt;&lt;div style="font-size: 14px;"&gt;Origin: Czech Republic&lt;/div&gt;&lt;!--EndFragment--&gt;&lt;p&gt;&lt;br/&gt;&lt;/p&gt;</t>
+          <t>&lt;p&gt;Jamieson Ultra Strength B Complex 100 is a complete, bio-balanced formula that contains the six essential B vitamins. It promotes good health. Jamieson's Ultra Strength B Complex 100 contains a high-quality source of B vitamins. This formula is processed without the use of heat or solvents in order to prevent compromising the integrity and effectiveness of this important nutrient complex&lt;br/&gt;&lt;br/&gt;Every caplet of this high-potency supplement provides vitamin B complex plus folic acid. The formula is enriched with choline and inositol.  One caplet meets your body's daily needs.&lt;br/&gt;&lt;br/&gt;&lt;b&gt;Ingredients:&lt;/b&gt;&lt;br/&gt;Each caplet contains:&lt;br/&gt;Vitamin B1 (thiamine mononitrate)....................100 mg&lt;br/&gt;Vitamin B2 (riboflavin).......................................100 mg&lt;br/&gt;Vitamin B3 (Niacinamide) .................................100 mg&lt;br/&gt;Vitamin B5 (Pantesin Pantethine) .......................10 mg&lt;br/&gt;Vitamin B6 (pyridoxine hydrochloride).................10 mg&lt;br/&gt;Vitamin B12 (cyanocobalamin)..........................500 mcg&lt;br/&gt;Folate (Folic Acid)...........................................1000 mcg&lt;br/&gt;Biotin (d-biotin)..................................................200 mcg&lt;br/&gt;Choline (Bitartrate) .............................................10 mg&lt;br/&gt;Inositol.................................................................10 mg&lt;/p&gt;&lt;p&gt;Other Ingredients:&lt;br/&gt;Cellulose, dicalcium phosphate, water-soluble cellulose, hydroxypropyl cellulose, vegetable stearic acid, titanium dioxide, silica, riboflavin, natural peppermint flavour, vegetable magnesium stearate.&lt;/p&gt;&lt;p&gt;&lt;b&gt;Remarks:&lt;/b&gt;&lt;br/&gt;This product is not registered under the Pharmacy and Poisons Ordinance or the Chinese Medicine Ordinance. Any claim made for it has not been subject to evaluation for such registration. This product is not intended to diagnose, treat or prevent any disease.&lt;/p&gt;</t>
         </is>
       </c>
       <c r="E114" t="b">
@@ -30001,63 +30001,63 @@
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>{'stockLevel': 1, 'consignmentWarehouse': False, 'forceInStock': False, 'thirdPartyLogisticsWarehouse': False}</t>
+          <t>{'stockLevelStatus': {'code': 'inStock', 'type': 'StockLevelStatus'}, 'consignmentWarehouse': False, 'forceInStock': False, 'thirdPartyLogisticsWarehouse': False}</t>
         </is>
       </c>
       <c r="H114" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="I114" t="n">
-        <v>8</v>
+        <v>216</v>
       </c>
       <c r="J114" t="inlineStr">
         <is>
-          <t>&lt;p style="vertical-align: baseline;font-size: 14px;"&gt;&lt;a href="https://www.hktvmall.com/hktv/zh/main/%E6%9C%89%E6%A9%9F%E8%BE%B2%E7%A4%BE%E6%9C%89%E9%99%90%E5%85%AC%E5%8F%B8/s/S6061001?page=0&amp;amp;q=%3Arelevance%3Astore%3AS6061001%3ApriceValue%3A%5B0%20TO%202250%5D%3Astreet%3Amain%3A" target="" style="vertical-align: baseline;background-color: transparent;font-size: 14px;"&gt;Click for more Hot Item at Organic Mama&lt;/a&gt;&lt;/p&gt;&lt;!--StartFragment--&gt;&lt;p&gt;&lt;/p&gt;&lt;p&gt;High Protein, High Fiber, No Added Sugar!&lt;/p&gt;&lt;p&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="font-size: 14px;float: none;"&gt;Strawberry Mysli is a premium crunchy mysli with no added sugar or artificial sweeteners. . Freeze-dried strawberries retain their color, flavor and vitamins like fresh fruit. Free of palm oil and additives.&lt;/span&gt;&lt;/p&gt;&lt;div style="font-size: 14px;"&gt;&lt;div&gt;&lt;div&gt;Features:&lt;/div&gt;&lt;div&gt;&lt;ul&gt;&lt;li&gt;No Added Sugar or Artificial Sweeteners&lt;/li&gt;&lt;li&gt;Fiber Extracted from Chicory Root&lt;/li&gt;&lt;li&gt;contain lots of oatmeal, are high in fiber&lt;/li&gt;&lt;/ul&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;</t>
+          <t>&lt;p&gt;&lt;b&gt;Benefits:&lt;/b&gt;&lt;br/&gt;- Essential for maintaining good health&lt;br/&gt;- Eases stress, anxiety and depression&lt;br/&gt;- Helps maintain a healthy immune system&lt;br/&gt;&lt;br/&gt;&lt;b&gt;Recommended Dosage:&lt;/b&gt;&lt;br/&gt;Adults: Take 1 caplet daily with food or as directed by a health practitioner&lt;br/&gt;&lt;br/&gt;&lt;b&gt;*New formula with new colour, new texture and new size caplets*&lt;/b&gt;&lt;br/&gt;&lt;/p&gt;</t>
         </is>
       </c>
       <c r="K114" t="inlineStr">
         <is>
-          <t>{'currencyIso': 'HKD', 'value': 82.0, 'priceType': 'BUY', 'formattedValue': '$ 82.00', 'membershipLevel': 'NORMAL'}</t>
+          <t>{'currencyIso': 'HKD', 'value': 389.0, 'priceType': 'BUY', 'formattedValue': '$ 389.00', 'membershipLevel': 'NORMAL'}</t>
         </is>
       </c>
       <c r="L114" t="inlineStr">
         <is>
-          <t>S606100157509</t>
+          <t>H509600110216155</t>
         </is>
       </c>
       <c r="M114" t="inlineStr">
         <is>
-          <t>[{'imageType': 'PRIMARY', 'format': 'product', 'url': 'https://cdn-mms.hktvmall.com/hktv/mms/uploadProductImage/5175/739a/80d5/bkguqGROYL20230731151149_300.png', 'hoverImageUrl': ''}]</t>
+          <t>[{'imageType': 'PRIMARY', 'format': 'product', 'url': 'https://cdn-mms.hktvmall.com/hktv/mms/uploadProductImage/f471/c5f9/233c/jhHsCOLOlE20231101122451_300.jpg', 'hoverImageUrl': ''}]</t>
         </is>
       </c>
       <c r="N114" t="inlineStr">
         <is>
-          <t>[{'code': 'AA11602005001', 'name': 'Oatmeal &amp; Cornflakes', 'sequence': 0}, {'code': 'AA11157000001', 'name': 'Cereal &amp; Energy Bars', 'sequence': 0}, {'code': 'AA11602015001', 'name': 'Cereal &amp; Energy Bars', 'sequence': 0}]</t>
+          <t>[{'code': 'AA13300300001', 'name': 'Immunity', 'sequence': 0}, {'code': 'AA13303300001', 'name': 'Vitamin', 'sequence': 0}]</t>
         </is>
       </c>
       <c r="O114" t="inlineStr">
         <is>
-          <t>[{'code': 'S6061001_S_57509', 'stock': {'stockLevel': 1, 'consignmentWarehouse': False, 'forceInStock': False, 'thirdPartyLogisticsWarehouse': False}, 'url': 'main/OrganicMaMa-Ltd/s/S6061001/Supermarket/Supermarket/Snacks-%26-Desserts/Cereal-%26-Energy-Bars/No-Added-Sugar-Super-Granola-Strawberry-500G/p/S6061001_S_57509', 'priceData': {'currencyIso': 'HKD', 'value': 82.0, 'priceType': 'BUY', 'formattedValue': '$ 82.00', 'membershipLevel': 'NORMAL'}, 'variantOptionQualifiers': [], 'color': 'Default', 'mainImage': {'imageType': 'PRIMARY', 'format': 'product', 'url': 'https://cdn-mms.hktvmall.com/hktv/mms/uploadProductImage/5175/739a/80d5/bkguqGROYL20230731151149_300.png'}, 'swatchImage': {'imageType': 'PRIMARY', 'format': 'styleSwatch', 'url': 'https://cdn-mms.hktvmall.com/hktv/mms/uploadProductImage/5175/739a/80d5/bkguqGROYL20230731151149_300.png'}, 'discountPrice': {'currencyIso': 'HKD', 'value': 68.0, 'priceType': 'DISCOUNT', 'formattedValue': '$ 68.00'}, 'loyalityPoints': '0.0', 'promotionText': '', 'packingSpec': '500G', 'countryOfOrigin': 'Czech Republic', 'labels': [{'type': 'OFFER', 'name': 'Fixed price Discount (normal)'}, {'type': 'REBATE', 'name': '0% Rewards', 'amount': 0.0, 'loyaltyPoint': '0'}], 'potentialPromotions': [{'code': 'mms_percentage_discountS6061001_S_57509_sys', 'promotionType': 'HktvProductPercentageDiscountPromotion', 'endDate': 'Jan 01, 2099 12:00:00 AM', 'description': 'Mms_FixedPrice_S6061001_S_57509', 'priority': 95, 'percentage': 17.07317, 'percentageDiscountRow': [{'discount': 17.07317, 'customerType': 'NORMAL', 'priority': 0, 'description': 'Fixed price Discount (normal)'}], 'creationTime': 'Feb 17, 2024 12:00:33 AM'}, {'code': 'MMS_MDQP_S6061001_20230713_RG15', 'promotionType': 'Product Threshold Percentage Discount Promotion (Store based)', 'endDate': 'Nov 30, 2024 04:00:00 PM', 'description': 'MMS_MDQP_S6061001_20230713_RG15', 'priority': 85, 'percentage': 0.0, 'creationTime': 'Jul 13, 2023 04:55:51 PM'}, {'code': 'MMS_RP_S6061001_20240223_00067', 'promotionType': 'HKTV Product Threshold Perfect Partner Promotion (Store based)', 'endDate': 'Mar 20, 2024 04:00:25 PM', 'description': 'MMS_RP_S6061001_20240223_00067', 'priority': 77, 'percentage': 0.0, 'creationTime': 'Feb 23, 2024 04:09:56 PM'}, {'code': 'MMS_FP_S6061001_20240209_00060', 'promotionType': 'Product Threshold Free Gift Promotion', 'endDate': 'May 31, 2024 04:00:00 PM', 'description': 'MMS_FP_S6061001_20240209_00060', 'priority': 70, 'percentage': 0.0, 'creationTime': 'Feb 09, 2024 03:00:12 PM'}], 'thresholdPromotion': {'name': 'Over $388 on any healthy food product for free Emco Granola Bowl', 'label': 'Over $388 Free Granola Bowl!', 'description': 'Offer valid til stock lasts.', 'shortDescription': 'Purchase any Healthy Food products for $388 to get a FREE Emco Granola bowl.', 'code': 'MMS_FP_S6061001_20240209_00060', 'categories': ['EE00000928160'], 'thresholdType': 'AMOUNT', 'discountType': 'FREEGIFT', 'productCount': 1, 'colorCode': '#FFA500', 'startTime': 1707462000000, 'endTime': 1717142400000}, 'priceList': [{'currencyIso': 'HKD', 'value': 82.0, 'priceType': 'BUY', 'formattedValue': '$ 82.00', 'membershipLevel': 'NORMAL'}, {'currencyIso': 'HKD', 'value': 68.00000059999999, 'priceType': 'DISCOUNT', 'formattedValue': '$ 68.00', 'membershipLevel': 'NORMAL'}], 'recommendedSellingPrice': [], 'savedPrice': [{'currencyIso': 'HKD', 'value': 13.99999940000001, 'priceType': 'DISCOUNT', 'formattedValue': '$ 14.00', 'membershipLevel': 'NORMAL'}], 'perfectPartnerPromotion': {'code': 'MMS_RP_S6061001_20240223_00067', 'name': '$29.9 redeem Organic quinoa and rice milk drink 1L', 'label': '+$29.9 for 1L Quinoa Milk', 'description': 'Offer valid til stock lasts.', 'shortDescription': 'Org $47 per box. Save $17.1 per box', 'colorCode': '#FFA500', 'discountType': 'QUANTITY', 'startTime': 1708673232000, 'endTime': 1710921625000}}]</t>
+          <t>[{'code': 'H5096001_S_10216155', 'stock': {'stockLevelStatus': {'code': 'inStock', 'type': 'StockLevelStatus'}, 'consignmentWarehouse': False, 'forceInStock': False, 'thirdPartyLogisticsWarehouse': False}, 'url': 'main/Health-Express/s/H5096001/Personal-Care-%26-Health/Personal-Care-%26-Health/Health/Vitamin/Ultra-Strength-Vitamin-B-Complex-100-120-caplets-RANDOM-Packing-Parallel-Goods-Best-Before30-September-2026/p/H5096001_S_10216155', 'priceData': {'currencyIso': 'HKD', 'value': 389.0, 'priceType': 'BUY', 'formattedValue': '$ 389.00', 'membershipLevel': 'NORMAL'}, 'variantOptionQualifiers': [], 'color': 'Default', 'mainImage': {'imageType': 'PRIMARY', 'format': 'product', 'url': 'https://cdn-mms.hktvmall.com/hktv/mms/uploadProductImage/f471/c5f9/233c/jhHsCOLOlE20231101122451_300.jpg'}, 'swatchImage': {'imageType': 'PRIMARY', 'format': 'styleSwatch', 'url': 'https://cdn-mms.hktvmall.com/hktv/mms/uploadProductImage/f471/c5f9/233c/jhHsCOLOlE20231101122451_300.jpg'}, 'discountPrice': {'currencyIso': 'HKD', 'value': 165.0, 'priceType': 'DISCOUNT', 'formattedValue': '$ 165.00'}, 'loyalityPoints': '0.0', 'promotionText': 'RED', 'packingSpec': 'Exp:30/09/2026', 'countryOfOrigin': 'Canada', 'labels': [{'type': 'OFFER', 'name': 'Fixed price Discount (normal)'}, {'type': 'REBATE', 'name': '0% Rewards', 'amount': 0.0, 'loyaltyPoint': '0'}], 'potentialPromotions': [{'code': 'mms_percentage_discountH5096001_S_10216155_sys', 'promotionType': 'HktvProductPercentageDiscountPromotion', 'endDate': 'Dec 31, 2099 12:00:00 AM', 'description': 'Mms_FixedPrice_H5096001_S_10216155', 'priority': 95, 'percentage': 57.58355, 'percentageDiscountRow': [{'discount': 57.58355, 'customerType': 'NORMAL', 'priority': 0, 'description': 'Fixed price Discount (normal)'}], 'creationTime': 'Feb 07, 2024 09:38:21 AM'}, {'code': 'MMS_MDQP_H5096001_20240219_00036', 'promotionType': 'Product Threshold Percentage Discount Promotion (Store based)', 'endDate': 'Feb 29, 2024 11:59:00 PM', 'description': 'MMS_MDQP_H5096001_20240219_00036', 'priority': 85, 'percentage': 0.0, 'creationTime': 'Feb 19, 2024 02:34:32 PM'}, {'code': 'MMS_RP_H5096001_20231011_00018', 'promotionType': 'HKTV Product Threshold Perfect Partner Promotion (Store based)', 'endDate': 'Feb 29, 2024 11:59:00 PM', 'description': 'MMS_RP_H5096001_20231011_00018', 'priority': 77, 'percentage': 0.0, 'creationTime': 'Oct 10, 2023 11:13:28 AM'}, {'code': 'MMS_RP_H5096001_20231130_00033', 'promotionType': 'HKTV Product Threshold Perfect Partner Promotion (Store based)', 'endDate': 'Feb 29, 2024 11:59:36 PM', 'description': 'MMS_RP_H5096001_20231130_00033', 'priority': 77, 'percentage': 0.0, 'creationTime': 'Nov 30, 2023 02:24:12 PM'}, {'code': 'MMS_FP_H5096001_20240201_00033', 'promotionType': 'Product Threshold Free Gift Promotion', 'endDate': 'Feb 29, 2024 11:59:00 PM', 'description': 'MMS_FP_H5096001_20240201_00033', 'priority': 70, 'percentage': 0.0, 'creationTime': 'Feb 01, 2024 10:48:31 AM'}], 'thresholdPromotion': {'name': 'Purchase selected product $299 or above, Free a Melatonin 10 counts Gummies!', 'label': 'Free a Melatonin Gummies!', 'description': 'Purchase selected product $299 or above, Free a Jamieson Melatonin (2.5 mg) Gummies - Strawberry 10 gummies. Promotion until 29 Feb. While the stock lasts.\n', 'shortDescription': 'Purchase selected product $299 or above, Free a Jamieson Melatonin (2.5 mg) Gummies - Strawberry 10 gummies. Promotion until 29 Feb. While the stock lasts.\n', 'code': 'MMS_FP_H5096001_20240201_00033', 'categories': ['EE00000923502'], 'thresholdType': 'AMOUNT', 'discountType': 'FREEGIFT', 'productCount': 1, 'colorCode': '#FF0000', 'startTime': 1706756280000, 'endTime': 1709222340000}, 'priceList': [{'currencyIso': 'HKD', 'value': 389.0, 'priceType': 'BUY', 'formattedValue': '$ 389.00', 'membershipLevel': 'NORMAL'}, {'currencyIso': 'HKD', 'value': 164.9999905, 'priceType': 'DISCOUNT', 'formattedValue': '$ 165.00', 'membershipLevel': 'NORMAL'}], 'recommendedSellingPrice': [{'name': '', 'fontColor': '#000000', 'fontBgColor': '#FFFFFF', 'hasStrikeThrough': True}], 'savedPrice': [{'currencyIso': 'HKD', 'value': 224.0000095, 'priceType': 'DISCOUNT', 'formattedValue': '$ 224.00', 'membershipLevel': 'NORMAL'}], 'perfectPartnerPromotion': {'code': 'MMS_RP_H5096001_20231130_00033', 'name': '$69Redeem Jamieson Probiotics!', 'label': '$69Redeem Jamieson Probiotics!', 'description': 'Buy selected products can $69 redeem Jamieson - Chewable Probiotic 2 Billion - Strawberry 60 tablets. Promotion until 29 Feb . Offer can be used ONCE only. While stock last.\n', 'shortDescription': 'Buy selected products can $69 redeem Jamieson - Chewable Probiotic 2 Billion - Strawberry 60 tablets. Promotion until 29 Feb. Offer can be used ONCE only. While stock last.\n', 'colorCode': '#FF0000', 'discountType': 'QUANTITY', 'startTime': 1701319525000, 'endTime': 1709222376000}}]</t>
         </is>
       </c>
       <c r="P114" t="inlineStr">
         <is>
-          <t>Emco</t>
+          <t>Jamieson</t>
         </is>
       </c>
       <c r="Q114" t="inlineStr">
         <is>
-          <t>S6061001</t>
+          <t>H5096001</t>
         </is>
       </c>
       <c r="R114" t="inlineStr">
         <is>
-          <t>S6061001</t>
+          <t>H5096001</t>
         </is>
       </c>
       <c r="S114" t="inlineStr">
         <is>
-          <t>Organic MaMa</t>
+          <t>Health Express</t>
         </is>
       </c>
       <c r="T114" t="inlineStr">
@@ -30088,17 +30088,17 @@
       </c>
       <c r="Z114" t="inlineStr">
         <is>
-          <t>500G</t>
+          <t>Exp:30/09/2026</t>
         </is>
       </c>
       <c r="AA114" t="inlineStr">
         <is>
-          <t>Czech Republic</t>
+          <t>Canada</t>
         </is>
       </c>
       <c r="AB114" t="inlineStr">
         <is>
-          <t>&lt;p&gt;&amp;bull; 本店將依照個人資料(私隱)條例相關規定保護您的個人資料,並遵守HKTVmall 的私隱保護政策。 的私隱保護政策。&lt;br /&gt;&amp;bull; 如有任何爭議, 商戶將保留最終決定權而毋須另行通知。&lt;br /&gt;&amp;bull; 貨品顏色或會因電腦螢幕設定差異略有不同,一切以實物為準。&lt;br /&gt;&amp;bull; 因實際情況所限,HKTVmall與門市銷售價格、促銷活動條件限制有機會各為不同, 一切條款只適用於HKTVmall。&lt;br /&gt;&amp;bull; 為提供最佳保證給消費者，本店設有「貨品退換購物」。顧客在收後3 天內，發現貨品 有問題及需要退換時，你可以致電或電郵預約退換，我們會有專人安排。 每張購物單據只限換貨一次，但不能退款。&lt;br /&gt;&amp;bull; 以下情況將不受換貨處理安排：&lt;br /&gt;1. 貨品已經開封或曾被使用 (例如包裝膠紙或盒被撕去)。&lt;br /&gt;2. 貨品並未保持完好包裝，已受破壞，損毀或不整。&lt;br /&gt;3. 任何顯示不接受退貨的折扣，清貨或特賣貨品。&lt;br /&gt;4. 任何免費贈品，附件，試用裝禮。&lt;br /&gt;5. 未能出示貨品 銷售清單或購物據已經換貨一次。&lt;br /&gt;我們在退換之前，必須檢查及驗證退貨，如發現情況未能符合以上的規條，所有退貨將不獲退換。在退貨時，原來訂單的運費及處理費用(如有)將由&lt;/p&gt;&lt;p&gt;顧客承擔，不便之處敬請原諒。將由顧客承擔，不便之處敬請原諒。如您退回 將由顧客承擔，不便之處敬請原諒。&lt;/p&gt;&lt;p&gt;如您退回的貨品附送有推廣贈品或特價購買貨品等，亦必須將該貨品一併退回，否則退換將不獲處理。如發現退貨貨品不符合本公司的退貨條款，將不獲處理，不便之處，敬請原諒。&lt;/p&gt;</t>
+          <t>&lt;p&gt;本店將依照個人資料保護法相關規定保護您的個人資料﹐並遵守 HKTVmall 的私隱保護政策。如有任何爭議﹐商戶將保留最終決定權而毋須另行通知。因實際情況所限﹐HKTVmall 與門市銷售價格、促銷活動、條件與限制有機會各為不同﹐一切條款只適用於 HKTVmall。HKTVmall 並不是此店所出售的貨品或服務的賣方或供應商。&lt;br /&gt;&lt;br /&gt;HKTVmall 並非商品或服務的賣方或供應商。HKTVmall 負責管理網站、安排訂單處理過程及完成提供閣下透過 HKTVmall 向供應商訂購的商品或服務。透過 HKTVmall 購買的商品或服務須受商戶的條款及細則約束。對銷售及處理索賠或因閣下與商戶之間的合約引起的任何其他問題是商戶的責任。就購買優惠券方面，閣下除與優惠券的賣方訂立合約，當閣下使用優惠券同時也與實際提供商品或服務的商戶訂立合約。HKTVmall 概不承擔任何因閣下透過 HKTVmall 購買任何商品，服務或優惠券可能直接或間接蒙受索賠，損失或損害的責任，不論如何造成（包括遺漏或疏忽）。我們也不接受因使用或依據透過 HKTVmall 獲取的信息的任何索賠，損失或損害承擔任何責任。確保透過 HKTVmall 獲得的任何產品，服務或信息滿足閣下的特定要求是閣下的全部責任。特別是美容服務，閣下務必注意，在決定購買前應確保了解該服務將如何進行方。如有疑問，閣下應諮詢專業顧問。&lt;/p&gt;</t>
         </is>
       </c>
       <c r="AC114" t="inlineStr">
@@ -30113,7 +30113,7 @@
       </c>
       <c r="AE114" t="inlineStr">
         <is>
-          <t>[{'currencyIso': 'HKD', 'value': 82.0, 'priceType': 'BUY', 'formattedValue': '$ 82.00', 'membershipLevel': 'NORMAL'}, {'currencyIso': 'HKD', 'value': 68.00000059999999, 'priceType': 'DISCOUNT', 'formattedValue': '$ 68.00', 'membershipLevel': 'NORMAL'}]</t>
+          <t>[{'currencyIso': 'HKD', 'value': 389.0, 'priceType': 'BUY', 'formattedValue': '$ 389.00', 'membershipLevel': 'NORMAL'}, {'currencyIso': 'HKD', 'value': 164.9999905, 'priceType': 'DISCOUNT', 'formattedValue': '$ 165.00', 'membershipLevel': 'NORMAL'}]</t>
         </is>
       </c>
       <c r="AF114" t="inlineStr">
@@ -30121,11 +30121,19 @@
           <t>[{'colorName': 'Default', 'colorValue': ''}]</t>
         </is>
       </c>
-      <c r="AG114" t="inlineStr"/>
-      <c r="AH114" t="inlineStr"/>
+      <c r="AG114" t="inlineStr">
+        <is>
+          <t>On Sales|RSP$389</t>
+        </is>
+      </c>
+      <c r="AH114" t="inlineStr">
+        <is>
+          <t>RED</t>
+        </is>
+      </c>
       <c r="AI114" t="inlineStr">
         <is>
-          <t>{'name': 'Over $388 on any healthy food product for free Emco Granola Bowl', 'label': 'Over $388 Free Granola Bowl!', 'description': 'Offer valid til stock lasts.', 'shortDescription': 'Purchase any Healthy Food products for $388 to get a FREE Emco Granola bowl.', 'code': 'MMS_FP_S6061001_20240209_00060', 'categories': ['EE00000928160'], 'thresholdType': 'AMOUNT', 'discountType': 'FREEGIFT', 'productCount': 1, 'colorCode': '#FFA500', 'startTime': 1707462000000, 'endTime': 1717142400000}</t>
+          <t>{'name': 'Purchase selected product $299 or above, Free a Melatonin 10 counts Gummies!', 'label': 'Free a Melatonin Gummies!', 'description': 'Purchase selected product $299 or above, Free a Jamieson Melatonin (2.5 mg) Gummies - Strawberry 10 gummies. Promotion until 29 Feb. While the stock lasts.\n', 'shortDescription': 'Purchase selected product $299 or above, Free a Jamieson Melatonin (2.5 mg) Gummies - Strawberry 10 gummies. Promotion until 29 Feb. While the stock lasts.\n', 'code': 'MMS_FP_H5096001_20240201_00033', 'categories': ['EE00000923502'], 'thresholdType': 'AMOUNT', 'discountType': 'FREEGIFT', 'productCount': 1, 'colorCode': '#FF0000', 'startTime': 1706756280000, 'endTime': 1709222340000}</t>
         </is>
       </c>
       <c r="AJ114" t="b">
@@ -30133,17 +30141,17 @@
       </c>
       <c r="AK114" t="inlineStr">
         <is>
-          <t>[{'currencyIso': 'HKD', 'value': 13.99999940000001, 'priceType': 'DISCOUNT', 'formattedValue': '$ 14.00', 'membershipLevel': 'NORMAL'}]</t>
+          <t>[{'currencyIso': 'HKD', 'value': 224.0000095, 'priceType': 'DISCOUNT', 'formattedValue': '$ 224.00', 'membershipLevel': 'NORMAL'}]</t>
         </is>
       </c>
       <c r="AL114" t="inlineStr">
         <is>
-          <t>AP76118</t>
+          <t>D62708</t>
         </is>
       </c>
       <c r="AM114" t="inlineStr">
         <is>
-          <t>AA11157000001</t>
+          <t>AA13303300001</t>
         </is>
       </c>
       <c r="AN114" t="b">
@@ -30172,7 +30180,7 @@
       </c>
       <c r="AV114" t="inlineStr">
         <is>
-          <t>{'code': 'S6061001'}</t>
+          <t>{'code': 'H5096001'}</t>
         </is>
       </c>
       <c r="AW114" t="inlineStr">
@@ -30188,17 +30196,17 @@
       </c>
       <c r="AZ114" t="inlineStr">
         <is>
-          <t>900+ Sold</t>
+          <t>10,000+ Sold</t>
         </is>
       </c>
       <c r="BA114" t="n">
-        <v>214</v>
+        <v>50</v>
       </c>
       <c r="BB114" t="n">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="BC114" t="n">
-        <v>157</v>
+        <v>12</v>
       </c>
       <c r="BD114" t="inlineStr">
         <is>
@@ -30215,7 +30223,7 @@
         <v>0</v>
       </c>
       <c r="BH114" t="n">
-        <v>984</v>
+        <v>18774</v>
       </c>
       <c r="BI114" t="inlineStr">
         <is>
@@ -30224,12 +30232,12 @@
       </c>
       <c r="BJ114" t="inlineStr">
         <is>
-          <t>{'code': 'MMS_RP_S6061001_20240223_00067', 'name': '$29.9 redeem Organic quinoa and rice milk drink 1L', 'label': '+$29.9 for 1L Quinoa Milk', 'description': 'Offer valid til stock lasts.', 'shortDescription': 'Org $47 per box. Save $17.1 per box', 'colorCode': '#FFA500', 'discountType': 'QUANTITY', 'startTime': 1708673232000, 'endTime': 1710921625000}</t>
+          <t>{'code': 'MMS_RP_H5096001_20231130_00033', 'name': '$69Redeem Jamieson Probiotics!', 'label': '$69Redeem Jamieson Probiotics!', 'description': 'Buy selected products can $69 redeem Jamieson - Chewable Probiotic 2 Billion - Strawberry 60 tablets. Promotion until 29 Feb . Offer can be used ONCE only. While stock last.\n', 'shortDescription': 'Buy selected products can $69 redeem Jamieson - Chewable Probiotic 2 Billion - Strawberry 60 tablets. Promotion until 29 Feb. Offer can be used ONCE only. While stock last.\n', 'colorCode': '#FF0000', 'discountType': 'QUANTITY', 'startTime': 1701319525000, 'endTime': 1709222376000}</t>
         </is>
       </c>
       <c r="BK114" t="inlineStr">
         <is>
-          <t>['MO', 'UK', 'AU']</t>
+          <t>['MO']</t>
         </is>
       </c>
       <c r="BL114" t="inlineStr"/>
@@ -30238,22 +30246,22 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>H5096001_S_10216155</t>
+          <t>H6780001_S_8978</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Ultra Strength Vitamin B Complex 100 120 caplets (RANDOM Packing) [Parallel Goods] Best Before:30 September 2026</t>
+          <t>Stelatopia Emollient Balm  3385</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>main/Health-Express/s/H5096001/Personal-Care-%26-Health/Personal-Care-%26-Health/Health/Vitamin/Ultra-Strength-Vitamin-B-Complex-100-120-caplets-RANDOM-Packing-Parallel-Goods-Best-Before30-September-2026/p/H5096001_S_10216155</t>
+          <t>main/Mustela-Flagship-store/s/H6780001/Mother-%26-Baby/Mother-%26-Baby/Baby-Medicine-%26-Ointment/Cream-%26-Vaseline/Cream-%26-Moisturizer/Stelatopia-Emollient-Balm-3385/p/H6780001_S_8978</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>&lt;p&gt;Jamieson Ultra Strength B Complex 100 is a complete, bio-balanced formula that contains the six essential B vitamins. It promotes good health. Jamieson's Ultra Strength B Complex 100 contains a high-quality source of B vitamins. This formula is processed without the use of heat or solvents in order to prevent compromising the integrity and effectiveness of this important nutrient complex&lt;br/&gt;&lt;br/&gt;Every caplet of this high-potency supplement provides vitamin B complex plus folic acid. The formula is enriched with choline and inositol.  One caplet meets your body's daily needs.&lt;br/&gt;&lt;br/&gt;&lt;b&gt;Ingredients:&lt;/b&gt;&lt;br/&gt;Each caplet contains:&lt;br/&gt;Vitamin B1 (thiamine mononitrate)....................100 mg&lt;br/&gt;Vitamin B2 (riboflavin).......................................100 mg&lt;br/&gt;Vitamin B3 (Niacinamide) .................................100 mg&lt;br/&gt;Vitamin B5 (Pantesin Pantethine) .......................10 mg&lt;br/&gt;Vitamin B6 (pyridoxine hydrochloride).................10 mg&lt;br/&gt;Vitamin B12 (cyanocobalamin)..........................500 mcg&lt;br/&gt;Folate (Folic Acid)...........................................1000 mcg&lt;br/&gt;Biotin (d-biotin)..................................................200 mcg&lt;br/&gt;Choline (Bitartrate) .............................................10 mg&lt;br/&gt;Inositol.................................................................10 mg&lt;/p&gt;&lt;p&gt;Other Ingredients:&lt;br/&gt;Cellulose, dicalcium phosphate, water-soluble cellulose, hydroxypropyl cellulose, vegetable stearic acid, titanium dioxide, silica, riboflavin, natural peppermint flavour, vegetable magnesium stearate.&lt;/p&gt;&lt;p&gt;&lt;b&gt;Remarks:&lt;/b&gt;&lt;br/&gt;This product is not registered under the Pharmacy and Poisons Ordinance or the Chinese Medicine Ordinance. Any claim made for it has not been subject to evaluation for such registration. This product is not intended to diagnose, treat or prevent any disease.&lt;/p&gt;</t>
+          <t>&lt;p&gt;&lt;span style="font-size: 15px;"&gt;[ Atopic Skin and extremely dry skin]&lt;/span&gt;&lt;/p&gt;&lt;div class="tabBody" style="vertical-align: baseline;font-size: 15px;"&gt;&lt;div style="vertical-align: baseline;"&gt;&lt;p style="vertical-align: baseline;"&gt;&lt;span style="vertical-align: baseline;"&gt;Attributes&lt;/span&gt;&lt;/p&gt;&lt;p style="vertical-align: baseline;"&gt;&lt;span style="vertical-align: baseline;"&gt;• Made in France&lt;/span&gt;&lt;/p&gt;&lt;p style="vertical-align: baseline;"&gt;&lt;span style="vertical-align: baseline;"&gt;• Deeply moisturizes, replenishes and soothes sensations of itchy skin&lt;/span&gt;&lt;/p&gt;&lt;p style="vertical-align: baseline;"&gt;&lt;span style="vertical-align: baseline;"&gt;• Restores and strengthen damaged natural skin barrier of atopic-prone skin.&lt;/span&gt;&lt;/p&gt;&lt;p style="vertical-align: baseline;"&gt;&lt;span style="vertical-align: baseline;"&gt;• With a rich and creamy texture which forms a layer of protection film&lt;/span&gt;&lt;/p&gt;&lt;p style="vertical-align: baseline;"&gt;&lt;span style="vertical-align: baseline;"&gt;• Reduces adhesion of Staphylococcus aureus* by preventing formation of biofilm, its protective coating.&lt;/span&gt;&lt;/p&gt;&lt;p style="vertical-align: baseline;"&gt;&lt;span style="vertical-align: baseline;"&gt;*Bacterium involved in symptoms characteristic of atopic-prone skin.&lt;/span&gt;&lt;/p&gt;&lt;p style="vertical-align: baseline;"&gt;&lt;/p&gt;&lt;p style="vertical-align: baseline;"&gt;&lt;br/&gt;&lt;/p&gt;&lt;p style="vertical-align: baseline;"&gt;&lt;/p&gt;&lt;p style="vertical-align: baseline;"&gt;Patented Natural Ingredients&lt;/p&gt;&lt;p style="vertical-align: baseline;"&gt;&lt;span style="vertical-align: baseline;"&gt;• Sunflower Oil Distillate: has soothing properties and provides lipids essential to maintaining skin's moisture barrier.&lt;/span&gt;&lt;/p&gt;&lt;p style="vertical-align: baseline;"&gt;&lt;span style="vertical-align: baseline;"&gt;• Avocado Perseose®: preserves the cellular richness, moisturizes and protects the natural skin barrier, prevent daily damage for atopic-prone skin.&lt;/span&gt;&lt;/p&gt;&lt;p style="vertical-align: baseline;"&gt;&lt;span style="vertical-align: baseline;"&gt;• Carnauba Wax of natural origin: leaves a protective layer on the skin and brings a rich texture.&lt;/span&gt;&lt;/p&gt;&lt;p style="vertical-align: baseline;"&gt;&lt;span style="vertical-align: baseline;"&gt;• 0% medication, fragrance, alcohol, paraben, phthalate, phenoxyethanol, artificial colorant&lt;/span&gt;&lt;/p&gt;&lt;p style="vertical-align: baseline;"&gt;&lt;br/&gt;&lt;/p&gt;&lt;p style="vertical-align: baseline;"&gt;&lt;span style="vertical-align: baseline;"&gt;Proven Efficacy&lt;/span&gt;&lt;/p&gt;&lt;p style="vertical-align: baseline;"&gt;&lt;span style="vertical-align: baseline;"&gt;• Dermatologically and pediatric tested&lt;/span&gt;&lt;/p&gt;&lt;p style="vertical-align: baseline;"&gt;&lt;span style="vertical-align: baseline;"&gt;• Guarantee the safety of usage from birth on (1)&lt;/span&gt;&lt;/p&gt;&lt;p style="vertical-align: baseline;"&gt;&lt;span style="vertical-align: baseline;"&gt;• 91% agree: The product can claim anti-itching effect (2)&lt;/span&gt;&lt;/p&gt;&lt;p style="vertical-align: baseline;"&gt;&lt;span style="vertical-align: baseline;"&gt;• 90% agree: The product can reduces severe dryness (3)&lt;/span&gt;&lt;/p&gt;&lt;p style="vertical-align: baseline;"&gt;&lt;span style="vertical-align: baseline;"&gt;(1)Including newborns out of the NICU.&lt;/span&gt;&lt;/p&gt;&lt;p style="vertical-align: baseline;"&gt;&lt;span style="vertical-align: baseline;"&gt;(2)Clinical study conducted under dermatological and pediatric control on 65 newborns, babies and children with atopic-prone skin over 28 days. Examinator perceived the products can claim anti-itching effect.&lt;/span&gt;&lt;/p&gt;&lt;p style="vertical-align: baseline;"&gt;&lt;span style="vertical-align: baseline;"&gt;(3)Clinical study conducted under dermatological and pediatric control on 65 newborns, babies and children with atopic-prone skin over 28 days. Users' parents perceived the products can reduces severe dryness.&lt;/span&gt;&lt;/p&gt;&lt;p style="vertical-align: baseline;"&gt;&lt;br/&gt;&lt;/p&gt;&lt;p style="vertical-align: baseline;"&gt;Tips of use&lt;/p&gt;&lt;p style="vertical-align: baseline;"&gt;&lt;span style="vertical-align: baseline;"&gt;Apply twice a day on dry and unbroken skin of face and body after using Stelatopia® Cleansing Gel or Stelatopia® Cleansing Oil.&lt;/span&gt;&lt;/p&gt;&lt;p style="vertical-align: baseline;"&gt;&lt;br/&gt;&lt;/p&gt;&lt;p style="vertical-align: baseline;"&gt;Pleasurable to use:&lt;/p&gt;&lt;p style="vertical-align: baseline;"&gt;&lt;span style="vertical-align: baseline;"&gt;•Emollient balm with a rich, creamy texture that leaves a protective layer yet not sticky&lt;/span&gt;&lt;/p&gt;&lt;p style="vertical-align: baseline;"&gt;&lt;span style="vertical-align: baseline;"&gt;• Spreads and penetrates easily.&lt;/span&gt;&lt;/p&gt;&lt;p style="vertical-align: baseline;"&gt;&lt;span style="vertical-align: baseline;"&gt;• Enables quick dressing.&lt;/span&gt;&lt;/p&gt;&lt;p style="vertical-align: baseline;"&gt;&lt;br/&gt;&lt;/p&gt;&lt;p style="vertical-align: baseline;"&gt;INGREDIENTS : AQUA (WATER), GLYCERIN, PETROLATUM, CAPRYLIC/CAPRIC TRIGLYCERIDE, HYDROGENATED VEGETABLE OIL, SUCROSE DISTEARATE, DEXTRIN, COPERNICIA CERIFERA CERA (COPERNICIA CERIFERA (CARNAUBA) WAX ), HELIANTHUS ANNUUS (SUNFLOWER) SEED OIL UNSAPONIFIABLES, PRUNUS DOMESTICA SEED EXTRACT, 1,2-HEXANEDIOL, SUCROSE STEARATE, CANDELILLA CERA (EUPHORBIA CERIFERA (CANDELILLA) WAX), SQUALANE, GLYCERYL CAPRYLATE, HYDROXYETHYL ACRYLATE/SODIUM ACRYLOYLDIMETHYL TAURATE COPOLYMER, XANTHAN GUM, GLUCOSE, SORBITOL, POLYSORBATE 60, SORBITAN ISOSTEARATE, PERSEA GRATISSIMA (AVOCADO) FRUIT EXTRACT, CERAMIDE NP, PHYTOSPHINGOSINE, SODIUM HYDROXIDE&lt;/p&gt;&lt;/div&gt;&lt;/div&gt;&lt;!--EndFragment--&gt;&lt;p&gt;&lt;br/&gt;&lt;/p&gt;&lt;p&gt;&lt;br/&gt;&lt;/p&gt;&lt;p&gt;&lt;br/&gt;&lt;/p&gt;&lt;p&gt;&lt;br/&gt;&lt;/p&gt;</t>
         </is>
       </c>
       <c r="E115" t="b">
@@ -30268,73 +30276,73 @@
         </is>
       </c>
       <c r="H115" t="n">
-        <v>4.5</v>
+        <v>4.8</v>
       </c>
       <c r="I115" t="n">
-        <v>216</v>
+        <v>30</v>
       </c>
       <c r="J115" t="inlineStr">
         <is>
-          <t>&lt;p&gt;&lt;b&gt;Benefits:&lt;/b&gt;&lt;br/&gt;- Essential for maintaining good health&lt;br/&gt;- Eases stress, anxiety and depression&lt;br/&gt;- Helps maintain a healthy immune system&lt;br/&gt;&lt;br/&gt;&lt;b&gt;Recommended Dosage:&lt;/b&gt;&lt;br/&gt;Adults: Take 1 caplet daily with food or as directed by a health practitioner&lt;br/&gt;&lt;br/&gt;&lt;b&gt;*New formula with new colour, new texture and new size caplets*&lt;/b&gt;&lt;br/&gt;&lt;/p&gt;</t>
+          <t>Stelatopia Emollient Balm</t>
         </is>
       </c>
       <c r="K115" t="inlineStr">
         <is>
-          <t>{'currencyIso': 'HKD', 'value': 389.0, 'priceType': 'BUY', 'formattedValue': '$ 389.00', 'membershipLevel': 'NORMAL'}</t>
+          <t>{'currencyIso': 'HKD', 'value': 215.0, 'priceType': 'BUY', 'formattedValue': '$ 215.00', 'membershipLevel': 'NORMAL'}</t>
         </is>
       </c>
       <c r="L115" t="inlineStr">
         <is>
-          <t>H509600110216155</t>
+          <t>H67800018978</t>
         </is>
       </c>
       <c r="M115" t="inlineStr">
         <is>
-          <t>[{'imageType': 'PRIMARY', 'format': 'product', 'url': 'https://cdn-mms.hktvmall.com/hktv/mms/uploadProductImage/f471/c5f9/233c/jhHsCOLOlE20231101122451_300.jpg', 'hoverImageUrl': ''}]</t>
+          <t>[{'imageType': 'PRIMARY', 'format': 'product', 'url': 'https://images.hktv-img.com/images/HKTV/20591/8978_main_36559737_20200406101510_01_300.jpg', 'hoverImageUrl': ''}]</t>
         </is>
       </c>
       <c r="N115" t="inlineStr">
         <is>
-          <t>[{'code': 'AA13300300001', 'name': 'Immunity', 'sequence': 0}, {'code': 'AA13303300001', 'name': 'Vitamin', 'sequence': 0}]</t>
+          <t>[{'code': 'AA99803000001', 'name': 'Baby Products', 'sequence': 0}, {'code': 'AA28320505001', 'name': 'Cream &amp; Moisturizer', 'sequence': 0}]</t>
         </is>
       </c>
       <c r="O115" t="inlineStr">
         <is>
-          <t>[{'code': 'H5096001_S_10216155', 'stock': {'stockLevelStatus': {'code': 'inStock', 'type': 'StockLevelStatus'}, 'consignmentWarehouse': False, 'forceInStock': False, 'thirdPartyLogisticsWarehouse': False}, 'url': 'main/Health-Express/s/H5096001/Personal-Care-%26-Health/Personal-Care-%26-Health/Health/Vitamin/Ultra-Strength-Vitamin-B-Complex-100-120-caplets-RANDOM-Packing-Parallel-Goods-Best-Before30-September-2026/p/H5096001_S_10216155', 'priceData': {'currencyIso': 'HKD', 'value': 389.0, 'priceType': 'BUY', 'formattedValue': '$ 389.00', 'membershipLevel': 'NORMAL'}, 'variantOptionQualifiers': [], 'color': 'Default', 'mainImage': {'imageType': 'PRIMARY', 'format': 'product', 'url': 'https://cdn-mms.hktvmall.com/hktv/mms/uploadProductImage/f471/c5f9/233c/jhHsCOLOlE20231101122451_300.jpg'}, 'swatchImage': {'imageType': 'PRIMARY', 'format': 'styleSwatch', 'url': 'https://cdn-mms.hktvmall.com/hktv/mms/uploadProductImage/f471/c5f9/233c/jhHsCOLOlE20231101122451_300.jpg'}, 'discountPrice': {'currencyIso': 'HKD', 'value': 165.0, 'priceType': 'DISCOUNT', 'formattedValue': '$ 165.00'}, 'loyalityPoints': '0.0', 'promotionText': 'RED', 'packingSpec': 'Exp:30/09/2026', 'countryOfOrigin': 'Canada', 'labels': [{'type': 'OFFER', 'name': 'Fixed price Discount (normal)'}, {'type': 'REBATE', 'name': '0% Rewards', 'amount': 0.0, 'loyaltyPoint': '0'}], 'potentialPromotions': [{'code': 'mms_percentage_discountH5096001_S_10216155_sys', 'promotionType': 'HktvProductPercentageDiscountPromotion', 'endDate': 'Dec 31, 2099 12:00:00 AM', 'description': 'Mms_FixedPrice_H5096001_S_10216155', 'priority': 95, 'percentage': 57.58355, 'percentageDiscountRow': [{'discount': 57.58355, 'customerType': 'NORMAL', 'priority': 0, 'description': 'Fixed price Discount (normal)'}], 'creationTime': 'Feb 07, 2024 09:38:21 AM'}, {'code': 'MMS_MDQP_H5096001_20240219_00036', 'promotionType': 'Product Threshold Percentage Discount Promotion (Store based)', 'endDate': 'Feb 29, 2024 11:59:00 PM', 'description': 'MMS_MDQP_H5096001_20240219_00036', 'priority': 85, 'percentage': 0.0, 'creationTime': 'Feb 19, 2024 02:34:32 PM'}, {'code': 'MMS_RP_H5096001_20231011_00018', 'promotionType': 'HKTV Product Threshold Perfect Partner Promotion (Store based)', 'endDate': 'Feb 29, 2024 11:59:00 PM', 'description': 'MMS_RP_H5096001_20231011_00018', 'priority': 77, 'percentage': 0.0, 'creationTime': 'Oct 10, 2023 11:13:28 AM'}, {'code': 'MMS_RP_H5096001_20231130_00033', 'promotionType': 'HKTV Product Threshold Perfect Partner Promotion (Store based)', 'endDate': 'Feb 29, 2024 11:59:36 PM', 'description': 'MMS_RP_H5096001_20231130_00033', 'priority': 77, 'percentage': 0.0, 'creationTime': 'Nov 30, 2023 02:24:12 PM'}, {'code': 'MMS_FP_H5096001_20240201_00033', 'promotionType': 'Product Threshold Free Gift Promotion', 'endDate': 'Feb 29, 2024 11:59:00 PM', 'description': 'MMS_FP_H5096001_20240201_00033', 'priority': 70, 'percentage': 0.0, 'creationTime': 'Feb 01, 2024 10:48:31 AM'}], 'thresholdPromotion': {'name': 'Purchase selected product $299 or above, Free a Melatonin 10 counts Gummies!', 'label': 'Free a Melatonin Gummies!', 'description': 'Purchase selected product $299 or above, Free a Jamieson Melatonin (2.5 mg) Gummies - Strawberry 10 gummies. Promotion until 29 Feb. While the stock lasts.\n', 'shortDescription': 'Purchase selected product $299 or above, Free a Jamieson Melatonin (2.5 mg) Gummies - Strawberry 10 gummies. Promotion until 29 Feb. While the stock lasts.\n', 'code': 'MMS_FP_H5096001_20240201_00033', 'categories': ['EE00000923502'], 'thresholdType': 'AMOUNT', 'discountType': 'FREEGIFT', 'productCount': 1, 'colorCode': '#FF0000', 'startTime': 1706756280000, 'endTime': 1709222340000}, 'priceList': [{'currencyIso': 'HKD', 'value': 389.0, 'priceType': 'BUY', 'formattedValue': '$ 389.00', 'membershipLevel': 'NORMAL'}, {'currencyIso': 'HKD', 'value': 164.9999905, 'priceType': 'DISCOUNT', 'formattedValue': '$ 165.00', 'membershipLevel': 'NORMAL'}], 'recommendedSellingPrice': [{'name': '', 'fontColor': '#000000', 'fontBgColor': '#FFFFFF', 'hasStrikeThrough': True}], 'savedPrice': [{'currencyIso': 'HKD', 'value': 224.0000095, 'priceType': 'DISCOUNT', 'formattedValue': '$ 224.00', 'membershipLevel': 'NORMAL'}], 'perfectPartnerPromotion': {'code': 'MMS_RP_H5096001_20231130_00033', 'name': '$69Redeem Jamieson Probiotics!', 'label': '$69Redeem Jamieson Probiotics!', 'description': 'Buy selected products can $69 redeem Jamieson - Chewable Probiotic 2 Billion - Strawberry 60 tablets. Promotion until 29 Feb . Offer can be used ONCE only. While stock last.\n', 'shortDescription': 'Buy selected products can $69 redeem Jamieson - Chewable Probiotic 2 Billion - Strawberry 60 tablets. Promotion until 29 Feb. Offer can be used ONCE only. While stock last.\n', 'colorCode': '#FF0000', 'discountType': 'QUANTITY', 'startTime': 1701319525000, 'endTime': 1709222376000}}]</t>
+          <t>[{'code': 'H6780001_S_8978', 'stock': {'stockLevelStatus': {'code': 'inStock', 'type': 'StockLevelStatus'}, 'consignmentWarehouse': False, 'forceInStock': False, 'thirdPartyLogisticsWarehouse': False}, 'url': 'main/Mustela-Flagship-store/s/H6780001/Mother-%26-Baby/Mother-%26-Baby/Baby-Medicine-%26-Ointment/Cream-%26-Vaseline/Cream-%26-Moisturizer/Stelatopia-Emollient-Balm-3385/p/H6780001_S_8978', 'priceData': {'currencyIso': 'HKD', 'value': 215.0, 'priceType': 'BUY', 'formattedValue': '$ 215.00', 'membershipLevel': 'NORMAL'}, 'variantOptionQualifiers': [], 'color': 'Default', 'mainImage': {'imageType': 'PRIMARY', 'format': 'product', 'url': 'https://images.hktv-img.com/images/HKTV/20591/8978_main_36559737_20200406101510_01_300.jpg'}, 'swatchImage': {'imageType': 'PRIMARY', 'format': 'styleSwatch', 'url': 'https://images.hktv-img.com/images/HKTV/20591/8978_main_36559737_20200406101510_01_300.jpg'}, 'discountPrice': {'currencyIso': 'HKD', 'value': 161.5, 'priceType': 'DISCOUNT', 'formattedValue': '$ 161.50'}, 'loyalityPoints': '0.0', 'promotionText': 'RED', 'packingSpec': '200 ml', 'countryOfOrigin': 'France', 'labels': [{'type': 'OFFER', 'name': 'Fixed price Discount (normal)'}, {'type': 'REBATE', 'name': '0% Rewards', 'amount': 0.0, 'loyaltyPoint': '0'}], 'potentialPromotions': [{'code': 'mms_percentage_discountH6780001_S_8978_sys', 'promotionType': 'HktvProductPercentageDiscountPromotion', 'endDate': 'Mar 04, 2024 01:00:00 AM', 'description': 'Mms_FixedPrice_H6780001_S_8978', 'priority': 95, 'percentage': 24.88372, 'percentageDiscountRow': [{'discount': 24.88372, 'customerType': 'NORMAL', 'priority': 0, 'description': 'Fixed price Discount (normal)'}], 'creationTime': 'Feb 16, 2024 12:01:17 AM'}, {'code': '2024Feb', 'promotionType': 'Product Threshold Free Gift Promotion', 'endDate': 'Mar 04, 2024 01:00:00 AM', 'description': '2024Feb', 'priority': 70, 'percentage': 0.0, 'creationTime': 'Feb 07, 2024 05:12:54 PM'}], 'thresholdPromotion': {'name': 'Buy $500 ,free $188 gift', 'label': 'Buy $500,free $188 gift', 'description': '[Mustela x Babo Botanicals Hot Offer] Purchase over $500 ,free a Babo Botanicals Sensitive/Eczema Fragrance Free Miracle Moisturizing Cream 57ml ( PSP $188 ).Promotion til Mar 3 , 2024. While stocks last. Promotion not include hampers.Please refer to product information for expiry date information.', 'shortDescription': 'Purchase over $500 ,free a Babo Botanicals Sensitive/Eczema Fragrance Free Miracle Moisturizing Cream 57ml ( PSP $188 )', 'code': '2024Feb', 'categories': ['ZZ24020702001'], 'thresholdType': 'AMOUNT', 'discountType': 'FREEGIFT', 'productCount': 1, 'colorCode': '#CC0033', 'startTime': 1708012800000, 'endTime': 1709485200000}, 'priceList': [{'currencyIso': 'HKD', 'value': 215.0, 'priceType': 'BUY', 'formattedValue': '$ 215.00', 'membershipLevel': 'NORMAL'}, {'currencyIso': 'HKD', 'value': 161.500002, 'priceType': 'DISCOUNT', 'formattedValue': '$ 161.50', 'membershipLevel': 'NORMAL'}], 'recommendedSellingPrice': [], 'savedPrice': [{'currencyIso': 'HKD', 'value': 53.499998, 'priceType': 'DISCOUNT', 'formattedValue': '$ 53.50', 'membershipLevel': 'NORMAL'}]}]</t>
         </is>
       </c>
       <c r="P115" t="inlineStr">
         <is>
-          <t>Jamieson</t>
+          <t>Mustela</t>
         </is>
       </c>
       <c r="Q115" t="inlineStr">
         <is>
-          <t>H5096001</t>
+          <t>H6780001</t>
         </is>
       </c>
       <c r="R115" t="inlineStr">
         <is>
-          <t>H5096001</t>
+          <t>H6780001</t>
         </is>
       </c>
       <c r="S115" t="inlineStr">
         <is>
-          <t>Health Express</t>
+          <t>Mustela Flagship store</t>
         </is>
       </c>
       <c r="T115" t="inlineStr">
         <is>
-          <t>trustworthy_store</t>
+          <t>flagship_store</t>
         </is>
       </c>
       <c r="U115" t="inlineStr">
         <is>
-          <t>Trustworthy Store</t>
+          <t>Flagship store</t>
         </is>
       </c>
       <c r="V115" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="W115" t="b">
         <v>0</v>
@@ -30351,17 +30359,17 @@
       </c>
       <c r="Z115" t="inlineStr">
         <is>
-          <t>Exp:30/09/2026</t>
+          <t>200 ml</t>
         </is>
       </c>
       <c r="AA115" t="inlineStr">
         <is>
-          <t>Canada</t>
+          <t>France</t>
         </is>
       </c>
       <c r="AB115" t="inlineStr">
         <is>
-          <t>&lt;p&gt;本店將依照個人資料保護法相關規定保護您的個人資料﹐並遵守 HKTVmall 的私隱保護政策。如有任何爭議﹐商戶將保留最終決定權而毋須另行通知。因實際情況所限﹐HKTVmall 與門市銷售價格、促銷活動、條件與限制有機會各為不同﹐一切條款只適用於 HKTVmall。HKTVmall 並不是此店所出售的貨品或服務的賣方或供應商。&lt;br /&gt;&lt;br /&gt;HKTVmall 並非商品或服務的賣方或供應商。HKTVmall 負責管理網站、安排訂單處理過程及完成提供閣下透過 HKTVmall 向供應商訂購的商品或服務。透過 HKTVmall 購買的商品或服務須受商戶的條款及細則約束。對銷售及處理索賠或因閣下與商戶之間的合約引起的任何其他問題是商戶的責任。就購買優惠券方面，閣下除與優惠券的賣方訂立合約，當閣下使用優惠券同時也與實際提供商品或服務的商戶訂立合約。HKTVmall 概不承擔任何因閣下透過 HKTVmall 購買任何商品，服務或優惠券可能直接或間接蒙受索賠，損失或損害的責任，不論如何造成（包括遺漏或疏忽）。我們也不接受因使用或依據透過 HKTVmall 獲取的信息的任何索賠，損失或損害承擔任何責任。確保透過 HKTVmall 獲得的任何產品，服務或信息滿足閣下的特定要求是閣下的全部責任。特別是美容服務，閣下務必注意，在決定購買前應確保了解該服務將如何進行方。如有疑問，閣下應諮詢專業顧問。&lt;/p&gt;</t>
+          <t>&lt;p&gt;&amp;bull; 這商品買賣交易由HKTVmall 提供。&lt;br /&gt;&amp;nbsp;&lt;/p&gt;&lt;p&gt;&amp;bull; 因實際情況所限，HKTVmall 與門市銷售價格、促銷活動、條件與限制有機會各為不同，一切條款只適用於HKTVmall。&lt;br /&gt;&amp;nbsp;&lt;/p&gt;&lt;p&gt;&amp;bull; 本店將依照個人資料( 私隱) 條例相關規定保護您的個人資料, 並遵守HKTVmall 的私隱保護政策。&lt;/p&gt;&lt;p&gt;&lt;br /&gt;&amp;bull; 商品顏色會略有不同，一切以實物為準。&lt;br /&gt;&amp;nbsp;&lt;/p&gt;&lt;p&gt;&amp;bull; 如有任何爭議, HKTVmall保留最終決定權。&lt;/p&gt;</t>
         </is>
       </c>
       <c r="AC115" t="inlineStr">
@@ -30376,7 +30384,7 @@
       </c>
       <c r="AE115" t="inlineStr">
         <is>
-          <t>[{'currencyIso': 'HKD', 'value': 389.0, 'priceType': 'BUY', 'formattedValue': '$ 389.00', 'membershipLevel': 'NORMAL'}, {'currencyIso': 'HKD', 'value': 164.9999905, 'priceType': 'DISCOUNT', 'formattedValue': '$ 165.00', 'membershipLevel': 'NORMAL'}]</t>
+          <t>[{'currencyIso': 'HKD', 'value': 215.0, 'priceType': 'BUY', 'formattedValue': '$ 215.00', 'membershipLevel': 'NORMAL'}, {'currencyIso': 'HKD', 'value': 161.500002, 'priceType': 'DISCOUNT', 'formattedValue': '$ 161.50', 'membershipLevel': 'NORMAL'}]</t>
         </is>
       </c>
       <c r="AF115" t="inlineStr">
@@ -30386,7 +30394,7 @@
       </c>
       <c r="AG115" t="inlineStr">
         <is>
-          <t>On Sales|RSP$389</t>
+          <t>Baby Fair Offer|PSP: 215</t>
         </is>
       </c>
       <c r="AH115" t="inlineStr">
@@ -30396,7 +30404,7 @@
       </c>
       <c r="AI115" t="inlineStr">
         <is>
-          <t>{'name': 'Purchase selected product $299 or above, Free a Melatonin 10 counts Gummies!', 'label': 'Free a Melatonin Gummies!', 'description': 'Purchase selected product $299 or above, Free a Jamieson Melatonin (2.5 mg) Gummies - Strawberry 10 gummies. Promotion until 29 Feb. While the stock lasts.\n', 'shortDescription': 'Purchase selected product $299 or above, Free a Jamieson Melatonin (2.5 mg) Gummies - Strawberry 10 gummies. Promotion until 29 Feb. While the stock lasts.\n', 'code': 'MMS_FP_H5096001_20240201_00033', 'categories': ['EE00000923502'], 'thresholdType': 'AMOUNT', 'discountType': 'FREEGIFT', 'productCount': 1, 'colorCode': '#FF0000', 'startTime': 1706756280000, 'endTime': 1709222340000}</t>
+          <t>{'name': 'Buy $500 ,free $188 gift', 'label': 'Buy $500,free $188 gift', 'description': '[Mustela x Babo Botanicals Hot Offer] Purchase over $500 ,free a Babo Botanicals Sensitive/Eczema Fragrance Free Miracle Moisturizing Cream 57ml ( PSP $188 ).Promotion til Mar 3 , 2024. While stocks last. Promotion not include hampers.Please refer to product information for expiry date information.', 'shortDescription': 'Purchase over $500 ,free a Babo Botanicals Sensitive/Eczema Fragrance Free Miracle Moisturizing Cream 57ml ( PSP $188 )', 'code': '2024Feb', 'categories': ['ZZ24020702001'], 'thresholdType': 'AMOUNT', 'discountType': 'FREEGIFT', 'productCount': 1, 'colorCode': '#CC0033', 'startTime': 1708012800000, 'endTime': 1709485200000}</t>
         </is>
       </c>
       <c r="AJ115" t="b">
@@ -30404,17 +30412,17 @@
       </c>
       <c r="AK115" t="inlineStr">
         <is>
-          <t>[{'currencyIso': 'HKD', 'value': 224.0000095, 'priceType': 'DISCOUNT', 'formattedValue': '$ 224.00', 'membershipLevel': 'NORMAL'}]</t>
+          <t>[{'currencyIso': 'HKD', 'value': 53.499998, 'priceType': 'DISCOUNT', 'formattedValue': '$ 53.50', 'membershipLevel': 'NORMAL'}]</t>
         </is>
       </c>
       <c r="AL115" t="inlineStr">
         <is>
-          <t>D62708</t>
+          <t>H77191</t>
         </is>
       </c>
       <c r="AM115" t="inlineStr">
         <is>
-          <t>AA13303300001</t>
+          <t>AA28320505001</t>
         </is>
       </c>
       <c r="AN115" t="b">
@@ -30443,7 +30451,7 @@
       </c>
       <c r="AV115" t="inlineStr">
         <is>
-          <t>{'code': 'H5096001'}</t>
+          <t>{'code': 'H6780001'}</t>
         </is>
       </c>
       <c r="AW115" t="inlineStr">
@@ -30459,21 +30467,21 @@
       </c>
       <c r="AZ115" t="inlineStr">
         <is>
-          <t>10,000+ Sold</t>
+          <t>2,000+ Sold</t>
         </is>
       </c>
       <c r="BA115" t="n">
-        <v>50</v>
+        <v>210</v>
       </c>
       <c r="BB115" t="n">
         <v>70</v>
       </c>
       <c r="BC115" t="n">
-        <v>12</v>
+        <v>70</v>
       </c>
       <c r="BD115" t="inlineStr">
         <is>
-          <t>['8798419610077', '8798354074077']</t>
+          <t>['8798419610077']</t>
         </is>
       </c>
       <c r="BE115" t="inlineStr">
@@ -30486,21 +30494,17 @@
         <v>0</v>
       </c>
       <c r="BH115" t="n">
-        <v>18774</v>
+        <v>2696</v>
       </c>
       <c r="BI115" t="inlineStr">
         <is>
           <t>[{'startTime': 1708617600000, 'endTime': 1708660800000, 'deliveryMode': 'standard-same-day'}, {'startTime': 1708660800000, 'endTime': 1708696800000, 'deliveryMode': 'standard-express'}, {'startTime': 1708696800000, 'endTime': 1708704000000, 'deliveryMode': 'standard-express'}, {'startTime': 1708704000000, 'endTime': 1708747200000, 'deliveryMode': 'standard-same-day'}, {'startTime': 1708747200000, 'endTime': 1708783200000, 'deliveryMode': 'standard-express'}, {'startTime': 1708783200000, 'endTime': 1708790400000, 'deliveryMode': 'standard-express'}, {'startTime': 1708790400000, 'endTime': 1708833600000, 'deliveryMode': 'standard-same-day'}, {'startTime': 1708833600000, 'endTime': 1708869600000, 'deliveryMode': 'standard-express'}, {'startTime': 1708869600000, 'endTime': 1708876800000, 'deliveryMode': 'standard-express'}, {'startTime': 1708876800000, 'endTime': 1708920000000, 'deliveryMode': 'standard-same-day'}, {'startTime': 1708920000000, 'endTime': 1708956000000, 'deliveryMode': 'standard-express'}, {'startTime': 1708956000000, 'endTime': 1708963200000, 'deliveryMode': 'standard-express'}]</t>
         </is>
       </c>
-      <c r="BJ115" t="inlineStr">
-        <is>
-          <t>{'code': 'MMS_RP_H5096001_20231130_00033', 'name': '$69Redeem Jamieson Probiotics!', 'label': '$69Redeem Jamieson Probiotics!', 'description': 'Buy selected products can $69 redeem Jamieson - Chewable Probiotic 2 Billion - Strawberry 60 tablets. Promotion until 29 Feb . Offer can be used ONCE only. While stock last.\n', 'shortDescription': 'Buy selected products can $69 redeem Jamieson - Chewable Probiotic 2 Billion - Strawberry 60 tablets. Promotion until 29 Feb. Offer can be used ONCE only. While stock last.\n', 'colorCode': '#FF0000', 'discountType': 'QUANTITY', 'startTime': 1701319525000, 'endTime': 1709222376000}</t>
-        </is>
-      </c>
+      <c r="BJ115" t="inlineStr"/>
       <c r="BK115" t="inlineStr">
         <is>
-          <t>['MO']</t>
+          <t>['MO', 'UK', 'AU', 'CA']</t>
         </is>
       </c>
       <c r="BL115" t="inlineStr"/>
@@ -30509,22 +30513,22 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>H6780001_S_8978</t>
+          <t>S2077001_S_HFL-SIO</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Stelatopia Emollient Balm  3385</t>
+          <t>SACHA INCHI EXTRA VIRGIN OIL (100% ORGANIC) *Best before date: 26 DEC 2024</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>main/Mustela-Flagship-store/s/H6780001/Mother-%26-Baby/Mother-%26-Baby/Baby-Medicine-%26-Ointment/Cream-%26-Vaseline/Cream-%26-Moisturizer/Stelatopia-Emollient-Balm-3385/p/H6780001_S_8978</t>
+          <t>main/Happy-Favour-Limited/s/S2077001/Supermarket/Supermarket/Rice-%26-Cooking-Oil/Cooking-Oil/Others/SACHA-INCHI-EXTRA-VIRGIN-OIL-100-ORGANIC-Best-before-date-26-DEC-2024/p/S2077001_S_HFL-SIO</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>&lt;p&gt;&lt;span style="font-size: 15px;"&gt;[ Atopic Skin and extremely dry skin]&lt;/span&gt;&lt;/p&gt;&lt;div class="tabBody" style="vertical-align: baseline;font-size: 15px;"&gt;&lt;div style="vertical-align: baseline;"&gt;&lt;p style="vertical-align: baseline;"&gt;&lt;span style="vertical-align: baseline;"&gt;Attributes&lt;/span&gt;&lt;/p&gt;&lt;p style="vertical-align: baseline;"&gt;&lt;span style="vertical-align: baseline;"&gt;• Made in France&lt;/span&gt;&lt;/p&gt;&lt;p style="vertical-align: baseline;"&gt;&lt;span style="vertical-align: baseline;"&gt;• Deeply moisturizes, replenishes and soothes sensations of itchy skin&lt;/span&gt;&lt;/p&gt;&lt;p style="vertical-align: baseline;"&gt;&lt;span style="vertical-align: baseline;"&gt;• Restores and strengthen damaged natural skin barrier of atopic-prone skin.&lt;/span&gt;&lt;/p&gt;&lt;p style="vertical-align: baseline;"&gt;&lt;span style="vertical-align: baseline;"&gt;• With a rich and creamy texture which forms a layer of protection film&lt;/span&gt;&lt;/p&gt;&lt;p style="vertical-align: baseline;"&gt;&lt;span style="vertical-align: baseline;"&gt;• Reduces adhesion of Staphylococcus aureus* by preventing formation of biofilm, its protective coating.&lt;/span&gt;&lt;/p&gt;&lt;p style="vertical-align: baseline;"&gt;&lt;span style="vertical-align: baseline;"&gt;*Bacterium involved in symptoms characteristic of atopic-prone skin.&lt;/span&gt;&lt;/p&gt;&lt;p style="vertical-align: baseline;"&gt;&lt;/p&gt;&lt;p style="vertical-align: baseline;"&gt;&lt;br/&gt;&lt;/p&gt;&lt;p style="vertical-align: baseline;"&gt;&lt;/p&gt;&lt;p style="vertical-align: baseline;"&gt;Patented Natural Ingredients&lt;/p&gt;&lt;p style="vertical-align: baseline;"&gt;&lt;span style="vertical-align: baseline;"&gt;• Sunflower Oil Distillate: has soothing properties and provides lipids essential to maintaining skin's moisture barrier.&lt;/span&gt;&lt;/p&gt;&lt;p style="vertical-align: baseline;"&gt;&lt;span style="vertical-align: baseline;"&gt;• Avocado Perseose®: preserves the cellular richness, moisturizes and protects the natural skin barrier, prevent daily damage for atopic-prone skin.&lt;/span&gt;&lt;/p&gt;&lt;p style="vertical-align: baseline;"&gt;&lt;span style="vertical-align: baseline;"&gt;• Carnauba Wax of natural origin: leaves a protective layer on the skin and brings a rich texture.&lt;/span&gt;&lt;/p&gt;&lt;p style="vertical-align: baseline;"&gt;&lt;span style="vertical-align: baseline;"&gt;• 0% medication, fragrance, alcohol, paraben, phthalate, phenoxyethanol, artificial colorant&lt;/span&gt;&lt;/p&gt;&lt;p style="vertical-align: baseline;"&gt;&lt;br/&gt;&lt;/p&gt;&lt;p style="vertical-align: baseline;"&gt;&lt;span style="vertical-align: baseline;"&gt;Proven Efficacy&lt;/span&gt;&lt;/p&gt;&lt;p style="vertical-align: baseline;"&gt;&lt;span style="vertical-align: baseline;"&gt;• Dermatologically and pediatric tested&lt;/span&gt;&lt;/p&gt;&lt;p style="vertical-align: baseline;"&gt;&lt;span style="vertical-align: baseline;"&gt;• Guarantee the safety of usage from birth on (1)&lt;/span&gt;&lt;/p&gt;&lt;p style="vertical-align: baseline;"&gt;&lt;span style="vertical-align: baseline;"&gt;• 91% agree: The product can claim anti-itching effect (2)&lt;/span&gt;&lt;/p&gt;&lt;p style="vertical-align: baseline;"&gt;&lt;span style="vertical-align: baseline;"&gt;• 90% agree: The product can reduces severe dryness (3)&lt;/span&gt;&lt;/p&gt;&lt;p style="vertical-align: baseline;"&gt;&lt;span style="vertical-align: baseline;"&gt;(1)Including newborns out of the NICU.&lt;/span&gt;&lt;/p&gt;&lt;p style="vertical-align: baseline;"&gt;&lt;span style="vertical-align: baseline;"&gt;(2)Clinical study conducted under dermatological and pediatric control on 65 newborns, babies and children with atopic-prone skin over 28 days. Examinator perceived the products can claim anti-itching effect.&lt;/span&gt;&lt;/p&gt;&lt;p style="vertical-align: baseline;"&gt;&lt;span style="vertical-align: baseline;"&gt;(3)Clinical study conducted under dermatological and pediatric control on 65 newborns, babies and children with atopic-prone skin over 28 days. Users' parents perceived the products can reduces severe dryness.&lt;/span&gt;&lt;/p&gt;&lt;p style="vertical-align: baseline;"&gt;&lt;br/&gt;&lt;/p&gt;&lt;p style="vertical-align: baseline;"&gt;Tips of use&lt;/p&gt;&lt;p style="vertical-align: baseline;"&gt;&lt;span style="vertical-align: baseline;"&gt;Apply twice a day on dry and unbroken skin of face and body after using Stelatopia® Cleansing Gel or Stelatopia® Cleansing Oil.&lt;/span&gt;&lt;/p&gt;&lt;p style="vertical-align: baseline;"&gt;&lt;br/&gt;&lt;/p&gt;&lt;p style="vertical-align: baseline;"&gt;Pleasurable to use:&lt;/p&gt;&lt;p style="vertical-align: baseline;"&gt;&lt;span style="vertical-align: baseline;"&gt;•Emollient balm with a rich, creamy texture that leaves a protective layer yet not sticky&lt;/span&gt;&lt;/p&gt;&lt;p style="vertical-align: baseline;"&gt;&lt;span style="vertical-align: baseline;"&gt;• Spreads and penetrates easily.&lt;/span&gt;&lt;/p&gt;&lt;p style="vertical-align: baseline;"&gt;&lt;span style="vertical-align: baseline;"&gt;• Enables quick dressing.&lt;/span&gt;&lt;/p&gt;&lt;p style="vertical-align: baseline;"&gt;&lt;br/&gt;&lt;/p&gt;&lt;p style="vertical-align: baseline;"&gt;INGREDIENTS : AQUA (WATER), GLYCERIN, PETROLATUM, CAPRYLIC/CAPRIC TRIGLYCERIDE, HYDROGENATED VEGETABLE OIL, SUCROSE DISTEARATE, DEXTRIN, COPERNICIA CERIFERA CERA (COPERNICIA CERIFERA (CARNAUBA) WAX ), HELIANTHUS ANNUUS (SUNFLOWER) SEED OIL UNSAPONIFIABLES, PRUNUS DOMESTICA SEED EXTRACT, 1,2-HEXANEDIOL, SUCROSE STEARATE, CANDELILLA CERA (EUPHORBIA CERIFERA (CANDELILLA) WAX), SQUALANE, GLYCERYL CAPRYLATE, HYDROXYETHYL ACRYLATE/SODIUM ACRYLOYLDIMETHYL TAURATE COPOLYMER, XANTHAN GUM, GLUCOSE, SORBITOL, POLYSORBATE 60, SORBITAN ISOSTEARATE, PERSEA GRATISSIMA (AVOCADO) FRUIT EXTRACT, CERAMIDE NP, PHYTOSPHINGOSINE, SODIUM HYDROXIDE&lt;/p&gt;&lt;/div&gt;&lt;/div&gt;&lt;!--EndFragment--&gt;&lt;p&gt;&lt;br/&gt;&lt;/p&gt;&lt;p&gt;&lt;br/&gt;&lt;/p&gt;&lt;p&gt;&lt;br/&gt;&lt;/p&gt;&lt;p&gt;&lt;br/&gt;&lt;/p&gt;</t>
+          <t>&lt;h4&gt;MyRoots Sacha Inchi Extra Virgin Oil is a cold pressed oil obtained from the seeds of the Sacha Inchi plant grown and sustainably harvested in the Amazon jungle of Peru. Without the use of chemicals or solvents at low temperatures preserving their essential fatty acids and tocopherols.  It has one of the highest contents of Omega 3, 6 among all vegetable oils in the world, which are the two essential fatty acids for our body. Due to its high content of naturally occurring tocopherols (Vitamin E), it can be applied directly on your skin as an anti-aging formulation for all types of skins; or as a protective formulation for irritated skins repairs.&lt;/h4&gt;&lt;h4&gt;&lt;span lang="EN-US"&gt;Benefits:&lt;/span&gt;&lt;/h4&gt;&lt;h4&gt;&lt;span lang="EN-US"&gt;1.&lt;span style="font-size: 7pt;"&gt;         &lt;/span&gt;&lt;/span&gt;&lt;span lang="EN-US"&gt;Rich in Omega 3, 6, 9&lt;/span&gt;&lt;/h4&gt;&lt;h4&gt;&lt;span lang="EN-US"&gt;2.&lt;span style="font-size: 7pt;"&gt;         &lt;/span&gt;&lt;/span&gt;&lt;span lang="EN-US"&gt;Rich in Vitamin E&lt;/span&gt;&lt;/h4&gt;&lt;h4&gt;&lt;span lang="EN-US"&gt;3.&lt;span style="font-size: 7pt;"&gt;         &lt;/span&gt;&lt;/span&gt;&lt;span lang="EN-US"&gt;High Smoke point (255&lt;/span&gt;℃&lt;span lang="EN-US"&gt;)&lt;/span&gt;&lt;span lang="EN-US"&gt;&lt;/span&gt;&lt;/h4&gt;&lt;h4&gt;&lt;span lang="EN-US"&gt;4.&lt;span style="font-size: 7pt;"&gt;         &lt;/span&gt;&lt;/span&gt;&lt;span lang="EN-US"&gt;Anti-aging and skin repair&lt;/span&gt;&lt;/h4&gt;&lt;h4&gt;&lt;span lang="EN-US"&gt;5.&lt;span style="font-size: 7pt;"&gt;         &lt;/span&gt;&lt;/span&gt;&lt;span lang="EN-US"&gt;Cold pressed to preserve the essential Omega and Vitamin E&lt;/span&gt;&lt;/h4&gt;&lt;h4&gt;&lt;span lang="EN-US"&gt; &lt;/span&gt;&lt;/h4&gt;&lt;h4&gt;&lt;span lang="EN-US"&gt;Direction to use:&lt;/span&gt;&lt;/h4&gt;&lt;h4&gt;&lt;span lang="EN-US"&gt;-&amp;gt;Due to its slightly nutty flavor, our Sacha Inchi oil can be consumed directly, to replace fish oil supplement products.&lt;/span&gt;&lt;/h4&gt;&lt;h4&gt;&lt;span lang="EN-US"&gt;-&amp;gt;Or apply in salad dressings, vegetables, pastas, yogurts or smoothies. It has a high smoke point of 255&lt;/span&gt;℃&lt;span lang="EN-US"&gt; which is suitable for all types of cooking methods, including baking, roasting and stir-frying, cooking over medium-high heat.&lt;/span&gt;&lt;/h4&gt;&lt;h4&gt;&lt;span lang="EN-US"&gt;-&amp;gt;Apply directly on your skin for rapid repair and cosmetic use.&lt;/span&gt;&lt;/h4&gt;&lt;!--EndFragment--&gt;&lt;p&gt;&lt;br/&gt;&lt;/p&gt;&lt;p&gt;&lt;br/&gt;&lt;/p&gt;</t>
         </is>
       </c>
       <c r="E116" t="b">
@@ -30539,73 +30543,73 @@
         </is>
       </c>
       <c r="H116" t="n">
-        <v>4.8</v>
+        <v>4.4</v>
       </c>
       <c r="I116" t="n">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="J116" t="inlineStr">
         <is>
-          <t>Stelatopia Emollient Balm</t>
+          <t>&lt;h4&gt;&lt;b&gt;&lt;u&gt;&lt;span lang="EN-US" style="vertical-align: baseline;"&gt;100&lt;/span&gt;&lt;span lang="EN-US" style="vertical-align: baseline;"&gt;% Organic&lt;span style="vertical-align: baseline;"&gt; &lt;/span&gt;&lt;/span&gt;&lt;span lang="EN-US" style="vertical-align: baseline;"&gt;Sacha Inchi Extra Virgin Oil&lt;/span&gt;&lt;span lang="EN-US" style="vertical-align: baseline;"&gt;&lt;/span&gt;&lt;/u&gt;&lt;/b&gt;&lt;/h4&gt;&lt;h4&gt;&lt;b style="vertical-align: baseline;"&gt;&lt;b&gt;&lt;u style="vertical-align: baseline;"&gt;&lt;span lang="EN-US" style="vertical-align: baseline;"&gt;MyRoots &lt;/span&gt;&lt;/u&gt;&lt;/b&gt;&lt;/b&gt;&lt;b style="vertical-align: baseline;"&gt;&lt;b&gt;&lt;u style="vertical-align: baseline;"&gt;&lt;span lang="EN-US" style="vertical-align: baseline;"&gt;Sacha Inchi Extra Virgin Oil&lt;/span&gt;&lt;/u&gt;&lt;/b&gt;&lt;/b&gt;&lt;b style="vertical-align: baseline;"&gt;&lt;b&gt;&lt;u style="vertical-align: baseline;"&gt;&lt;span lang="EN-US" style="vertical-align: baseline;"&gt; is USDA Organic (100%),EU Organic, and HALAL&lt;span style="vertical-align: baseline;"&gt; &lt;/span&gt;&lt;/span&gt;&lt;/u&gt;&lt;/b&gt;&lt;/b&gt;&lt;b style="vertical-align: baseline;"&gt;&lt;b&gt;&lt;u style="vertical-align: baseline;"&gt;&lt;span lang="EN-US" style="vertical-align: baseline;"&gt;and ControlUnion Fair Choice (Social and Fair Trade Standard) &lt;/span&gt;Certified&lt;/u&gt;&lt;/b&gt;&lt;/b&gt;&lt;/h4&gt;&lt;h4&gt;*Best before date: 15 JUN 2023&lt;/h4&gt;</t>
         </is>
       </c>
       <c r="K116" t="inlineStr">
         <is>
-          <t>{'currencyIso': 'HKD', 'value': 215.0, 'priceType': 'BUY', 'formattedValue': '$ 215.00', 'membershipLevel': 'NORMAL'}</t>
+          <t>{'currencyIso': 'HKD', 'value': 248.0, 'priceType': 'BUY', 'formattedValue': '$ 248.00', 'membershipLevel': 'NORMAL'}</t>
         </is>
       </c>
       <c r="L116" t="inlineStr">
         <is>
-          <t>H67800018978</t>
+          <t>S2077001HFL-SIO</t>
         </is>
       </c>
       <c r="M116" t="inlineStr">
         <is>
-          <t>[{'imageType': 'PRIMARY', 'format': 'product', 'url': 'https://images.hktv-img.com/images/HKTV/20591/8978_main_36559737_20200406101510_01_300.jpg', 'hoverImageUrl': ''}]</t>
+          <t>[{'imageType': 'PRIMARY', 'format': 'product', 'url': 'https://images.hktv-img.com/images/HKTV/15683/HFL-SIO_main_43535295_20200614234108_01_300.jpg', 'hoverImageUrl': ''}]</t>
         </is>
       </c>
       <c r="N116" t="inlineStr">
         <is>
-          <t>[{'code': 'AA99803000001', 'name': 'Baby Products', 'sequence': 0}, {'code': 'AA28320505001', 'name': 'Cream &amp; Moisturizer', 'sequence': 0}]</t>
+          <t>[{'code': 'AA13300300001', 'name': 'Immunity', 'sequence': 0}, {'code': 'AA11382060001', 'name': 'Others', 'sequence': 0}, {'code': 'AA13306100001', 'name': 'Brain Health', 'sequence': 0}]</t>
         </is>
       </c>
       <c r="O116" t="inlineStr">
         <is>
-          <t>[{'code': 'H6780001_S_8978', 'stock': {'stockLevelStatus': {'code': 'inStock', 'type': 'StockLevelStatus'}, 'consignmentWarehouse': False, 'forceInStock': False, 'thirdPartyLogisticsWarehouse': False}, 'url': 'main/Mustela-Flagship-store/s/H6780001/Mother-%26-Baby/Mother-%26-Baby/Baby-Medicine-%26-Ointment/Cream-%26-Vaseline/Cream-%26-Moisturizer/Stelatopia-Emollient-Balm-3385/p/H6780001_S_8978', 'priceData': {'currencyIso': 'HKD', 'value': 215.0, 'priceType': 'BUY', 'formattedValue': '$ 215.00', 'membershipLevel': 'NORMAL'}, 'variantOptionQualifiers': [], 'color': 'Default', 'mainImage': {'imageType': 'PRIMARY', 'format': 'product', 'url': 'https://images.hktv-img.com/images/HKTV/20591/8978_main_36559737_20200406101510_01_300.jpg'}, 'swatchImage': {'imageType': 'PRIMARY', 'format': 'styleSwatch', 'url': 'https://images.hktv-img.com/images/HKTV/20591/8978_main_36559737_20200406101510_01_300.jpg'}, 'discountPrice': {'currencyIso': 'HKD', 'value': 161.5, 'priceType': 'DISCOUNT', 'formattedValue': '$ 161.50'}, 'loyalityPoints': '0.0', 'promotionText': 'RED', 'packingSpec': '200 ml', 'countryOfOrigin': 'France', 'labels': [{'type': 'OFFER', 'name': 'Fixed price Discount (normal)'}, {'type': 'REBATE', 'name': '0% Rewards', 'amount': 0.0, 'loyaltyPoint': '0'}], 'potentialPromotions': [{'code': 'mms_percentage_discountH6780001_S_8978_sys', 'promotionType': 'HktvProductPercentageDiscountPromotion', 'endDate': 'Mar 04, 2024 01:00:00 AM', 'description': 'Mms_FixedPrice_H6780001_S_8978', 'priority': 95, 'percentage': 24.88372, 'percentageDiscountRow': [{'discount': 24.88372, 'customerType': 'NORMAL', 'priority': 0, 'description': 'Fixed price Discount (normal)'}], 'creationTime': 'Feb 16, 2024 12:01:17 AM'}, {'code': '2024Feb', 'promotionType': 'Product Threshold Free Gift Promotion', 'endDate': 'Mar 04, 2024 01:00:00 AM', 'description': '2024Feb', 'priority': 70, 'percentage': 0.0, 'creationTime': 'Feb 07, 2024 05:12:54 PM'}], 'thresholdPromotion': {'name': 'Buy $500 ,free $188 gift', 'label': 'Buy $500,free $188 gift', 'description': '[Mustela x Babo Botanicals Hot Offer] Purchase over $500 ,free a Babo Botanicals Sensitive/Eczema Fragrance Free Miracle Moisturizing Cream 57ml ( PSP $188 ).Promotion til Mar 3 , 2024. While stocks last. Promotion not include hampers.Please refer to product information for expiry date information.', 'shortDescription': 'Purchase over $500 ,free a Babo Botanicals Sensitive/Eczema Fragrance Free Miracle Moisturizing Cream 57ml ( PSP $188 )', 'code': '2024Feb', 'categories': ['ZZ24020702001'], 'thresholdType': 'AMOUNT', 'discountType': 'FREEGIFT', 'productCount': 1, 'colorCode': '#CC0033', 'startTime': 1708012800000, 'endTime': 1709485200000}, 'priceList': [{'currencyIso': 'HKD', 'value': 215.0, 'priceType': 'BUY', 'formattedValue': '$ 215.00', 'membershipLevel': 'NORMAL'}, {'currencyIso': 'HKD', 'value': 161.500002, 'priceType': 'DISCOUNT', 'formattedValue': '$ 161.50', 'membershipLevel': 'NORMAL'}], 'recommendedSellingPrice': [], 'savedPrice': [{'currencyIso': 'HKD', 'value': 53.499998, 'priceType': 'DISCOUNT', 'formattedValue': '$ 53.50', 'membershipLevel': 'NORMAL'}]}]</t>
+          <t>[{'code': 'S2077001_S_HFL-SIO', 'stock': {'stockLevelStatus': {'code': 'inStock', 'type': 'StockLevelStatus'}, 'consignmentWarehouse': False, 'forceInStock': False, 'thirdPartyLogisticsWarehouse': False}, 'url': 'main/Happy-Favour-Limited/s/S2077001/Supermarket/Supermarket/Rice-%26-Cooking-Oil/Cooking-Oil/Others/SACHA-INCHI-EXTRA-VIRGIN-OIL-100-ORGANIC-Best-before-date-26-DEC-2024/p/S2077001_S_HFL-SIO', 'priceData': {'currencyIso': 'HKD', 'value': 248.0, 'priceType': 'BUY', 'formattedValue': '$ 248.00', 'membershipLevel': 'NORMAL'}, 'variantOptionQualifiers': [], 'color': 'Default', 'mainImage': {'imageType': 'PRIMARY', 'format': 'product', 'url': 'https://images.hktv-img.com/images/HKTV/15683/HFL-SIO_main_43535295_20200614234108_01_300.jpg'}, 'swatchImage': {'imageType': 'PRIMARY', 'format': 'styleSwatch', 'url': 'https://images.hktv-img.com/images/HKTV/15683/HFL-SIO_main_43535295_20200614234108_01_300.jpg'}, 'discountPrice': {'currencyIso': 'HKD', 'value': 228.0, 'priceType': 'DISCOUNT', 'formattedValue': '$ 228.00'}, 'loyalityPoints': '0.0', 'promotionText': 'RED', 'packingSpec': '250ml', 'countryOfOrigin': 'Peru', 'labels': [{'type': 'OFFER', 'name': 'Fixed price Discount (normal)'}, {'type': 'REBATE', 'name': '0% Rewards', 'amount': 0.0, 'loyaltyPoint': '0'}], 'potentialPromotions': [{'code': 'mms_percentage_discountS2077001_S_HFL-SIO_sys', 'promotionType': 'HktvProductPercentageDiscountPromotion', 'endDate': 'Dec 31, 2099 12:00:00 AM', 'description': 'Mms_FixedPrice_S2077001_S_HFL-SIO', 'priority': 95, 'percentage': 8.06452, 'percentageDiscountRow': [{'discount': 8.06452, 'customerType': 'NORMAL', 'priority': 0, 'description': 'Fixed price Discount (normal)'}], 'creationTime': 'Mar 23, 2023 04:41:47 PM'}, {'code': 'MMS_MDQP_S2077001_20230323_SIO20OFF', 'promotionType': 'Product Threshold Percentage Discount Promotion (Store based)', 'endDate': 'Jun 30, 2024 11:59:00 PM', 'description': 'MMS_MDQP_S2077001_20230323_SIO20OFF', 'priority': 85, 'percentage': 0.0, 'creationTime': 'Mar 23, 2023 05:22:23 PM'}], 'thresholdPromotion': {'name': 'Buy TWO to get 20% off', 'label': 'Buy TWO to get 20% off', 'description': 'New Batch Arrival, Buy TWO to get 20% off', 'shortDescription': 'Rich in Omega 3/6/9 Organic Sacha Inchi Oil.  New Batch Arrival, Buy TWO to get 20% off', 'code': 'MMS_MDQP_S2077001_20230323_SIO20OFF', 'categories': ['EE00000767250'], 'thresholdType': 'QUANTITY', 'discountType': 'PERCENTAGE', 'productCount': 1, 'colorCode': '#d91818', 'startTime': 1679558400000, 'endTime': 1719763140000}, 'priceList': [{'currencyIso': 'HKD', 'value': 248.0, 'priceType': 'BUY', 'formattedValue': '$ 248.00', 'membershipLevel': 'NORMAL'}, {'currencyIso': 'HKD', 'value': 227.9999904, 'priceType': 'DISCOUNT', 'formattedValue': '$ 228.00', 'membershipLevel': 'NORMAL'}], 'recommendedSellingPrice': [], 'savedPrice': [{'currencyIso': 'HKD', 'value': 20.0000096, 'priceType': 'DISCOUNT', 'formattedValue': '$ 20.00', 'membershipLevel': 'NORMAL'}]}]</t>
         </is>
       </c>
       <c r="P116" t="inlineStr">
         <is>
-          <t>Mustela</t>
+          <t>MyRoots Superfoods</t>
         </is>
       </c>
       <c r="Q116" t="inlineStr">
         <is>
-          <t>H6780001</t>
+          <t>S2077001</t>
         </is>
       </c>
       <c r="R116" t="inlineStr">
         <is>
-          <t>H6780001</t>
+          <t>S2077001</t>
         </is>
       </c>
       <c r="S116" t="inlineStr">
         <is>
-          <t>Mustela Flagship store</t>
+          <t>MyRoots Superfoods</t>
         </is>
       </c>
       <c r="T116" t="inlineStr">
         <is>
-          <t>flagship_store</t>
+          <t>trustworthy_store</t>
         </is>
       </c>
       <c r="U116" t="inlineStr">
         <is>
-          <t>Flagship store</t>
+          <t>Trustworthy Store</t>
         </is>
       </c>
       <c r="V116" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="W116" t="b">
         <v>0</v>
@@ -30622,17 +30626,17 @@
       </c>
       <c r="Z116" t="inlineStr">
         <is>
-          <t>200 ml</t>
+          <t>250ml</t>
         </is>
       </c>
       <c r="AA116" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>Peru</t>
         </is>
       </c>
       <c r="AB116" t="inlineStr">
         <is>
-          <t>&lt;p&gt;&amp;bull; 這商品買賣交易由HKTVmall 提供。&lt;br /&gt;&amp;nbsp;&lt;/p&gt;&lt;p&gt;&amp;bull; 因實際情況所限，HKTVmall 與門市銷售價格、促銷活動、條件與限制有機會各為不同，一切條款只適用於HKTVmall。&lt;br /&gt;&amp;nbsp;&lt;/p&gt;&lt;p&gt;&amp;bull; 本店將依照個人資料( 私隱) 條例相關規定保護您的個人資料, 並遵守HKTVmall 的私隱保護政策。&lt;/p&gt;&lt;p&gt;&lt;br /&gt;&amp;bull; 商品顏色會略有不同，一切以實物為準。&lt;br /&gt;&amp;nbsp;&lt;/p&gt;&lt;p&gt;&amp;bull; 如有任何爭議, HKTVmall保留最終決定權。&lt;/p&gt;</t>
+          <t>&lt;p&gt;本店將依照個人資料( 私隱) 條例相關規定保護您的個人資料，並遵守HKTVmall 的私隱保護政策。&lt;/p&gt;&lt;p&gt;-如有任何爭議, 商戶將保留最終決定權而毋須另行通知。&lt;/p&gt;&lt;p&gt;-貨品顏色或會因電腦螢幕設定差異會略有不同, 一切以實物為準。&lt;/p&gt;&lt;p&gt;-因實際情況所限，HKTVmall 與門市銷售價格、促銷活動、條件與限制有機會各為不同，一切條款只適用於HKTVmall 。&lt;/p&gt;&lt;p&gt;&amp;nbsp;&lt;/p&gt;&lt;p&gt;為提供最佳保證給消費者，本店設有「貨品退換購物保證」。顧客在收貨後3天內，發現貨品有問題及需要退換時，你可以致電94420933或電郵到cs@myrootssuerfoods.com預約退換，我們會有專人安排。每張購物單據只限換貨一次，但不能退款。&lt;/p&gt;&lt;p&gt;&amp;nbsp;&lt;/p&gt;&lt;p&gt;以下情況將不受換貨處理安排：&lt;/p&gt;&lt;p&gt;1. 貨品已經開封或曾被使用( 例如包裝膠紙或盒被撕去) 。&lt;/p&gt;&lt;p&gt;2. 貨品並未保持完好包裝，已受破壞，損毀或不完整。&lt;/p&gt;&lt;p&gt;3. 任何顯示不接受退貨的折扣貨品，清貨貨品或特賣貨品。&lt;/p&gt;&lt;p&gt;4. 任何免費贈品，附件，試用裝禮品。&lt;/p&gt;&lt;p&gt;5. 未能出示貨品銷售清單或購物單據已經換貨一次。&lt;/p&gt;&lt;p&gt;我們在退換之前，必須檢查及驗證退貨，如發現情況未能符合以上的退換規條，所有退貨將不獲退換。在退貨時，原來訂單的運費及處理費用( 如有) 將由顧客承擔，不便之處，敬請原諒。如您退回的貨品附送有推廣贈品或特價購買貨品等，亦必須將該貨品一併退回，否則退換將不獲處理。&lt;/p&gt;&lt;p&gt;如發現退貨貨品不符合本公司的退貨條款，將不獲處理，不便之處，敬請原諒。&lt;/p&gt;</t>
         </is>
       </c>
       <c r="AC116" t="inlineStr">
@@ -30647,7 +30651,7 @@
       </c>
       <c r="AE116" t="inlineStr">
         <is>
-          <t>[{'currencyIso': 'HKD', 'value': 215.0, 'priceType': 'BUY', 'formattedValue': '$ 215.00', 'membershipLevel': 'NORMAL'}, {'currencyIso': 'HKD', 'value': 161.500002, 'priceType': 'DISCOUNT', 'formattedValue': '$ 161.50', 'membershipLevel': 'NORMAL'}]</t>
+          <t>[{'currencyIso': 'HKD', 'value': 248.0, 'priceType': 'BUY', 'formattedValue': '$ 248.00', 'membershipLevel': 'NORMAL'}, {'currencyIso': 'HKD', 'value': 227.9999904, 'priceType': 'DISCOUNT', 'formattedValue': '$ 228.00', 'membershipLevel': 'NORMAL'}]</t>
         </is>
       </c>
       <c r="AF116" t="inlineStr">
@@ -30655,11 +30659,7 @@
           <t>[{'colorName': 'Default', 'colorValue': ''}]</t>
         </is>
       </c>
-      <c r="AG116" t="inlineStr">
-        <is>
-          <t>Baby Fair Offer|PSP: 215</t>
-        </is>
-      </c>
+      <c r="AG116" t="inlineStr"/>
       <c r="AH116" t="inlineStr">
         <is>
           <t>RED</t>
@@ -30667,7 +30667,7 @@
       </c>
       <c r="AI116" t="inlineStr">
         <is>
-          <t>{'name': 'Buy $500 ,free $188 gift', 'label': 'Buy $500,free $188 gift', 'description': '[Mustela x Babo Botanicals Hot Offer] Purchase over $500 ,free a Babo Botanicals Sensitive/Eczema Fragrance Free Miracle Moisturizing Cream 57ml ( PSP $188 ).Promotion til Mar 3 , 2024. While stocks last. Promotion not include hampers.Please refer to product information for expiry date information.', 'shortDescription': 'Purchase over $500 ,free a Babo Botanicals Sensitive/Eczema Fragrance Free Miracle Moisturizing Cream 57ml ( PSP $188 )', 'code': '2024Feb', 'categories': ['ZZ24020702001'], 'thresholdType': 'AMOUNT', 'discountType': 'FREEGIFT', 'productCount': 1, 'colorCode': '#CC0033', 'startTime': 1708012800000, 'endTime': 1709485200000}</t>
+          <t>{'name': 'Buy TWO to get 20% off', 'label': 'Buy TWO to get 20% off', 'description': 'New Batch Arrival, Buy TWO to get 20% off', 'shortDescription': 'Rich in Omega 3/6/9 Organic Sacha Inchi Oil.  New Batch Arrival, Buy TWO to get 20% off', 'code': 'MMS_MDQP_S2077001_20230323_SIO20OFF', 'categories': ['EE00000767250'], 'thresholdType': 'QUANTITY', 'discountType': 'PERCENTAGE', 'productCount': 1, 'colorCode': '#d91818', 'startTime': 1679558400000, 'endTime': 1719763140000}</t>
         </is>
       </c>
       <c r="AJ116" t="b">
@@ -30675,17 +30675,17 @@
       </c>
       <c r="AK116" t="inlineStr">
         <is>
-          <t>[{'currencyIso': 'HKD', 'value': 53.499998, 'priceType': 'DISCOUNT', 'formattedValue': '$ 53.50', 'membershipLevel': 'NORMAL'}]</t>
+          <t>[{'currencyIso': 'HKD', 'value': 20.0000096, 'priceType': 'DISCOUNT', 'formattedValue': '$ 20.00', 'membershipLevel': 'NORMAL'}]</t>
         </is>
       </c>
       <c r="AL116" t="inlineStr">
         <is>
-          <t>H77191</t>
+          <t>L16735</t>
         </is>
       </c>
       <c r="AM116" t="inlineStr">
         <is>
-          <t>AA28320505001</t>
+          <t>AA11382060001</t>
         </is>
       </c>
       <c r="AN116" t="b">
@@ -30714,7 +30714,7 @@
       </c>
       <c r="AV116" t="inlineStr">
         <is>
-          <t>{'code': 'H6780001'}</t>
+          <t>{'code': 'S2077001'}</t>
         </is>
       </c>
       <c r="AW116" t="inlineStr">
@@ -30730,21 +30730,21 @@
       </c>
       <c r="AZ116" t="inlineStr">
         <is>
-          <t>2,000+ Sold</t>
+          <t>400+ Sold</t>
         </is>
       </c>
       <c r="BA116" t="n">
-        <v>210</v>
+        <v>45</v>
       </c>
       <c r="BB116" t="n">
-        <v>70</v>
+        <v>220</v>
       </c>
       <c r="BC116" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="BD116" t="inlineStr">
         <is>
-          <t>['8798419610077']</t>
+          <t>['8798419610077', '8798354074077']</t>
         </is>
       </c>
       <c r="BE116" t="inlineStr">
@@ -30757,7 +30757,7 @@
         <v>0</v>
       </c>
       <c r="BH116" t="n">
-        <v>2696</v>
+        <v>444</v>
       </c>
       <c r="BI116" t="inlineStr">
         <is>
@@ -30767,7 +30767,7 @@
       <c r="BJ116" t="inlineStr"/>
       <c r="BK116" t="inlineStr">
         <is>
-          <t>['MO', 'UK', 'AU', 'CA']</t>
+          <t>['AU', 'CA']</t>
         </is>
       </c>
       <c r="BL116" t="inlineStr"/>
@@ -30776,22 +30776,22 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>S2077001_S_HFL-SIO</t>
+          <t>H5096001_S_LDB31711</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>SACHA INCHI EXTRA VIRGIN OIL (100% ORGANIC) *Best before date: 26 DEC 2024</t>
+          <t>Vitamin C (1000 mg) Timed Release 100's(RANDOM Packing)[Parallel Goods] Best Before:31 December 2025</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>main/Happy-Favour-Limited/s/S2077001/Supermarket/Supermarket/Rice-%26-Cooking-Oil/Cooking-Oil/Others/SACHA-INCHI-EXTRA-VIRGIN-OIL-100-ORGANIC-Best-before-date-26-DEC-2024/p/S2077001_S_HFL-SIO</t>
+          <t>main/Health-Express/s/H5096001/Personal-Care-%26-Health/Personal-Care-%26-Health/Health/Immunity/Vitamin-C-1000-mg-Timed-Release-100sRANDOM-PackingParallel-Goods-Best-Before31-December-2025/p/H5096001_S_LDB31711</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>&lt;h4&gt;MyRoots Sacha Inchi Extra Virgin Oil is a cold pressed oil obtained from the seeds of the Sacha Inchi plant grown and sustainably harvested in the Amazon jungle of Peru. Without the use of chemicals or solvents at low temperatures preserving their essential fatty acids and tocopherols.  It has one of the highest contents of Omega 3, 6 among all vegetable oils in the world, which are the two essential fatty acids for our body. Due to its high content of naturally occurring tocopherols (Vitamin E), it can be applied directly on your skin as an anti-aging formulation for all types of skins; or as a protective formulation for irritated skins repairs.&lt;/h4&gt;&lt;h4&gt;&lt;span lang="EN-US"&gt;Benefits:&lt;/span&gt;&lt;/h4&gt;&lt;h4&gt;&lt;span lang="EN-US"&gt;1.&lt;span style="font-size: 7pt;"&gt;         &lt;/span&gt;&lt;/span&gt;&lt;span lang="EN-US"&gt;Rich in Omega 3, 6, 9&lt;/span&gt;&lt;/h4&gt;&lt;h4&gt;&lt;span lang="EN-US"&gt;2.&lt;span style="font-size: 7pt;"&gt;         &lt;/span&gt;&lt;/span&gt;&lt;span lang="EN-US"&gt;Rich in Vitamin E&lt;/span&gt;&lt;/h4&gt;&lt;h4&gt;&lt;span lang="EN-US"&gt;3.&lt;span style="font-size: 7pt;"&gt;         &lt;/span&gt;&lt;/span&gt;&lt;span lang="EN-US"&gt;High Smoke point (255&lt;/span&gt;℃&lt;span lang="EN-US"&gt;)&lt;/span&gt;&lt;span lang="EN-US"&gt;&lt;/span&gt;&lt;/h4&gt;&lt;h4&gt;&lt;span lang="EN-US"&gt;4.&lt;span style="font-size: 7pt;"&gt;         &lt;/span&gt;&lt;/span&gt;&lt;span lang="EN-US"&gt;Anti-aging and skin repair&lt;/span&gt;&lt;/h4&gt;&lt;h4&gt;&lt;span lang="EN-US"&gt;5.&lt;span style="font-size: 7pt;"&gt;         &lt;/span&gt;&lt;/span&gt;&lt;span lang="EN-US"&gt;Cold pressed to preserve the essential Omega and Vitamin E&lt;/span&gt;&lt;/h4&gt;&lt;h4&gt;&lt;span lang="EN-US"&gt; &lt;/span&gt;&lt;/h4&gt;&lt;h4&gt;&lt;span lang="EN-US"&gt;Direction to use:&lt;/span&gt;&lt;/h4&gt;&lt;h4&gt;&lt;span lang="EN-US"&gt;-&amp;gt;Due to its slightly nutty flavor, our Sacha Inchi oil can be consumed directly, to replace fish oil supplement products.&lt;/span&gt;&lt;/h4&gt;&lt;h4&gt;&lt;span lang="EN-US"&gt;-&amp;gt;Or apply in salad dressings, vegetables, pastas, yogurts or smoothies. It has a high smoke point of 255&lt;/span&gt;℃&lt;span lang="EN-US"&gt; which is suitable for all types of cooking methods, including baking, roasting and stir-frying, cooking over medium-high heat.&lt;/span&gt;&lt;/h4&gt;&lt;h4&gt;&lt;span lang="EN-US"&gt;-&amp;gt;Apply directly on your skin for rapid repair and cosmetic use.&lt;/span&gt;&lt;/h4&gt;&lt;!--EndFragment--&gt;&lt;p&gt;&lt;br/&gt;&lt;/p&gt;&lt;p&gt;&lt;br/&gt;&lt;/p&gt;</t>
+          <t>&lt;p&gt;Jamieson Vitamin C Tablets promotes good health and aids in iron absorption. Each tablet contains 500 mg vitamin C. This formula contains lemon bioflavanoids that work synergistically with Vitamin C to maintain the structural health. Bioflavanoids are also potent antioxidants that protect cells from free-radical damage.&lt;br/&gt;&lt;br/&gt;&lt;b&gt;Ingredients:&lt;br/&gt;&lt;/b&gt;Each tablet contains:&lt;br/&gt;Vitamin C (sodium ascorbate/ascorbic acid) ............ 1000 mg&lt;br/&gt;&lt;br/&gt;Other ingredients:&lt;br/&gt;Cellulose, modified cellulose gum, vegetable magnesium stearate, hydroxypropyl cellulose, water-soluble cellulose, vegetable stearic acid, silica, Brazilian palm tree wax. sucralose, rose hips, citrus bioflavonoids, rutin&lt;br/&gt;&lt;br/&gt;Contains no artificial preservatives or colours; dairy, wheat or yeast&lt;br/&gt;&lt;br/&gt;&lt;b&gt;Remarks:&lt;/b&gt;&lt;br/&gt;Due to two different packages supplied by the supplier, we will provide two different packages in &lt;b&gt;RANDOM&lt;/b&gt;.  This product is not registered under the Pharmacy and Poisons Ordinance or the Chinese Medicine Ordinance. Any claim made for it has not been subject to evaluation for such registration. This product is not intended to diagnose, treat or prevent any disease.&lt;/p&gt;</t>
         </is>
       </c>
       <c r="E117" t="b">
@@ -30806,59 +30806,59 @@
         </is>
       </c>
       <c r="H117" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="I117" t="n">
-        <v>5</v>
+        <v>110</v>
       </c>
       <c r="J117" t="inlineStr">
         <is>
-          <t>&lt;h4&gt;&lt;b&gt;&lt;u&gt;&lt;span lang="EN-US" style="vertical-align: baseline;"&gt;100&lt;/span&gt;&lt;span lang="EN-US" style="vertical-align: baseline;"&gt;% Organic&lt;span style="vertical-align: baseline;"&gt; &lt;/span&gt;&lt;/span&gt;&lt;span lang="EN-US" style="vertical-align: baseline;"&gt;Sacha Inchi Extra Virgin Oil&lt;/span&gt;&lt;span lang="EN-US" style="vertical-align: baseline;"&gt;&lt;/span&gt;&lt;/u&gt;&lt;/b&gt;&lt;/h4&gt;&lt;h4&gt;&lt;b style="vertical-align: baseline;"&gt;&lt;b&gt;&lt;u style="vertical-align: baseline;"&gt;&lt;span lang="EN-US" style="vertical-align: baseline;"&gt;MyRoots &lt;/span&gt;&lt;/u&gt;&lt;/b&gt;&lt;/b&gt;&lt;b style="vertical-align: baseline;"&gt;&lt;b&gt;&lt;u style="vertical-align: baseline;"&gt;&lt;span lang="EN-US" style="vertical-align: baseline;"&gt;Sacha Inchi Extra Virgin Oil&lt;/span&gt;&lt;/u&gt;&lt;/b&gt;&lt;/b&gt;&lt;b style="vertical-align: baseline;"&gt;&lt;b&gt;&lt;u style="vertical-align: baseline;"&gt;&lt;span lang="EN-US" style="vertical-align: baseline;"&gt; is USDA Organic (100%),EU Organic, and HALAL&lt;span style="vertical-align: baseline;"&gt; &lt;/span&gt;&lt;/span&gt;&lt;/u&gt;&lt;/b&gt;&lt;/b&gt;&lt;b style="vertical-align: baseline;"&gt;&lt;b&gt;&lt;u style="vertical-align: baseline;"&gt;&lt;span lang="EN-US" style="vertical-align: baseline;"&gt;and ControlUnion Fair Choice (Social and Fair Trade Standard) &lt;/span&gt;Certified&lt;/u&gt;&lt;/b&gt;&lt;/b&gt;&lt;/h4&gt;&lt;h4&gt;*Best before date: 15 JUN 2023&lt;/h4&gt;</t>
+          <t>&lt;p&gt;&lt;b&gt;Benefits:&lt;br/&gt;&lt;/b&gt;- 1000 mg vitamin C per timed release tablet&lt;br/&gt;- Supports immune function&lt;br/&gt;- Helps relieve cold symptoms&lt;br/&gt;- Rich in antioxidants for antiaging&lt;br/&gt;- Maintain skin health and healthy antioxidant activity&lt;br/&gt;- Aids in iron absorption&lt;br/&gt;&lt;br/&gt;&lt;b&gt;Recommended Dosage:&lt;br/&gt;&lt;/b&gt;1 - 2 tablets daily or as directed by a health practitioner&lt;/p&gt;</t>
         </is>
       </c>
       <c r="K117" t="inlineStr">
         <is>
-          <t>{'currencyIso': 'HKD', 'value': 248.0, 'priceType': 'BUY', 'formattedValue': '$ 248.00', 'membershipLevel': 'NORMAL'}</t>
+          <t>{'currencyIso': 'HKD', 'value': 328.0, 'priceType': 'BUY', 'formattedValue': '$ 328.00', 'membershipLevel': 'NORMAL'}</t>
         </is>
       </c>
       <c r="L117" t="inlineStr">
         <is>
-          <t>S2077001HFL-SIO</t>
+          <t>H5096001LDB31711</t>
         </is>
       </c>
       <c r="M117" t="inlineStr">
         <is>
-          <t>[{'imageType': 'PRIMARY', 'format': 'product', 'url': 'https://images.hktv-img.com/images/HKTV/15683/HFL-SIO_main_43535295_20200614234108_01_300.jpg', 'hoverImageUrl': ''}]</t>
+          <t>[{'imageType': 'PRIMARY', 'format': 'product', 'url': 'https://cdn-mms.hktvmall.com/hktv/mms/uploadProductImage/f172/cd2f/b7fd/oyhyGNuotw20240201120227_300.jpg', 'hoverImageUrl': ''}]</t>
         </is>
       </c>
       <c r="N117" t="inlineStr">
         <is>
-          <t>[{'code': 'AA13300300001', 'name': 'Immunity', 'sequence': 0}, {'code': 'AA11382060001', 'name': 'Others', 'sequence': 0}, {'code': 'AA13306100001', 'name': 'Brain Health', 'sequence': 0}]</t>
+          <t>[{'code': 'AA13300300001', 'name': 'Immunity', 'sequence': 0}, {'code': 'AA13303300001', 'name': 'Vitamin', 'sequence': 0}]</t>
         </is>
       </c>
       <c r="O117" t="inlineStr">
         <is>
-          <t>[{'code': 'S2077001_S_HFL-SIO', 'stock': {'stockLevelStatus': {'code': 'inStock', 'type': 'StockLevelStatus'}, 'consignmentWarehouse': False, 'forceInStock': False, 'thirdPartyLogisticsWarehouse': False}, 'url': 'main/Happy-Favour-Limited/s/S2077001/Supermarket/Supermarket/Rice-%26-Cooking-Oil/Cooking-Oil/Others/SACHA-INCHI-EXTRA-VIRGIN-OIL-100-ORGANIC-Best-before-date-26-DEC-2024/p/S2077001_S_HFL-SIO', 'priceData': {'currencyIso': 'HKD', 'value': 248.0, 'priceType': 'BUY', 'formattedValue': '$ 248.00', 'membershipLevel': 'NORMAL'}, 'variantOptionQualifiers': [], 'color': 'Default', 'mainImage': {'imageType': 'PRIMARY', 'format': 'product', 'url': 'https://images.hktv-img.com/images/HKTV/15683/HFL-SIO_main_43535295_20200614234108_01_300.jpg'}, 'swatchImage': {'imageType': 'PRIMARY', 'format': 'styleSwatch', 'url': 'https://images.hktv-img.com/images/HKTV/15683/HFL-SIO_main_43535295_20200614234108_01_300.jpg'}, 'discountPrice': {'currencyIso': 'HKD', 'value': 228.0, 'priceType': 'DISCOUNT', 'formattedValue': '$ 228.00'}, 'loyalityPoints': '0.0', 'promotionText': 'RED', 'packingSpec': '250ml', 'countryOfOrigin': 'Peru', 'labels': [{'type': 'OFFER', 'name': 'Fixed price Discount (normal)'}, {'type': 'REBATE', 'name': '0% Rewards', 'amount': 0.0, 'loyaltyPoint': '0'}], 'potentialPromotions': [{'code': 'mms_percentage_discountS2077001_S_HFL-SIO_sys', 'promotionType': 'HktvProductPercentageDiscountPromotion', 'endDate': 'Dec 31, 2099 12:00:00 AM', 'description': 'Mms_FixedPrice_S2077001_S_HFL-SIO', 'priority': 95, 'percentage': 8.06452, 'percentageDiscountRow': [{'discount': 8.06452, 'customerType': 'NORMAL', 'priority': 0, 'description': 'Fixed price Discount (normal)'}], 'creationTime': 'Mar 23, 2023 04:41:47 PM'}, {'code': 'MMS_MDQP_S2077001_20230323_SIO20OFF', 'promotionType': 'Product Threshold Percentage Discount Promotion (Store based)', 'endDate': 'Jun 30, 2024 11:59:00 PM', 'description': 'MMS_MDQP_S2077001_20230323_SIO20OFF', 'priority': 85, 'percentage': 0.0, 'creationTime': 'Mar 23, 2023 05:22:23 PM'}], 'thresholdPromotion': {'name': 'Buy TWO to get 20% off', 'label': 'Buy TWO to get 20% off', 'description': 'New Batch Arrival, Buy TWO to get 20% off', 'shortDescription': 'Rich in Omega 3/6/9 Organic Sacha Inchi Oil.  New Batch Arrival, Buy TWO to get 20% off', 'code': 'MMS_MDQP_S2077001_20230323_SIO20OFF', 'categories': ['EE00000767250'], 'thresholdType': 'QUANTITY', 'discountType': 'PERCENTAGE', 'productCount': 1, 'colorCode': '#d91818', 'startTime': 1679558400000, 'endTime': 1719763140000}, 'priceList': [{'currencyIso': 'HKD', 'value': 248.0, 'priceType': 'BUY', 'formattedValue': '$ 248.00', 'membershipLevel': 'NORMAL'}, {'currencyIso': 'HKD', 'value': 227.9999904, 'priceType': 'DISCOUNT', 'formattedValue': '$ 228.00', 'membershipLevel': 'NORMAL'}], 'recommendedSellingPrice': [], 'savedPrice': [{'currencyIso': 'HKD', 'value': 20.0000096, 'priceType': 'DISCOUNT', 'formattedValue': '$ 20.00', 'membershipLevel': 'NORMAL'}]}]</t>
+          <t>[{'code': 'H5096001_S_LDB31711', 'stock': {'stockLevelStatus': {'code': 'inStock', 'type': 'StockLevelStatus'}, 'consignmentWarehouse': False, 'forceInStock': False, 'thirdPartyLogisticsWarehouse': False}, 'url': 'main/Health-Express/s/H5096001/Personal-Care-%26-Health/Personal-Care-%26-Health/Health/Immunity/Vitamin-C-1000-mg-Timed-Release-100sRANDOM-PackingParallel-Goods-Best-Before31-December-2025/p/H5096001_S_LDB31711', 'priceData': {'currencyIso': 'HKD', 'value': 328.0, 'priceType': 'BUY', 'formattedValue': '$ 328.00', 'membershipLevel': 'NORMAL'}, 'variantOptionQualifiers': [], 'color': 'Default', 'mainImage': {'imageType': 'PRIMARY', 'format': 'product', 'url': 'https://cdn-mms.hktvmall.com/hktv/mms/uploadProductImage/f172/cd2f/b7fd/oyhyGNuotw20240201120227_300.jpg'}, 'swatchImage': {'imageType': 'PRIMARY', 'format': 'styleSwatch', 'url': 'https://cdn-mms.hktvmall.com/hktv/mms/uploadProductImage/f172/cd2f/b7fd/oyhyGNuotw20240201120227_300.jpg'}, 'discountPrice': {'currencyIso': 'HKD', 'value': 135.0, 'priceType': 'DISCOUNT', 'formattedValue': '$ 135.00'}, 'loyalityPoints': '0.0', 'promotionText': 'RED', 'packingSpec': 'Exp:31/12/2025', 'countryOfOrigin': 'Canada', 'labels': [{'type': 'OFFER', 'name': 'Fixed price Discount (normal)'}, {'type': 'REBATE', 'name': '0% Rewards', 'amount': 0.0, 'loyaltyPoint': '0'}], 'potentialPromotions': [{'code': 'mms_percentage_discountH5096001_S_LDB31711_sys', 'promotionType': 'HktvProductPercentageDiscountPromotion', 'endDate': 'Dec 31, 2099 12:00:00 AM', 'description': 'Mms_FixedPrice_H5096001_S_LDB31711', 'priority': 95, 'percentage': 58.84146, 'percentageDiscountRow': [{'discount': 58.84146, 'customerType': 'NORMAL', 'priority': 0, 'description': 'Fixed price Discount (normal)'}], 'creationTime': 'Jan 22, 2024 11:46:21 PM'}, {'code': 'MMS_MDQP_H5096001_20240219_00036', 'promotionType': 'Product Threshold Percentage Discount Promotion (Store based)', 'endDate': 'Feb 29, 2024 11:59:00 PM', 'description': 'MMS_MDQP_H5096001_20240219_00036', 'priority': 85, 'percentage': 0.0, 'creationTime': 'Feb 19, 2024 02:34:32 PM'}, {'code': 'MMS_RP_H5096001_20231011_00018', 'promotionType': 'HKTV Product Threshold Perfect Partner Promotion (Store based)', 'endDate': 'Feb 29, 2024 11:59:00 PM', 'description': 'MMS_RP_H5096001_20231011_00018', 'priority': 77, 'percentage': 0.0, 'creationTime': 'Oct 10, 2023 11:13:28 AM'}, {'code': 'MMS_RP_H5096001_20231130_00033', 'promotionType': 'HKTV Product Threshold Perfect Partner Promotion (Store based)', 'endDate': 'Feb 29, 2024 11:59:36 PM', 'description': 'MMS_RP_H5096001_20231130_00033', 'priority': 77, 'percentage': 0.0, 'creationTime': 'Nov 30, 2023 02:24:12 PM'}, {'code': 'MMS_FP_H5096001_20240201_00033', 'promotionType': 'Product Threshold Free Gift Promotion', 'endDate': 'Feb 29, 2024 11:59:00 PM', 'description': 'MMS_FP_H5096001_20240201_00033', 'priority': 70, 'percentage': 0.0, 'creationTime': 'Feb 01, 2024 10:48:31 AM'}], 'thresholdPromotion': {'name': 'Purchase selected product $299 or above, Free a Melatonin 10 counts Gummies!', 'label': 'Free a Melatonin Gummies!', 'description': 'Purchase selected product $299 or above, Free a Jamieson Melatonin (2.5 mg) Gummies - Strawberry 10 gummies. Promotion until 29 Feb. While the stock lasts.\n', 'shortDescription': 'Purchase selected product $299 or above, Free a Jamieson Melatonin (2.5 mg) Gummies - Strawberry 10 gummies. Promotion until 29 Feb. While the stock lasts.\n', 'code': 'MMS_FP_H5096001_20240201_00033', 'categories': ['EE00000923502'], 'thresholdType': 'AMOUNT', 'discountType': 'FREEGIFT', 'productCount': 1, 'colorCode': '#FF0000', 'startTime': 1706756280000, 'endTime': 1709222340000}, 'priceList': [{'currencyIso': 'HKD', 'value': 328.0, 'priceType': 'BUY', 'formattedValue': '$ 328.00', 'membershipLevel': 'NORMAL'}, {'currencyIso': 'HKD', 'value': 135.00001120000002, 'priceType': 'DISCOUNT', 'formattedValue': '$ 135.00', 'membershipLevel': 'NORMAL'}], 'recommendedSellingPrice': [], 'savedPrice': [{'currencyIso': 'HKD', 'value': 192.99998879999998, 'priceType': 'DISCOUNT', 'formattedValue': '$ 193.00', 'membershipLevel': 'NORMAL'}], 'perfectPartnerPromotion': {'code': 'MMS_RP_H5096001_20231130_00033', 'name': '$69Redeem Jamieson Probiotics!', 'label': '$69Redeem Jamieson Probiotics!', 'description': 'Buy selected products can $69 redeem Jamieson - Chewable Probiotic 2 Billion - Strawberry 60 tablets. Promotion until 29 Feb . Offer can be used ONCE only. While stock last.\n', 'shortDescription': 'Buy selected products can $69 redeem Jamieson - Chewable Probiotic 2 Billion - Strawberry 60 tablets. Promotion until 29 Feb. Offer can be used ONCE only. While stock last.\n', 'colorCode': '#FF0000', 'discountType': 'QUANTITY', 'startTime': 1701319525000, 'endTime': 1709222376000}}]</t>
         </is>
       </c>
       <c r="P117" t="inlineStr">
         <is>
-          <t>MyRoots Superfoods</t>
+          <t>Jamieson</t>
         </is>
       </c>
       <c r="Q117" t="inlineStr">
         <is>
-          <t>S2077001</t>
+          <t>H5096001</t>
         </is>
       </c>
       <c r="R117" t="inlineStr">
         <is>
-          <t>S2077001</t>
+          <t>H5096001</t>
         </is>
       </c>
       <c r="S117" t="inlineStr">
         <is>
-          <t>MyRoots Superfoods</t>
+          <t>Health Express</t>
         </is>
       </c>
       <c r="T117" t="inlineStr">
@@ -30889,17 +30889,17 @@
       </c>
       <c r="Z117" t="inlineStr">
         <is>
-          <t>250ml</t>
+          <t>Exp:31/12/2025</t>
         </is>
       </c>
       <c r="AA117" t="inlineStr">
         <is>
-          <t>Peru</t>
+          <t>Canada</t>
         </is>
       </c>
       <c r="AB117" t="inlineStr">
         <is>
-          <t>&lt;p&gt;本店將依照個人資料( 私隱) 條例相關規定保護您的個人資料，並遵守HKTVmall 的私隱保護政策。&lt;/p&gt;&lt;p&gt;-如有任何爭議, 商戶將保留最終決定權而毋須另行通知。&lt;/p&gt;&lt;p&gt;-貨品顏色或會因電腦螢幕設定差異會略有不同, 一切以實物為準。&lt;/p&gt;&lt;p&gt;-因實際情況所限，HKTVmall 與門市銷售價格、促銷活動、條件與限制有機會各為不同，一切條款只適用於HKTVmall 。&lt;/p&gt;&lt;p&gt;&amp;nbsp;&lt;/p&gt;&lt;p&gt;為提供最佳保證給消費者，本店設有「貨品退換購物保證」。顧客在收貨後3天內，發現貨品有問題及需要退換時，你可以致電94420933或電郵到cs@myrootssuerfoods.com預約退換，我們會有專人安排。每張購物單據只限換貨一次，但不能退款。&lt;/p&gt;&lt;p&gt;&amp;nbsp;&lt;/p&gt;&lt;p&gt;以下情況將不受換貨處理安排：&lt;/p&gt;&lt;p&gt;1. 貨品已經開封或曾被使用( 例如包裝膠紙或盒被撕去) 。&lt;/p&gt;&lt;p&gt;2. 貨品並未保持完好包裝，已受破壞，損毀或不完整。&lt;/p&gt;&lt;p&gt;3. 任何顯示不接受退貨的折扣貨品，清貨貨品或特賣貨品。&lt;/p&gt;&lt;p&gt;4. 任何免費贈品，附件，試用裝禮品。&lt;/p&gt;&lt;p&gt;5. 未能出示貨品銷售清單或購物單據已經換貨一次。&lt;/p&gt;&lt;p&gt;我們在退換之前，必須檢查及驗證退貨，如發現情況未能符合以上的退換規條，所有退貨將不獲退換。在退貨時，原來訂單的運費及處理費用( 如有) 將由顧客承擔，不便之處，敬請原諒。如您退回的貨品附送有推廣贈品或特價購買貨品等，亦必須將該貨品一併退回，否則退換將不獲處理。&lt;/p&gt;&lt;p&gt;如發現退貨貨品不符合本公司的退貨條款，將不獲處理，不便之處，敬請原諒。&lt;/p&gt;</t>
+          <t>&lt;p&gt;本店將依照個人資料保護法相關規定保護您的個人資料﹐並遵守 HKTVmall 的私隱保護政策。如有任何爭議﹐商戶將保留最終決定權而毋須另行通知。因實際情況所限﹐HKTVmall 與門市銷售價格、促銷活動、條件與限制有機會各為不同﹐一切條款只適用於 HKTVmall。HKTVmall 並不是此店所出售的貨品或服務的賣方或供應商。&lt;br /&gt;&lt;br /&gt;HKTVmall 並非商品或服務的賣方或供應商。HKTVmall 負責管理網站、安排訂單處理過程及完成提供閣下透過 HKTVmall 向供應商訂購的商品或服務。透過 HKTVmall 購買的商品或服務須受商戶的條款及細則約束。對銷售及處理索賠或因閣下與商戶之間的合約引起的任何其他問題是商戶的責任。就購買優惠券方面，閣下除與優惠券的賣方訂立合約，當閣下使用優惠券同時也與實際提供商品或服務的商戶訂立合約。HKTVmall 概不承擔任何因閣下透過 HKTVmall 購買任何商品，服務或優惠券可能直接或間接蒙受索賠，損失或損害的責任，不論如何造成（包括遺漏或疏忽）。我們也不接受因使用或依據透過 HKTVmall 獲取的信息的任何索賠，損失或損害承擔任何責任。確保透過 HKTVmall 獲得的任何產品，服務或信息滿足閣下的特定要求是閣下的全部責任。特別是美容服務，閣下務必注意，在決定購買前應確保了解該服務將如何進行方。如有疑問，閣下應諮詢專業顧問。&lt;/p&gt;</t>
         </is>
       </c>
       <c r="AC117" t="inlineStr">
@@ -30914,7 +30914,7 @@
       </c>
       <c r="AE117" t="inlineStr">
         <is>
-          <t>[{'currencyIso': 'HKD', 'value': 248.0, 'priceType': 'BUY', 'formattedValue': '$ 248.00', 'membershipLevel': 'NORMAL'}, {'currencyIso': 'HKD', 'value': 227.9999904, 'priceType': 'DISCOUNT', 'formattedValue': '$ 228.00', 'membershipLevel': 'NORMAL'}]</t>
+          <t>[{'currencyIso': 'HKD', 'value': 328.0, 'priceType': 'BUY', 'formattedValue': '$ 328.00', 'membershipLevel': 'NORMAL'}, {'currencyIso': 'HKD', 'value': 135.00001120000002, 'priceType': 'DISCOUNT', 'formattedValue': '$ 135.00', 'membershipLevel': 'NORMAL'}]</t>
         </is>
       </c>
       <c r="AF117" t="inlineStr">
@@ -30930,7 +30930,7 @@
       </c>
       <c r="AI117" t="inlineStr">
         <is>
-          <t>{'name': 'Buy TWO to get 20% off', 'label': 'Buy TWO to get 20% off', 'description': 'New Batch Arrival, Buy TWO to get 20% off', 'shortDescription': 'Rich in Omega 3/6/9 Organic Sacha Inchi Oil.  New Batch Arrival, Buy TWO to get 20% off', 'code': 'MMS_MDQP_S2077001_20230323_SIO20OFF', 'categories': ['EE00000767250'], 'thresholdType': 'QUANTITY', 'discountType': 'PERCENTAGE', 'productCount': 1, 'colorCode': '#d91818', 'startTime': 1679558400000, 'endTime': 1719763140000}</t>
+          <t>{'name': 'Purchase selected product $299 or above, Free a Melatonin 10 counts Gummies!', 'label': 'Free a Melatonin Gummies!', 'description': 'Purchase selected product $299 or above, Free a Jamieson Melatonin (2.5 mg) Gummies - Strawberry 10 gummies. Promotion until 29 Feb. While the stock lasts.\n', 'shortDescription': 'Purchase selected product $299 or above, Free a Jamieson Melatonin (2.5 mg) Gummies - Strawberry 10 gummies. Promotion until 29 Feb. While the stock lasts.\n', 'code': 'MMS_FP_H5096001_20240201_00033', 'categories': ['EE00000923502'], 'thresholdType': 'AMOUNT', 'discountType': 'FREEGIFT', 'productCount': 1, 'colorCode': '#FF0000', 'startTime': 1706756280000, 'endTime': 1709222340000}</t>
         </is>
       </c>
       <c r="AJ117" t="b">
@@ -30938,17 +30938,17 @@
       </c>
       <c r="AK117" t="inlineStr">
         <is>
-          <t>[{'currencyIso': 'HKD', 'value': 20.0000096, 'priceType': 'DISCOUNT', 'formattedValue': '$ 20.00', 'membershipLevel': 'NORMAL'}]</t>
+          <t>[{'currencyIso': 'HKD', 'value': 192.99998879999998, 'priceType': 'DISCOUNT', 'formattedValue': '$ 193.00', 'membershipLevel': 'NORMAL'}]</t>
         </is>
       </c>
       <c r="AL117" t="inlineStr">
         <is>
-          <t>L16735</t>
+          <t>N39283</t>
         </is>
       </c>
       <c r="AM117" t="inlineStr">
         <is>
-          <t>AA11382060001</t>
+          <t>AA13300300001</t>
         </is>
       </c>
       <c r="AN117" t="b">
@@ -30977,7 +30977,7 @@
       </c>
       <c r="AV117" t="inlineStr">
         <is>
-          <t>{'code': 'S2077001'}</t>
+          <t>{'code': 'H5096001'}</t>
         </is>
       </c>
       <c r="AW117" t="inlineStr">
@@ -30993,17 +30993,17 @@
       </c>
       <c r="AZ117" t="inlineStr">
         <is>
-          <t>400+ Sold</t>
+          <t>10,000+ Sold</t>
         </is>
       </c>
       <c r="BA117" t="n">
-        <v>45</v>
+        <v>180</v>
       </c>
       <c r="BB117" t="n">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="BC117" t="n">
-        <v>45</v>
+        <v>65</v>
       </c>
       <c r="BD117" t="inlineStr">
         <is>
@@ -31020,17 +31020,21 @@
         <v>0</v>
       </c>
       <c r="BH117" t="n">
-        <v>444</v>
+        <v>12831</v>
       </c>
       <c r="BI117" t="inlineStr">
         <is>
           <t>[{'startTime': 1708617600000, 'endTime': 1708660800000, 'deliveryMode': 'standard-same-day'}, {'startTime': 1708660800000, 'endTime': 1708696800000, 'deliveryMode': 'standard-express'}, {'startTime': 1708696800000, 'endTime': 1708704000000, 'deliveryMode': 'standard-express'}, {'startTime': 1708704000000, 'endTime': 1708747200000, 'deliveryMode': 'standard-same-day'}, {'startTime': 1708747200000, 'endTime': 1708783200000, 'deliveryMode': 'standard-express'}, {'startTime': 1708783200000, 'endTime': 1708790400000, 'deliveryMode': 'standard-express'}, {'startTime': 1708790400000, 'endTime': 1708833600000, 'deliveryMode': 'standard-same-day'}, {'startTime': 1708833600000, 'endTime': 1708869600000, 'deliveryMode': 'standard-express'}, {'startTime': 1708869600000, 'endTime': 1708876800000, 'deliveryMode': 'standard-express'}, {'startTime': 1708876800000, 'endTime': 1708920000000, 'deliveryMode': 'standard-same-day'}, {'startTime': 1708920000000, 'endTime': 1708956000000, 'deliveryMode': 'standard-express'}, {'startTime': 1708956000000, 'endTime': 1708963200000, 'deliveryMode': 'standard-express'}]</t>
         </is>
       </c>
-      <c r="BJ117" t="inlineStr"/>
+      <c r="BJ117" t="inlineStr">
+        <is>
+          <t>{'code': 'MMS_RP_H5096001_20231130_00033', 'name': '$69Redeem Jamieson Probiotics!', 'label': '$69Redeem Jamieson Probiotics!', 'description': 'Buy selected products can $69 redeem Jamieson - Chewable Probiotic 2 Billion - Strawberry 60 tablets. Promotion until 29 Feb . Offer can be used ONCE only. While stock last.\n', 'shortDescription': 'Buy selected products can $69 redeem Jamieson - Chewable Probiotic 2 Billion - Strawberry 60 tablets. Promotion until 29 Feb. Offer can be used ONCE only. While stock last.\n', 'colorCode': '#FF0000', 'discountType': 'QUANTITY', 'startTime': 1701319525000, 'endTime': 1709222376000}</t>
+        </is>
+      </c>
       <c r="BK117" t="inlineStr">
         <is>
-          <t>['AU', 'CA']</t>
+          <t>['MO']</t>
         </is>
       </c>
       <c r="BL117" t="inlineStr"/>
@@ -31039,22 +31043,22 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>H5096001_S_LDB31711</t>
+          <t>H8891001_S_4893580010165</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>Vitamin C (1000 mg) Timed Release 100's(RANDOM Packing)[Parallel Goods] Best Before:31 December 2025</t>
+          <t>Fango Active Deep Cleansing and Detox Mud for Face and Body</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>main/Health-Express/s/H5096001/Personal-Care-%26-Health/Personal-Care-%26-Health/Health/Immunity/Vitamin-C-1000-mg-Timed-Release-100sRANDOM-PackingParallel-Goods-Best-Before31-December-2025/p/H5096001_S_LDB31711</t>
+          <t>main/BORGHESE-Flagship-Store/s/H8891001/Skincare-%26-Makeup/Skincare-%26-Makeup/Skincare/Mask/Clay-Mask/Deep-Cleansing-Clay-Mask/Fango-Active-Deep-Cleansing-and-Detox-Mud-for-Face-and-Body/p/H8891001_S_4893580010165</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>&lt;p&gt;Jamieson Vitamin C Tablets promotes good health and aids in iron absorption. Each tablet contains 500 mg vitamin C. This formula contains lemon bioflavanoids that work synergistically with Vitamin C to maintain the structural health. Bioflavanoids are also potent antioxidants that protect cells from free-radical damage.&lt;br/&gt;&lt;br/&gt;&lt;b&gt;Ingredients:&lt;br/&gt;&lt;/b&gt;Each tablet contains:&lt;br/&gt;Vitamin C (sodium ascorbate/ascorbic acid) ............ 1000 mg&lt;br/&gt;&lt;br/&gt;Other ingredients:&lt;br/&gt;Cellulose, modified cellulose gum, vegetable magnesium stearate, hydroxypropyl cellulose, water-soluble cellulose, vegetable stearic acid, silica, Brazilian palm tree wax. sucralose, rose hips, citrus bioflavonoids, rutin&lt;br/&gt;&lt;br/&gt;Contains no artificial preservatives or colours; dairy, wheat or yeast&lt;br/&gt;&lt;br/&gt;&lt;b&gt;Remarks:&lt;/b&gt;&lt;br/&gt;Due to two different packages supplied by the supplier, we will provide two different packages in &lt;b&gt;RANDOM&lt;/b&gt;.  This product is not registered under the Pharmacy and Poisons Ordinance or the Chinese Medicine Ordinance. Any claim made for it has not been subject to evaluation for such registration. This product is not intended to diagnose, treat or prevent any disease.&lt;/p&gt;</t>
+          <t>&lt;p&gt;Our one-and-only, bestselling classic is legendary. With a heritage rooted in mineral-rich Tuscan mud treatments, Active Mud deeply purifies skin (face and body!), resulting in a smoother texture and ultra-fresh glow.&lt;/p&gt;&lt;p&gt;&lt;br/&gt;&lt;b&gt;Benefits:&lt;/b&gt;&lt;br/&gt;Special absorbing action rids skin of impurities without drying skin&lt;br/&gt;Stimulates and improves skin tone with natural botanicals&lt;br/&gt;Moisturizes and softens skin with Avocado and Sweet Almond Oils&lt;br/&gt;Revitalizes skin with signs of aging relieved&lt;br/&gt;&lt;br/&gt;&lt;b&gt;How to Use:&lt;/b&gt;&lt;br/&gt;Apply the mud generously to cleansed skin (face, neck and/or body) until the skin tone is covered.  Avoid eye and lip areas. Leave on for 2 to 5 minutes. Rinse off thoroughly using sponge or washcloth.  One to 2 times a week.&lt;/p&gt;&lt;p&gt;&lt;span style="font-size: 10.5pt;"&gt;Patch testing prior to use is advised for fragile skin:  Apply a small amount of the product on neck to test if you are sensitive to this product.&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;/p&gt;</t>
         </is>
       </c>
       <c r="E118" t="b">
@@ -31069,69 +31073,69 @@
         </is>
       </c>
       <c r="H118" t="n">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="I118" t="n">
-        <v>110</v>
+        <v>51</v>
       </c>
       <c r="J118" t="inlineStr">
         <is>
-          <t>&lt;p&gt;&lt;b&gt;Benefits:&lt;br/&gt;&lt;/b&gt;- 1000 mg vitamin C per timed release tablet&lt;br/&gt;- Supports immune function&lt;br/&gt;- Helps relieve cold symptoms&lt;br/&gt;- Rich in antioxidants for antiaging&lt;br/&gt;- Maintain skin health and healthy antioxidant activity&lt;br/&gt;- Aids in iron absorption&lt;br/&gt;&lt;br/&gt;&lt;b&gt;Recommended Dosage:&lt;br/&gt;&lt;/b&gt;1 - 2 tablets daily or as directed by a health practitioner&lt;/p&gt;</t>
+          <t>&lt;p&gt;&lt;span style="font-size: 14px;float: none;"&gt;Our one-and-only, bestselling classic is legendary. With a heritage rooted in mineral-rich Tuscan mud treatments, Active Mud deeply purifies skin (face and body!), resulting in a smoother texture and ultra-fresh glow.&lt;/span&gt;&lt;!--EndFragment--&gt;&lt;br/&gt;&lt;br/&gt;&lt;br/&gt;&lt;/p&gt;</t>
         </is>
       </c>
       <c r="K118" t="inlineStr">
         <is>
-          <t>{'currencyIso': 'HKD', 'value': 328.0, 'priceType': 'BUY', 'formattedValue': '$ 328.00', 'membershipLevel': 'NORMAL'}</t>
+          <t>{'currencyIso': 'HKD', 'value': 400.0, 'priceType': 'BUY', 'formattedValue': '$ 400.00', 'membershipLevel': 'NORMAL'}</t>
         </is>
       </c>
       <c r="L118" t="inlineStr">
         <is>
-          <t>H5096001LDB31711</t>
+          <t>H8891001492063</t>
         </is>
       </c>
       <c r="M118" t="inlineStr">
         <is>
-          <t>[{'imageType': 'PRIMARY', 'format': 'product', 'url': 'https://cdn-mms.hktvmall.com/hktv/mms/uploadProductImage/f172/cd2f/b7fd/oyhyGNuotw20240201120227_300.jpg', 'hoverImageUrl': ''}]</t>
+          <t>[{'imageType': 'PRIMARY', 'format': 'product', 'url': 'https://cdn-mms.hktvmall.com/hktv/mms/uploadProductImage/3649/e8ad/550f/DWRfgyYhkB20231206184852_300.jpg', 'hoverImageUrl': ''}]</t>
         </is>
       </c>
       <c r="N118" t="inlineStr">
         <is>
-          <t>[{'code': 'AA13300300001', 'name': 'Immunity', 'sequence': 0}, {'code': 'AA13303300001', 'name': 'Vitamin', 'sequence': 0}]</t>
+          <t>[{'code': 'AA16054015151', 'name': 'Pore Minimizing Clay Mask', 'sequence': 0}, {'code': 'AA16054015251', 'name': 'Deep Cleansing Clay Mask', 'sequence': 0}, {'code': 'AA16054015051', 'name': 'Moisturizing Clay Mask', 'sequence': 0}]</t>
         </is>
       </c>
       <c r="O118" t="inlineStr">
         <is>
-          <t>[{'code': 'H5096001_S_LDB31711', 'stock': {'stockLevelStatus': {'code': 'inStock', 'type': 'StockLevelStatus'}, 'consignmentWarehouse': False, 'forceInStock': False, 'thirdPartyLogisticsWarehouse': False}, 'url': 'main/Health-Express/s/H5096001/Personal-Care-%26-Health/Personal-Care-%26-Health/Health/Immunity/Vitamin-C-1000-mg-Timed-Release-100sRANDOM-PackingParallel-Goods-Best-Before31-December-2025/p/H5096001_S_LDB31711', 'priceData': {'currencyIso': 'HKD', 'value': 328.0, 'priceType': 'BUY', 'formattedValue': '$ 328.00', 'membershipLevel': 'NORMAL'}, 'variantOptionQualifiers': [], 'color': 'Default', 'mainImage': {'imageType': 'PRIMARY', 'format': 'product', 'url': 'https://cdn-mms.hktvmall.com/hktv/mms/uploadProductImage/f172/cd2f/b7fd/oyhyGNuotw20240201120227_300.jpg'}, 'swatchImage': {'imageType': 'PRIMARY', 'format': 'styleSwatch', 'url': 'https://cdn-mms.hktvmall.com/hktv/mms/uploadProductImage/f172/cd2f/b7fd/oyhyGNuotw20240201120227_300.jpg'}, 'discountPrice': {'currencyIso': 'HKD', 'value': 135.0, 'priceType': 'DISCOUNT', 'formattedValue': '$ 135.00'}, 'loyalityPoints': '0.0', 'promotionText': 'RED', 'packingSpec': 'Exp:31/12/2025', 'countryOfOrigin': 'Canada', 'labels': [{'type': 'OFFER', 'name': 'Fixed price Discount (normal)'}, {'type': 'REBATE', 'name': '0% Rewards', 'amount': 0.0, 'loyaltyPoint': '0'}], 'potentialPromotions': [{'code': 'mms_percentage_discountH5096001_S_LDB31711_sys', 'promotionType': 'HktvProductPercentageDiscountPromotion', 'endDate': 'Dec 31, 2099 12:00:00 AM', 'description': 'Mms_FixedPrice_H5096001_S_LDB31711', 'priority': 95, 'percentage': 58.84146, 'percentageDiscountRow': [{'discount': 58.84146, 'customerType': 'NORMAL', 'priority': 0, 'description': 'Fixed price Discount (normal)'}], 'creationTime': 'Jan 22, 2024 11:46:21 PM'}, {'code': 'MMS_MDQP_H5096001_20240219_00036', 'promotionType': 'Product Threshold Percentage Discount Promotion (Store based)', 'endDate': 'Feb 29, 2024 11:59:00 PM', 'description': 'MMS_MDQP_H5096001_20240219_00036', 'priority': 85, 'percentage': 0.0, 'creationTime': 'Feb 19, 2024 02:34:32 PM'}, {'code': 'MMS_RP_H5096001_20231011_00018', 'promotionType': 'HKTV Product Threshold Perfect Partner Promotion (Store based)', 'endDate': 'Feb 29, 2024 11:59:00 PM', 'description': 'MMS_RP_H5096001_20231011_00018', 'priority': 77, 'percentage': 0.0, 'creationTime': 'Oct 10, 2023 11:13:28 AM'}, {'code': 'MMS_RP_H5096001_20231130_00033', 'promotionType': 'HKTV Product Threshold Perfect Partner Promotion (Store based)', 'endDate': 'Feb 29, 2024 11:59:36 PM', 'description': 'MMS_RP_H5096001_20231130_00033', 'priority': 77, 'percentage': 0.0, 'creationTime': 'Nov 30, 2023 02:24:12 PM'}, {'code': 'MMS_FP_H5096001_20240201_00033', 'promotionType': 'Product Threshold Free Gift Promotion', 'endDate': 'Feb 29, 2024 11:59:00 PM', 'description': 'MMS_FP_H5096001_20240201_00033', 'priority': 70, 'percentage': 0.0, 'creationTime': 'Feb 01, 2024 10:48:31 AM'}], 'thresholdPromotion': {'name': 'Purchase selected product $299 or above, Free a Melatonin 10 counts Gummies!', 'label': 'Free a Melatonin Gummies!', 'description': 'Purchase selected product $299 or above, Free a Jamieson Melatonin (2.5 mg) Gummies - Strawberry 10 gummies. Promotion until 29 Feb. While the stock lasts.\n', 'shortDescription': 'Purchase selected product $299 or above, Free a Jamieson Melatonin (2.5 mg) Gummies - Strawberry 10 gummies. Promotion until 29 Feb. While the stock lasts.\n', 'code': 'MMS_FP_H5096001_20240201_00033', 'categories': ['EE00000923502'], 'thresholdType': 'AMOUNT', 'discountType': 'FREEGIFT', 'productCount': 1, 'colorCode': '#FF0000', 'startTime': 1706756280000, 'endTime': 1709222340000}, 'priceList': [{'currencyIso': 'HKD', 'value': 328.0, 'priceType': 'BUY', 'formattedValue': '$ 328.00', 'membershipLevel': 'NORMAL'}, {'currencyIso': 'HKD', 'value': 135.00001120000002, 'priceType': 'DISCOUNT', 'formattedValue': '$ 135.00', 'membershipLevel': 'NORMAL'}], 'recommendedSellingPrice': [], 'savedPrice': [{'currencyIso': 'HKD', 'value': 192.99998879999998, 'priceType': 'DISCOUNT', 'formattedValue': '$ 193.00', 'membershipLevel': 'NORMAL'}], 'perfectPartnerPromotion': {'code': 'MMS_RP_H5096001_20231130_00033', 'name': '$69Redeem Jamieson Probiotics!', 'label': '$69Redeem Jamieson Probiotics!', 'description': 'Buy selected products can $69 redeem Jamieson - Chewable Probiotic 2 Billion - Strawberry 60 tablets. Promotion until 29 Feb . Offer can be used ONCE only. While stock last.\n', 'shortDescription': 'Buy selected products can $69 redeem Jamieson - Chewable Probiotic 2 Billion - Strawberry 60 tablets. Promotion until 29 Feb. Offer can be used ONCE only. While stock last.\n', 'colorCode': '#FF0000', 'discountType': 'QUANTITY', 'startTime': 1701319525000, 'endTime': 1709222376000}}]</t>
+          <t>[{'code': 'H8891001_S_4893580010165', 'stock': {'stockLevelStatus': {'code': 'inStock', 'type': 'StockLevelStatus'}, 'consignmentWarehouse': False, 'forceInStock': False, 'thirdPartyLogisticsWarehouse': False}, 'url': 'main/BORGHESE-Flagship-Store/s/H8891001/Skincare-%26-Makeup/Skincare-%26-Makeup/Skincare/Mask/Clay-Mask/Deep-Cleansing-Clay-Mask/Fango-Active-Deep-Cleansing-and-Detox-Mud-for-Face-and-Body/p/H8891001_S_4893580010165', 'priceData': {'currencyIso': 'HKD', 'value': 400.0, 'priceType': 'BUY', 'formattedValue': '$ 400.00', 'membershipLevel': 'NORMAL'}, 'variantOptionQualifiers': [], 'color': 'Default', 'mainImage': {'imageType': 'PRIMARY', 'format': 'product', 'url': 'https://cdn-mms.hktvmall.com/hktv/mms/uploadProductImage/3649/e8ad/550f/DWRfgyYhkB20231206184852_300.jpg'}, 'swatchImage': {'imageType': 'PRIMARY', 'format': 'styleSwatch', 'url': 'https://cdn-mms.hktvmall.com/hktv/mms/uploadProductImage/3649/e8ad/550f/DWRfgyYhkB20231206184852_300.jpg'}, 'discountPrice': {'currencyIso': 'HKD', 'value': 260.0, 'priceType': 'DISCOUNT', 'formattedValue': '$ 260.00'}, 'loyalityPoints': '0.0', 'promotionText': 'RED', 'packingSpec': '', 'countryOfOrigin': 'United States of America', 'labels': [{'type': 'OFFER', 'name': 'Fixed price Discount (normal)'}, {'type': 'REBATE', 'name': '0% Rewards', 'amount': 0.0, 'loyaltyPoint': '0'}], 'potentialPromotions': [{'code': 'mms_percentage_discountH8891001_S_4893580010165_sys', 'promotionType': 'HktvProductPercentageDiscountPromotion', 'endDate': 'Dec 31, 2099 12:00:00 AM', 'description': 'Mms_FixedPrice_H8891001_S_4893580010165', 'priority': 95, 'percentage': 35.0, 'percentageDiscountRow': [{'discount': 35.0, 'customerType': 'NORMAL', 'priority': 0, 'description': 'Fixed price Discount (normal)'}], 'creationTime': 'Jan 16, 2024 02:55:55 PM'}], 'priceList': [{'currencyIso': 'HKD', 'value': 400.0, 'priceType': 'BUY', 'formattedValue': '$ 400.00', 'membershipLevel': 'NORMAL'}, {'currencyIso': 'HKD', 'value': 260.0, 'priceType': 'DISCOUNT', 'formattedValue': '$ 260.00', 'membershipLevel': 'NORMAL'}], 'recommendedSellingPrice': [], 'savedPrice': [{'currencyIso': 'HKD', 'value': 140.0, 'priceType': 'DISCOUNT', 'formattedValue': '$ 140.00', 'membershipLevel': 'NORMAL'}]}]</t>
         </is>
       </c>
       <c r="P118" t="inlineStr">
         <is>
-          <t>Jamieson</t>
+          <t>BORGHESE</t>
         </is>
       </c>
       <c r="Q118" t="inlineStr">
         <is>
-          <t>H5096001</t>
+          <t>H8891001</t>
         </is>
       </c>
       <c r="R118" t="inlineStr">
         <is>
-          <t>H5096001</t>
+          <t>H8891001</t>
         </is>
       </c>
       <c r="S118" t="inlineStr">
         <is>
-          <t>Health Express</t>
+          <t>BORGHESE Flagship Store</t>
         </is>
       </c>
       <c r="T118" t="inlineStr">
         <is>
-          <t>trustworthy_store</t>
+          <t>flagship_store</t>
         </is>
       </c>
       <c r="U118" t="inlineStr">
         <is>
-          <t>Trustworthy Store</t>
+          <t>Flagship store</t>
         </is>
       </c>
       <c r="V118" t="n">
@@ -31150,19 +31154,15 @@
           <t>hktv-standard-delivery</t>
         </is>
       </c>
-      <c r="Z118" t="inlineStr">
-        <is>
-          <t>Exp:31/12/2025</t>
-        </is>
-      </c>
+      <c r="Z118" t="inlineStr"/>
       <c r="AA118" t="inlineStr">
         <is>
-          <t>Canada</t>
+          <t>United States of America</t>
         </is>
       </c>
       <c r="AB118" t="inlineStr">
         <is>
-          <t>&lt;p&gt;本店將依照個人資料保護法相關規定保護您的個人資料﹐並遵守 HKTVmall 的私隱保護政策。如有任何爭議﹐商戶將保留最終決定權而毋須另行通知。因實際情況所限﹐HKTVmall 與門市銷售價格、促銷活動、條件與限制有機會各為不同﹐一切條款只適用於 HKTVmall。HKTVmall 並不是此店所出售的貨品或服務的賣方或供應商。&lt;br /&gt;&lt;br /&gt;HKTVmall 並非商品或服務的賣方或供應商。HKTVmall 負責管理網站、安排訂單處理過程及完成提供閣下透過 HKTVmall 向供應商訂購的商品或服務。透過 HKTVmall 購買的商品或服務須受商戶的條款及細則約束。對銷售及處理索賠或因閣下與商戶之間的合約引起的任何其他問題是商戶的責任。就購買優惠券方面，閣下除與優惠券的賣方訂立合約，當閣下使用優惠券同時也與實際提供商品或服務的商戶訂立合約。HKTVmall 概不承擔任何因閣下透過 HKTVmall 購買任何商品，服務或優惠券可能直接或間接蒙受索賠，損失或損害的責任，不論如何造成（包括遺漏或疏忽）。我們也不接受因使用或依據透過 HKTVmall 獲取的信息的任何索賠，損失或損害承擔任何責任。確保透過 HKTVmall 獲得的任何產品，服務或信息滿足閣下的特定要求是閣下的全部責任。特別是美容服務，閣下務必注意，在決定購買前應確保了解該服務將如何進行方。如有疑問，閣下應諮詢專業顧問。&lt;/p&gt;</t>
+          <t>&lt;p&gt;1. 圖片只供參考。&lt;/p&gt;&lt;p&gt;2. 贈品不得更換或退款。數量有限，送完即止。如贈品派發完畢將以其他贈品代替。&lt;/p&gt;&lt;p&gt;3. 基於衛生原因，貨品不接受退換。&lt;/p&gt;&lt;p&gt;4. 本店的服務條款會以HKTVmall的為準，詳情可參閱免責聲明。&lt;/p&gt;&lt;p&gt;5. 如有任何爭議，BORGHESE Limited保留最終決定權。&lt;/p&gt;</t>
         </is>
       </c>
       <c r="AC118" t="inlineStr">
@@ -31177,7 +31177,7 @@
       </c>
       <c r="AE118" t="inlineStr">
         <is>
-          <t>[{'currencyIso': 'HKD', 'value': 328.0, 'priceType': 'BUY', 'formattedValue': '$ 328.00', 'membershipLevel': 'NORMAL'}, {'currencyIso': 'HKD', 'value': 135.00001120000002, 'priceType': 'DISCOUNT', 'formattedValue': '$ 135.00', 'membershipLevel': 'NORMAL'}]</t>
+          <t>[{'currencyIso': 'HKD', 'value': 400.0, 'priceType': 'BUY', 'formattedValue': '$ 400.00', 'membershipLevel': 'NORMAL'}, {'currencyIso': 'HKD', 'value': 260.0, 'priceType': 'DISCOUNT', 'formattedValue': '$ 260.00', 'membershipLevel': 'NORMAL'}]</t>
         </is>
       </c>
       <c r="AF118" t="inlineStr">
@@ -31185,33 +31185,33 @@
           <t>[{'colorName': 'Default', 'colorValue': ''}]</t>
         </is>
       </c>
-      <c r="AG118" t="inlineStr"/>
+      <c r="AG118" t="inlineStr">
+        <is>
+          <t>Deep Clean | Value $400</t>
+        </is>
+      </c>
       <c r="AH118" t="inlineStr">
         <is>
           <t>RED</t>
         </is>
       </c>
-      <c r="AI118" t="inlineStr">
-        <is>
-          <t>{'name': 'Purchase selected product $299 or above, Free a Melatonin 10 counts Gummies!', 'label': 'Free a Melatonin Gummies!', 'description': 'Purchase selected product $299 or above, Free a Jamieson Melatonin (2.5 mg) Gummies - Strawberry 10 gummies. Promotion until 29 Feb. While the stock lasts.\n', 'shortDescription': 'Purchase selected product $299 or above, Free a Jamieson Melatonin (2.5 mg) Gummies - Strawberry 10 gummies. Promotion until 29 Feb. While the stock lasts.\n', 'code': 'MMS_FP_H5096001_20240201_00033', 'categories': ['EE00000923502'], 'thresholdType': 'AMOUNT', 'discountType': 'FREEGIFT', 'productCount': 1, 'colorCode': '#FF0000', 'startTime': 1706756280000, 'endTime': 1709222340000}</t>
-        </is>
-      </c>
+      <c r="AI118" t="inlineStr"/>
       <c r="AJ118" t="b">
         <v>0</v>
       </c>
       <c r="AK118" t="inlineStr">
         <is>
-          <t>[{'currencyIso': 'HKD', 'value': 192.99998879999998, 'priceType': 'DISCOUNT', 'formattedValue': '$ 193.00', 'membershipLevel': 'NORMAL'}]</t>
+          <t>[{'currencyIso': 'HKD', 'value': 140.0, 'priceType': 'DISCOUNT', 'formattedValue': '$ 140.00', 'membershipLevel': 'NORMAL'}]</t>
         </is>
       </c>
       <c r="AL118" t="inlineStr">
         <is>
-          <t>N39283</t>
+          <t>Q86350</t>
         </is>
       </c>
       <c r="AM118" t="inlineStr">
         <is>
-          <t>AA13300300001</t>
+          <t>AA16054015251</t>
         </is>
       </c>
       <c r="AN118" t="b">
@@ -31240,7 +31240,7 @@
       </c>
       <c r="AV118" t="inlineStr">
         <is>
-          <t>{'code': 'H5096001'}</t>
+          <t>{'code': 'H8891001'}</t>
         </is>
       </c>
       <c r="AW118" t="inlineStr">
@@ -31256,21 +31256,21 @@
       </c>
       <c r="AZ118" t="inlineStr">
         <is>
-          <t>10,000+ Sold</t>
+          <t>2,000+ Sold</t>
         </is>
       </c>
       <c r="BA118" t="n">
-        <v>180</v>
+        <v>95</v>
       </c>
       <c r="BB118" t="n">
-        <v>230</v>
+        <v>95</v>
       </c>
       <c r="BC118" t="n">
-        <v>65</v>
+        <v>95</v>
       </c>
       <c r="BD118" t="inlineStr">
         <is>
-          <t>['8798419610077', '8798354074077']</t>
+          <t>['8798419610077']</t>
         </is>
       </c>
       <c r="BE118" t="inlineStr">
@@ -31283,21 +31283,17 @@
         <v>0</v>
       </c>
       <c r="BH118" t="n">
-        <v>12831</v>
+        <v>2657</v>
       </c>
       <c r="BI118" t="inlineStr">
         <is>
           <t>[{'startTime': 1708617600000, 'endTime': 1708660800000, 'deliveryMode': 'standard-same-day'}, {'startTime': 1708660800000, 'endTime': 1708696800000, 'deliveryMode': 'standard-express'}, {'startTime': 1708696800000, 'endTime': 1708704000000, 'deliveryMode': 'standard-express'}, {'startTime': 1708704000000, 'endTime': 1708747200000, 'deliveryMode': 'standard-same-day'}, {'startTime': 1708747200000, 'endTime': 1708783200000, 'deliveryMode': 'standard-express'}, {'startTime': 1708783200000, 'endTime': 1708790400000, 'deliveryMode': 'standard-express'}, {'startTime': 1708790400000, 'endTime': 1708833600000, 'deliveryMode': 'standard-same-day'}, {'startTime': 1708833600000, 'endTime': 1708869600000, 'deliveryMode': 'standard-express'}, {'startTime': 1708869600000, 'endTime': 1708876800000, 'deliveryMode': 'standard-express'}, {'startTime': 1708876800000, 'endTime': 1708920000000, 'deliveryMode': 'standard-same-day'}, {'startTime': 1708920000000, 'endTime': 1708956000000, 'deliveryMode': 'standard-express'}, {'startTime': 1708956000000, 'endTime': 1708963200000, 'deliveryMode': 'standard-express'}]</t>
         </is>
       </c>
-      <c r="BJ118" t="inlineStr">
-        <is>
-          <t>{'code': 'MMS_RP_H5096001_20231130_00033', 'name': '$69Redeem Jamieson Probiotics!', 'label': '$69Redeem Jamieson Probiotics!', 'description': 'Buy selected products can $69 redeem Jamieson - Chewable Probiotic 2 Billion - Strawberry 60 tablets. Promotion until 29 Feb . Offer can be used ONCE only. While stock last.\n', 'shortDescription': 'Buy selected products can $69 redeem Jamieson - Chewable Probiotic 2 Billion - Strawberry 60 tablets. Promotion until 29 Feb. Offer can be used ONCE only. While stock last.\n', 'colorCode': '#FF0000', 'discountType': 'QUANTITY', 'startTime': 1701319525000, 'endTime': 1709222376000}</t>
-        </is>
-      </c>
+      <c r="BJ118" t="inlineStr"/>
       <c r="BK118" t="inlineStr">
         <is>
-          <t>['MO']</t>
+          <t>['MO', 'UK']</t>
         </is>
       </c>
       <c r="BL118" t="inlineStr"/>
@@ -31306,22 +31302,22 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>H8891001_S_4893580010165</t>
+          <t>H7304001_S_VEN-SFP0030</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>Fango Active Deep Cleansing and Detox Mud for Face and Body</t>
+          <t>SlimFit Probiotics50 Billion</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>main/BORGHESE-Flagship-Store/s/H8891001/Skincare-%26-Makeup/Skincare-%26-Makeup/Skincare/Mask/Clay-Mask/Deep-Cleansing-Clay-Mask/Fango-Active-Deep-Cleansing-and-Detox-Mud-for-Face-and-Body/p/H8891001_S_4893580010165</t>
+          <t>main/Ceci-Company-/s/H7304001/Personal-Care-%26-Health/Personal-Care-%26-Health/Health/Slimming-%26-Fitness/Slimming-Capsule/SlimFit-Probiotics50-Billion/p/H7304001_S_VEN-SFP0030</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>&lt;p&gt;Our one-and-only, bestselling classic is legendary. With a heritage rooted in mineral-rich Tuscan mud treatments, Active Mud deeply purifies skin (face and body!), resulting in a smoother texture and ultra-fresh glow.&lt;/p&gt;&lt;p&gt;&lt;br/&gt;&lt;b&gt;Benefits:&lt;/b&gt;&lt;br/&gt;Special absorbing action rids skin of impurities without drying skin&lt;br/&gt;Stimulates and improves skin tone with natural botanicals&lt;br/&gt;Moisturizes and softens skin with Avocado and Sweet Almond Oils&lt;br/&gt;Revitalizes skin with signs of aging relieved&lt;br/&gt;&lt;br/&gt;&lt;b&gt;How to Use:&lt;/b&gt;&lt;br/&gt;Apply the mud generously to cleansed skin (face, neck and/or body) until the skin tone is covered.  Avoid eye and lip areas. Leave on for 2 to 5 minutes. Rinse off thoroughly using sponge or washcloth.  One to 2 times a week.&lt;/p&gt;&lt;p&gt;&lt;span style="font-size: 10.5pt;"&gt;Patch testing prior to use is advised for fragile skin:  Apply a small amount of the product on neck to test if you are sensitive to this product.&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;/p&gt;</t>
+          <t>&lt;p&gt;***Please refer to the package for product details.&lt;br style="font-size: 14px;"/&gt;***The picture above is for reference only. The real object should be considered as final.&lt;br/&gt;&lt;/p&gt;</t>
         </is>
       </c>
       <c r="E119" t="b">
@@ -31336,73 +31332,73 @@
         </is>
       </c>
       <c r="H119" t="n">
-        <v>4.2</v>
+        <v>4.7</v>
       </c>
       <c r="I119" t="n">
-        <v>51</v>
+        <v>11</v>
       </c>
       <c r="J119" t="inlineStr">
         <is>
-          <t>&lt;p&gt;&lt;span style="font-size: 14px;float: none;"&gt;Our one-and-only, bestselling classic is legendary. With a heritage rooted in mineral-rich Tuscan mud treatments, Active Mud deeply purifies skin (face and body!), resulting in a smoother texture and ultra-fresh glow.&lt;/span&gt;&lt;!--EndFragment--&gt;&lt;br/&gt;&lt;br/&gt;&lt;br/&gt;&lt;/p&gt;</t>
+          <t>&lt;p&gt;SlimFit Probiotics50 Billion&lt;br/&gt;&lt;/p&gt;</t>
         </is>
       </c>
       <c r="K119" t="inlineStr">
         <is>
-          <t>{'currencyIso': 'HKD', 'value': 400.0, 'priceType': 'BUY', 'formattedValue': '$ 400.00', 'membershipLevel': 'NORMAL'}</t>
+          <t>{'currencyIso': 'HKD', 'value': 428.0, 'priceType': 'BUY', 'formattedValue': '$ 428.00', 'membershipLevel': 'NORMAL'}</t>
         </is>
       </c>
       <c r="L119" t="inlineStr">
         <is>
-          <t>H8891001492063</t>
+          <t>H7304001VEN-SFP0030</t>
         </is>
       </c>
       <c r="M119" t="inlineStr">
         <is>
-          <t>[{'imageType': 'PRIMARY', 'format': 'product', 'url': 'https://cdn-mms.hktvmall.com/hktv/mms/uploadProductImage/3649/e8ad/550f/DWRfgyYhkB20231206184852_300.jpg', 'hoverImageUrl': ''}]</t>
+          <t>[{'imageType': 'PRIMARY', 'format': 'product', 'url': 'https://images.hktv-img.com/images/HKTV/26379/VEN-SFP0030_main_72226913_20210902110028_01_300.jpg', 'hoverImageUrl': ''}]</t>
         </is>
       </c>
       <c r="N119" t="inlineStr">
         <is>
-          <t>[{'code': 'AA16054015151', 'name': 'Pore Minimizing Clay Mask', 'sequence': 0}, {'code': 'AA16054015251', 'name': 'Deep Cleansing Clay Mask', 'sequence': 0}, {'code': 'AA16054015051', 'name': 'Moisturizing Clay Mask', 'sequence': 0}]</t>
+          <t>[{'code': 'AA13307310001', 'name': 'Slimming Capsule', 'sequence': 0}, {'code': 'AA13305600001', 'name': 'Women Formula', 'sequence': 0}, {'code': 'AA28776000001', 'name': 'Slimming &amp; Fitness', 'sequence': 0}]</t>
         </is>
       </c>
       <c r="O119" t="inlineStr">
         <is>
-          <t>[{'code': 'H8891001_S_4893580010165', 'stock': {'stockLevelStatus': {'code': 'inStock', 'type': 'StockLevelStatus'}, 'consignmentWarehouse': False, 'forceInStock': False, 'thirdPartyLogisticsWarehouse': False}, 'url': 'main/BORGHESE-Flagship-Store/s/H8891001/Skincare-%26-Makeup/Skincare-%26-Makeup/Skincare/Mask/Clay-Mask/Deep-Cleansing-Clay-Mask/Fango-Active-Deep-Cleansing-and-Detox-Mud-for-Face-and-Body/p/H8891001_S_4893580010165', 'priceData': {'currencyIso': 'HKD', 'value': 400.0, 'priceType': 'BUY', 'formattedValue': '$ 400.00', 'membershipLevel': 'NORMAL'}, 'variantOptionQualifiers': [], 'color': 'Default', 'mainImage': {'imageType': 'PRIMARY', 'format': 'product', 'url': 'https://cdn-mms.hktvmall.com/hktv/mms/uploadProductImage/3649/e8ad/550f/DWRfgyYhkB20231206184852_300.jpg'}, 'swatchImage': {'imageType': 'PRIMARY', 'format': 'styleSwatch', 'url': 'https://cdn-mms.hktvmall.com/hktv/mms/uploadProductImage/3649/e8ad/550f/DWRfgyYhkB20231206184852_300.jpg'}, 'discountPrice': {'currencyIso': 'HKD', 'value': 260.0, 'priceType': 'DISCOUNT', 'formattedValue': '$ 260.00'}, 'loyalityPoints': '0.0', 'promotionText': 'RED', 'packingSpec': '', 'countryOfOrigin': 'United States of America', 'labels': [{'type': 'OFFER', 'name': 'Fixed price Discount (normal)'}, {'type': 'REBATE', 'name': '0% Rewards', 'amount': 0.0, 'loyaltyPoint': '0'}], 'potentialPromotions': [{'code': 'mms_percentage_discountH8891001_S_4893580010165_sys', 'promotionType': 'HktvProductPercentageDiscountPromotion', 'endDate': 'Dec 31, 2099 12:00:00 AM', 'description': 'Mms_FixedPrice_H8891001_S_4893580010165', 'priority': 95, 'percentage': 35.0, 'percentageDiscountRow': [{'discount': 35.0, 'customerType': 'NORMAL', 'priority': 0, 'description': 'Fixed price Discount (normal)'}], 'creationTime': 'Jan 16, 2024 02:55:55 PM'}], 'priceList': [{'currencyIso': 'HKD', 'value': 400.0, 'priceType': 'BUY', 'formattedValue': '$ 400.00', 'membershipLevel': 'NORMAL'}, {'currencyIso': 'HKD', 'value': 260.0, 'priceType': 'DISCOUNT', 'formattedValue': '$ 260.00', 'membershipLevel': 'NORMAL'}], 'recommendedSellingPrice': [], 'savedPrice': [{'currencyIso': 'HKD', 'value': 140.0, 'priceType': 'DISCOUNT', 'formattedValue': '$ 140.00', 'membershipLevel': 'NORMAL'}]}]</t>
+          <t>[{'code': 'H7304001_S_VEN-SFP0030', 'stock': {'stockLevelStatus': {'code': 'inStock', 'type': 'StockLevelStatus'}, 'consignmentWarehouse': False, 'forceInStock': False, 'thirdPartyLogisticsWarehouse': False}, 'url': 'main/Ceci-Company-/s/H7304001/Personal-Care-%26-Health/Personal-Care-%26-Health/Health/Slimming-%26-Fitness/Slimming-Capsule/SlimFit-Probiotics50-Billion/p/H7304001_S_VEN-SFP0030', 'priceData': {'currencyIso': 'HKD', 'value': 428.0, 'priceType': 'BUY', 'formattedValue': '$ 428.00', 'membershipLevel': 'NORMAL'}, 'variantOptionQualifiers': [], 'color': 'Default', 'mainImage': {'imageType': 'PRIMARY', 'format': 'product', 'url': 'https://images.hktv-img.com/images/HKTV/26379/VEN-SFP0030_main_72226913_20210902110028_01_300.jpg'}, 'swatchImage': {'imageType': 'PRIMARY', 'format': 'styleSwatch', 'url': 'https://images.hktv-img.com/images/HKTV/26379/VEN-SFP0030_main_72226913_20210902110028_01_300.jpg'}, 'discountPrice': {'currencyIso': 'HKD', 'value': 294.4, 'priceType': 'DISCOUNT', 'formattedValue': '$ 294.40'}, 'loyalityPoints': '0.0', 'promotionText': 'GREY', 'packingSpec': '30 capsules', 'countryOfOrigin': 'United Kingdom', 'labels': [{'type': 'OFFER', 'name': 'Fixed price Discount (normal)'}, {'type': 'REBATE', 'name': '0% Rewards', 'amount': 0.0, 'loyaltyPoint': '0'}], 'potentialPromotions': [{'code': 'mms_percentage_discountH7304001_S_VEN-SFP0030_sys', 'promotionType': 'HktvProductPercentageDiscountPromotion', 'endDate': 'Dec 31, 2099 12:00:00 AM', 'description': 'Mms_FixedPrice_H7304001_S_VEN-SFP0030', 'priority': 95, 'percentage': 31.21495, 'percentageDiscountRow': [{'discount': 31.21495, 'customerType': 'NORMAL', 'priority': 0, 'description': 'Fixed price Discount (normal)'}], 'creationTime': 'May 17, 2023 04:04:08 PM'}, {'code': 'MMS_RP_H7304001_20231106_00024', 'promotionType': 'HKTV Product Threshold Perfect Partner Promotion (Store based)', 'endDate': 'Mar 31, 2024 11:59:00 PM', 'description': 'MMS_RP_H7304001_20231106_00024', 'priority': 77, 'percentage': 0.0, 'creationTime': 'Nov 06, 2023 12:00:21 PM'}], 'priceList': [{'currencyIso': 'HKD', 'value': 428.0, 'priceType': 'BUY', 'formattedValue': '$ 428.00', 'membershipLevel': 'NORMAL'}, {'currencyIso': 'HKD', 'value': 294.400014, 'priceType': 'DISCOUNT', 'formattedValue': '$ 294.40', 'membershipLevel': 'NORMAL'}], 'recommendedSellingPrice': [], 'savedPrice': [{'currencyIso': 'HKD', 'value': 133.599986, 'priceType': 'DISCOUNT', 'formattedValue': '$ 133.60', 'membershipLevel': 'NORMAL'}], 'perfectPartnerPromotion': {'code': 'MMS_RP_H7304001_20231106_00024', 'name': '$35 Redeem Holdbody Super C', 'label': '$35 Holdbody Super C', 'description': 'Redeem Holdbody Super C (20 Tablets) at $35 upon purchasing designated products.\nWhile stocks last.\nRedemption period till 31 Jan 2024.', 'shortDescription': 'Redeption - Redeem Holdbody Super C', 'colorCode': '#FF0000', 'discountType': 'QUANTITY', 'startTime': 1699243200000, 'endTime': 1711900740000}}]</t>
         </is>
       </c>
       <c r="P119" t="inlineStr">
         <is>
-          <t>BORGHESE</t>
+          <t>PROVEN</t>
         </is>
       </c>
       <c r="Q119" t="inlineStr">
         <is>
-          <t>H8891001</t>
+          <t>H7304001</t>
         </is>
       </c>
       <c r="R119" t="inlineStr">
         <is>
-          <t>H8891001</t>
+          <t>H7304001</t>
         </is>
       </c>
       <c r="S119" t="inlineStr">
         <is>
-          <t>BORGHESE Flagship Store</t>
+          <t>Ceci Company</t>
         </is>
       </c>
       <c r="T119" t="inlineStr">
         <is>
-          <t>flagship_store</t>
+          <t>frequent_delivery_store</t>
         </is>
       </c>
       <c r="U119" t="inlineStr">
         <is>
-          <t>Flagship store</t>
+          <t>Fast Delivery Shop</t>
         </is>
       </c>
       <c r="V119" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="W119" t="b">
         <v>0</v>
@@ -31417,15 +31413,19 @@
           <t>hktv-standard-delivery</t>
         </is>
       </c>
-      <c r="Z119" t="inlineStr"/>
+      <c r="Z119" t="inlineStr">
+        <is>
+          <t>30 capsules</t>
+        </is>
+      </c>
       <c r="AA119" t="inlineStr">
         <is>
-          <t>United States of America</t>
+          <t>United Kingdom</t>
         </is>
       </c>
       <c r="AB119" t="inlineStr">
         <is>
-          <t>&lt;p&gt;1. 圖片只供參考。&lt;/p&gt;&lt;p&gt;2. 贈品不得更換或退款。數量有限，送完即止。如贈品派發完畢將以其他贈品代替。&lt;/p&gt;&lt;p&gt;3. 基於衛生原因，貨品不接受退換。&lt;/p&gt;&lt;p&gt;4. 本店的服務條款會以HKTVmall的為準，詳情可參閱免責聲明。&lt;/p&gt;&lt;p&gt;5. 如有任何爭議，BORGHESE Limited保留最終決定權。&lt;/p&gt;</t>
+          <t>&lt;p&gt;&amp;bull;本店將依照個人資料保護法相關規定保護您的個人資料，並遵守HKTVmall 的私隱保護政策。&lt;br /&gt;&amp;bull;如有任何爭議，商戶將保留最終決定權而毋須另行&lt;br /&gt;通知。&lt;br /&gt;&amp;bull;商品顏色或會因電腦螢幕設定差異會略有不同，一切以實物為&lt;br /&gt;準。&lt;br /&gt;&amp;bull;因實際情況所限，HKTVmall 與門市銷售價格、促銷活動、條件與限制有機會各為不同，一切條款只適用於HKTVmall。&lt;/p&gt;</t>
         </is>
       </c>
       <c r="AC119" t="inlineStr">
@@ -31440,7 +31440,7 @@
       </c>
       <c r="AE119" t="inlineStr">
         <is>
-          <t>[{'currencyIso': 'HKD', 'value': 400.0, 'priceType': 'BUY', 'formattedValue': '$ 400.00', 'membershipLevel': 'NORMAL'}, {'currencyIso': 'HKD', 'value': 260.0, 'priceType': 'DISCOUNT', 'formattedValue': '$ 260.00', 'membershipLevel': 'NORMAL'}]</t>
+          <t>[{'currencyIso': 'HKD', 'value': 428.0, 'priceType': 'BUY', 'formattedValue': '$ 428.00', 'membershipLevel': 'NORMAL'}, {'currencyIso': 'HKD', 'value': 294.400014, 'priceType': 'DISCOUNT', 'formattedValue': '$ 294.40', 'membershipLevel': 'NORMAL'}]</t>
         </is>
       </c>
       <c r="AF119" t="inlineStr">
@@ -31448,14 +31448,10 @@
           <t>[{'colorName': 'Default', 'colorValue': ''}]</t>
         </is>
       </c>
-      <c r="AG119" t="inlineStr">
-        <is>
-          <t>Deep Clean | Value $400</t>
-        </is>
-      </c>
+      <c r="AG119" t="inlineStr"/>
       <c r="AH119" t="inlineStr">
         <is>
-          <t>RED</t>
+          <t>GREY</t>
         </is>
       </c>
       <c r="AI119" t="inlineStr"/>
@@ -31464,17 +31460,17 @@
       </c>
       <c r="AK119" t="inlineStr">
         <is>
-          <t>[{'currencyIso': 'HKD', 'value': 140.0, 'priceType': 'DISCOUNT', 'formattedValue': '$ 140.00', 'membershipLevel': 'NORMAL'}]</t>
+          <t>[{'currencyIso': 'HKD', 'value': 133.599986, 'priceType': 'DISCOUNT', 'formattedValue': '$ 133.60', 'membershipLevel': 'NORMAL'}]</t>
         </is>
       </c>
       <c r="AL119" t="inlineStr">
         <is>
-          <t>Q86350</t>
+          <t>S08390</t>
         </is>
       </c>
       <c r="AM119" t="inlineStr">
         <is>
-          <t>AA16054015251</t>
+          <t>AA13307310001</t>
         </is>
       </c>
       <c r="AN119" t="b">
@@ -31503,7 +31499,7 @@
       </c>
       <c r="AV119" t="inlineStr">
         <is>
-          <t>{'code': 'H8891001'}</t>
+          <t>{'code': 'H7304001'}</t>
         </is>
       </c>
       <c r="AW119" t="inlineStr">
@@ -31519,17 +31515,17 @@
       </c>
       <c r="AZ119" t="inlineStr">
         <is>
-          <t>2,000+ Sold</t>
+          <t>1,000+ Sold</t>
         </is>
       </c>
       <c r="BA119" t="n">
-        <v>95</v>
+        <v>141</v>
       </c>
       <c r="BB119" t="n">
-        <v>95</v>
+        <v>54</v>
       </c>
       <c r="BC119" t="n">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="BD119" t="inlineStr">
         <is>
@@ -31546,17 +31542,21 @@
         <v>0</v>
       </c>
       <c r="BH119" t="n">
-        <v>2657</v>
+        <v>1545</v>
       </c>
       <c r="BI119" t="inlineStr">
         <is>
           <t>[{'startTime': 1708617600000, 'endTime': 1708660800000, 'deliveryMode': 'standard-same-day'}, {'startTime': 1708660800000, 'endTime': 1708696800000, 'deliveryMode': 'standard-express'}, {'startTime': 1708696800000, 'endTime': 1708704000000, 'deliveryMode': 'standard-express'}, {'startTime': 1708704000000, 'endTime': 1708747200000, 'deliveryMode': 'standard-same-day'}, {'startTime': 1708747200000, 'endTime': 1708783200000, 'deliveryMode': 'standard-express'}, {'startTime': 1708783200000, 'endTime': 1708790400000, 'deliveryMode': 'standard-express'}, {'startTime': 1708790400000, 'endTime': 1708833600000, 'deliveryMode': 'standard-same-day'}, {'startTime': 1708833600000, 'endTime': 1708869600000, 'deliveryMode': 'standard-express'}, {'startTime': 1708869600000, 'endTime': 1708876800000, 'deliveryMode': 'standard-express'}, {'startTime': 1708876800000, 'endTime': 1708920000000, 'deliveryMode': 'standard-same-day'}, {'startTime': 1708920000000, 'endTime': 1708956000000, 'deliveryMode': 'standard-express'}, {'startTime': 1708956000000, 'endTime': 1708963200000, 'deliveryMode': 'standard-express'}]</t>
         </is>
       </c>
-      <c r="BJ119" t="inlineStr"/>
+      <c r="BJ119" t="inlineStr">
+        <is>
+          <t>{'code': 'MMS_RP_H7304001_20231106_00024', 'name': '$35 Redeem Holdbody Super C', 'label': '$35 Holdbody Super C', 'description': 'Redeem Holdbody Super C (20 Tablets) at $35 upon purchasing designated products.\nWhile stocks last.\nRedemption period till 31 Jan 2024.', 'shortDescription': 'Redeption - Redeem Holdbody Super C', 'colorCode': '#FF0000', 'discountType': 'QUANTITY', 'startTime': 1699243200000, 'endTime': 1711900740000}</t>
+        </is>
+      </c>
       <c r="BK119" t="inlineStr">
         <is>
-          <t>['MO', 'UK']</t>
+          <t>['MO']</t>
         </is>
       </c>
       <c r="BL119" t="inlineStr"/>
@@ -31565,22 +31565,22 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>H7304001_S_VEN-SFP0030</t>
+          <t>H8503001_S_SKYN_PE</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>SlimFit Probiotics50 Billion</t>
+          <t>【JAPAN EDITION】Package - Premium x Extra Lub (2 boxes, 20 pcs) (JP Condom) (Parallel Import)</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>main/Ceci-Company-/s/H7304001/Personal-Care-%26-Health/Personal-Care-%26-Health/Health/Slimming-%26-Fitness/Slimming-Capsule/SlimFit-Probiotics50-Billion/p/H7304001_S_VEN-SFP0030</t>
+          <t>main/Pooni-Mall/s/H8503001/Personal-Care-%26-Health/Personal-Care-%26-Health/Personal-Care/Condom-%26-Sexual-Wellness/Condoms/Long-lasting-Condom/JAPAN-EDITIONPackage-Premium-x-Extra-Lub-2-boxes-20-pcs-JP-Condom-Parallel-Import/p/H8503001_S_SKYN_PE</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>&lt;p&gt;***Please refer to the package for product details.&lt;br style="font-size: 14px;"/&gt;***The picture above is for reference only. The real object should be considered as final.&lt;br/&gt;&lt;/p&gt;</t>
+          <t>【JAPAN EDITION】Package - Premium x Extra Lub (2 boxes, 20 pcs)&lt;br /&gt;&lt;br /&gt;High-end revolutionary products, adopted SKYNFEEL ™ ultra-soft material, Ryokin general patch. Top-class lipophilic strength, safety and flexibility, dexterity-sensitive, custom-made, self-adjustment, double-strength guard.&lt;br /&gt;&lt;br /&gt;SKYN® iR non-glue safe, adopted one kind of advanced material SKYNFEEL ™ made, no natural natural glue component, soft skin sticking feeling, soft and soft fit, strong heat feeling, strong skin sticking bond, super active Feeling.</t>
         </is>
       </c>
       <c r="E120" t="b">
@@ -31598,70 +31598,70 @@
         <v>4.7</v>
       </c>
       <c r="I120" t="n">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="J120" t="inlineStr">
         <is>
-          <t>&lt;p&gt;SlimFit Probiotics50 Billion&lt;br/&gt;&lt;/p&gt;</t>
+          <t>&lt;p&gt;High-end revolutionary products, adopted SKYNFEEL ™ ultra-soft material, Ryokin general patch. Top-class lipophilic strength, safety and flexibility, dexterity-sensitive, custom-made, self-adjustment, double-strength guard.&lt;/p&gt;</t>
         </is>
       </c>
       <c r="K120" t="inlineStr">
         <is>
-          <t>{'currencyIso': 'HKD', 'value': 428.0, 'priceType': 'BUY', 'formattedValue': '$ 428.00', 'membershipLevel': 'NORMAL'}</t>
+          <t>{'currencyIso': 'HKD', 'value': 198.0, 'priceType': 'BUY', 'formattedValue': '$ 198.00', 'membershipLevel': 'NORMAL'}</t>
         </is>
       </c>
       <c r="L120" t="inlineStr">
         <is>
-          <t>H7304001VEN-SFP0030</t>
+          <t>H8503001SKYN_PE</t>
         </is>
       </c>
       <c r="M120" t="inlineStr">
         <is>
-          <t>[{'imageType': 'PRIMARY', 'format': 'product', 'url': 'https://images.hktv-img.com/images/HKTV/26379/VEN-SFP0030_main_72226913_20210902110028_01_300.jpg', 'hoverImageUrl': ''}]</t>
+          <t>[{'imageType': 'PRIMARY', 'format': 'product', 'url': 'https://images.hktv-img.com/images/HKTV/34458/SKYN_PE_main_56744102_20201229004012_01_300.jpg', 'hoverImageUrl': ''}]</t>
         </is>
       </c>
       <c r="N120" t="inlineStr">
         <is>
-          <t>[{'code': 'AA13307310001', 'name': 'Slimming Capsule', 'sequence': 0}, {'code': 'AA13305600001', 'name': 'Women Formula', 'sequence': 0}, {'code': 'AA28776000001', 'name': 'Slimming &amp; Fitness', 'sequence': 0}]</t>
+          <t>[{'code': 'AA11858510001', 'name': 'Condoms &amp; Lube', 'sequence': 0}, {'code': 'AA13205005201', 'name': 'Long-lasting Condom', 'sequence': 0}, {'code': 'AA13205005101', 'name': 'Sensitive Condom', 'sequence': 0}]</t>
         </is>
       </c>
       <c r="O120" t="inlineStr">
         <is>
-          <t>[{'code': 'H7304001_S_VEN-SFP0030', 'stock': {'stockLevelStatus': {'code': 'inStock', 'type': 'StockLevelStatus'}, 'consignmentWarehouse': False, 'forceInStock': False, 'thirdPartyLogisticsWarehouse': False}, 'url': 'main/Ceci-Company-/s/H7304001/Personal-Care-%26-Health/Personal-Care-%26-Health/Health/Slimming-%26-Fitness/Slimming-Capsule/SlimFit-Probiotics50-Billion/p/H7304001_S_VEN-SFP0030', 'priceData': {'currencyIso': 'HKD', 'value': 428.0, 'priceType': 'BUY', 'formattedValue': '$ 428.00', 'membershipLevel': 'NORMAL'}, 'variantOptionQualifiers': [], 'color': 'Default', 'mainImage': {'imageType': 'PRIMARY', 'format': 'product', 'url': 'https://images.hktv-img.com/images/HKTV/26379/VEN-SFP0030_main_72226913_20210902110028_01_300.jpg'}, 'swatchImage': {'imageType': 'PRIMARY', 'format': 'styleSwatch', 'url': 'https://images.hktv-img.com/images/HKTV/26379/VEN-SFP0030_main_72226913_20210902110028_01_300.jpg'}, 'discountPrice': {'currencyIso': 'HKD', 'value': 294.4, 'priceType': 'DISCOUNT', 'formattedValue': '$ 294.40'}, 'loyalityPoints': '0.0', 'promotionText': 'GREY', 'packingSpec': '30 capsules', 'countryOfOrigin': 'United Kingdom', 'labels': [{'type': 'OFFER', 'name': 'Fixed price Discount (normal)'}, {'type': 'REBATE', 'name': '0% Rewards', 'amount': 0.0, 'loyaltyPoint': '0'}], 'potentialPromotions': [{'code': 'mms_percentage_discountH7304001_S_VEN-SFP0030_sys', 'promotionType': 'HktvProductPercentageDiscountPromotion', 'endDate': 'Dec 31, 2099 12:00:00 AM', 'description': 'Mms_FixedPrice_H7304001_S_VEN-SFP0030', 'priority': 95, 'percentage': 31.21495, 'percentageDiscountRow': [{'discount': 31.21495, 'customerType': 'NORMAL', 'priority': 0, 'description': 'Fixed price Discount (normal)'}], 'creationTime': 'May 17, 2023 04:04:08 PM'}, {'code': 'MMS_RP_H7304001_20231106_00024', 'promotionType': 'HKTV Product Threshold Perfect Partner Promotion (Store based)', 'endDate': 'Mar 31, 2024 11:59:00 PM', 'description': 'MMS_RP_H7304001_20231106_00024', 'priority': 77, 'percentage': 0.0, 'creationTime': 'Nov 06, 2023 12:00:21 PM'}], 'priceList': [{'currencyIso': 'HKD', 'value': 428.0, 'priceType': 'BUY', 'formattedValue': '$ 428.00', 'membershipLevel': 'NORMAL'}, {'currencyIso': 'HKD', 'value': 294.400014, 'priceType': 'DISCOUNT', 'formattedValue': '$ 294.40', 'membershipLevel': 'NORMAL'}], 'recommendedSellingPrice': [], 'savedPrice': [{'currencyIso': 'HKD', 'value': 133.599986, 'priceType': 'DISCOUNT', 'formattedValue': '$ 133.60', 'membershipLevel': 'NORMAL'}], 'perfectPartnerPromotion': {'code': 'MMS_RP_H7304001_20231106_00024', 'name': '$35 Redeem Holdbody Super C', 'label': '$35 Holdbody Super C', 'description': 'Redeem Holdbody Super C (20 Tablets) at $35 upon purchasing designated products.\nWhile stocks last.\nRedemption period till 31 Jan 2024.', 'shortDescription': 'Redeption - Redeem Holdbody Super C', 'colorCode': '#FF0000', 'discountType': 'QUANTITY', 'startTime': 1699243200000, 'endTime': 1711900740000}}]</t>
+          <t>[{'code': 'H8503001_S_SKYN_PE', 'stock': {'stockLevelStatus': {'code': 'inStock', 'type': 'StockLevelStatus'}, 'consignmentWarehouse': False, 'forceInStock': False, 'thirdPartyLogisticsWarehouse': False}, 'url': 'main/Pooni-Mall/s/H8503001/Personal-Care-%26-Health/Personal-Care-%26-Health/Personal-Care/Condom-%26-Sexual-Wellness/Condoms/Long-lasting-Condom/JAPAN-EDITIONPackage-Premium-x-Extra-Lub-2-boxes-20-pcs-JP-Condom-Parallel-Import/p/H8503001_S_SKYN_PE', 'priceData': {'currencyIso': 'HKD', 'value': 198.0, 'priceType': 'BUY', 'formattedValue': '$ 198.00', 'membershipLevel': 'NORMAL'}, 'variantOptionQualifiers': [], 'color': 'Default', 'mainImage': {'imageType': 'PRIMARY', 'format': 'product', 'url': 'https://images.hktv-img.com/images/HKTV/34458/SKYN_PE_main_56744102_20201229004012_01_300.jpg'}, 'swatchImage': {'imageType': 'PRIMARY', 'format': 'styleSwatch', 'url': 'https://images.hktv-img.com/images/HKTV/34458/SKYN_PE_main_56744102_20201229004012_01_300.jpg'}, 'discountPrice': {'currencyIso': 'HKD', 'value': 154.0, 'priceType': 'DISCOUNT', 'formattedValue': '$ 154.00'}, 'loyalityPoints': '0.0', 'promotionText': 'RED', 'packingSpec': '20pcs (2 boxes)', 'countryOfOrigin': 'Thailand', 'labels': [{'type': 'OFFER', 'name': 'Fixed price Discount (normal)'}, {'type': 'REBATE', 'name': '0% Rewards', 'amount': 0.0, 'loyaltyPoint': '0'}], 'potentialPromotions': [{'code': 'mms_percentage_discountH8503001_S_SKYN_PE_sys', 'promotionType': 'HktvProductPercentageDiscountPromotion', 'endDate': 'Dec 31, 2099 12:00:00 AM', 'description': 'Mms_FixedPrice_H8503001_S_SKYN_PE', 'priority': 95, 'percentage': 22.22222, 'percentageDiscountRow': [{'discount': 22.22222, 'customerType': 'NORMAL', 'priority': 0, 'description': 'Fixed price Discount (normal)'}], 'creationTime': 'Jan 31, 2024 10:24:35 AM'}], 'priceList': [{'currencyIso': 'HKD', 'value': 198.0, 'priceType': 'BUY', 'formattedValue': '$ 198.00', 'membershipLevel': 'NORMAL'}, {'currencyIso': 'HKD', 'value': 154.00000440000002, 'priceType': 'DISCOUNT', 'formattedValue': '$ 154.00', 'membershipLevel': 'NORMAL'}], 'recommendedSellingPrice': [], 'savedPrice': [{'currencyIso': 'HKD', 'value': 43.99999559999998, 'priceType': 'DISCOUNT', 'formattedValue': '$ 44.00', 'membershipLevel': 'NORMAL'}]}]</t>
         </is>
       </c>
       <c r="P120" t="inlineStr">
         <is>
-          <t>PROVEN</t>
+          <t>SKYN</t>
         </is>
       </c>
       <c r="Q120" t="inlineStr">
         <is>
-          <t>H7304001</t>
+          <t>H8503001</t>
         </is>
       </c>
       <c r="R120" t="inlineStr">
         <is>
-          <t>H7304001</t>
+          <t>H8503001</t>
         </is>
       </c>
       <c r="S120" t="inlineStr">
         <is>
-          <t>Ceci Company</t>
+          <t>Pooni Mall</t>
         </is>
       </c>
       <c r="T120" t="inlineStr">
         <is>
-          <t>frequent_delivery_store</t>
+          <t>trustworthy_store</t>
         </is>
       </c>
       <c r="U120" t="inlineStr">
         <is>
-          <t>Fast Delivery Shop</t>
+          <t>Trustworthy Store</t>
         </is>
       </c>
       <c r="V120" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="W120" t="b">
         <v>0</v>
@@ -31678,17 +31678,17 @@
       </c>
       <c r="Z120" t="inlineStr">
         <is>
-          <t>30 capsules</t>
+          <t>20pcs (2 boxes)</t>
         </is>
       </c>
       <c r="AA120" t="inlineStr">
         <is>
-          <t>United Kingdom</t>
+          <t>Thailand</t>
         </is>
       </c>
       <c r="AB120" t="inlineStr">
         <is>
-          <t>&lt;p&gt;&amp;bull;本店將依照個人資料保護法相關規定保護您的個人資料，並遵守HKTVmall 的私隱保護政策。&lt;br /&gt;&amp;bull;如有任何爭議，商戶將保留最終決定權而毋須另行&lt;br /&gt;通知。&lt;br /&gt;&amp;bull;商品顏色或會因電腦螢幕設定差異會略有不同，一切以實物為&lt;br /&gt;準。&lt;br /&gt;&amp;bull;因實際情況所限，HKTVmall 與門市銷售價格、促銷活動、條件與限制有機會各為不同，一切條款只適用於HKTVmall。&lt;/p&gt;</t>
+          <t>&lt;p&gt;&amp;bull; 本店將依照個人資料 ( 私隱 ) 條例相關規定保護您的個人資料 , 並遵守 HKTVmall 的私隱保護政策。&lt;/p&gt;&lt;p&gt;&amp;bull; 如有任何爭議 , 商戶將保留最終決定權而毋須另行通知。&lt;/p&gt;&lt;p&gt;&amp;bull; 貨品顏色或會因電腦螢幕設定差異會略有不同 , 一切以實物為準。&lt;/p&gt;&lt;p&gt;&amp;bull; 因實際情況所限 ,HKTVmall 與門市銷售價格、促銷活動、條件與限制有機會各為不同 , 一切條款只適用於 HKTVmall 。&lt;/p&gt;&lt;p&gt;&amp;bull; 為提供最佳保證給消費者，本店設有「貨品退換購物保證」。顧客在收貨後7天內，發現貨品有問題及需要退換時，您可於「訂單紀錄」中選擇相關訂單後按「回報商品問題」處理問題貨品或漏貨等事宜。每張購物單據只限換貨一次，但不能退款。&lt;/p&gt;&lt;p&gt;以下情況將不受換貨處理安排：&lt;/p&gt;&lt;p&gt;1. 貨品已經開封或曾被使用 ( 例如包裝膠紙或盒被撕去 ) 。&lt;/p&gt;&lt;p&gt;2. 貨品並未保持完好包裝，已受破壞，損毀或不完整。&lt;/p&gt;&lt;p&gt;3. 任何顯示不接受退貨的折扣貨品，清貨貨品或特賣貨品。&lt;/p&gt;&lt;p&gt;4. 任何免費贈品，附件，試用裝禮品。&lt;/p&gt;&lt;p&gt;5. 未能出示貨品銷售清單或購物單據已經換貨一次。&lt;/p&gt;&lt;p&gt;我們在退換之前，必須檢查及驗證退貨，如發現情況未能符合以上的退換規條，所有退貨將不獲退換。在退貨時，原來訂單的運費及處理費用 ( 如有 ) 將由顧客承擔，不便之處，敬請原諒。如您退回的貨品附送有推廣贈品或特價購買貨品等，亦必須將該貨品一併退回，否則退換將不獲處理。&lt;/p&gt;&lt;p&gt;如發現退貨貨品不符合本公司的退貨條款，將不獲處理，不便之處，敬請原諒。&lt;/p&gt;</t>
         </is>
       </c>
       <c r="AC120" t="inlineStr">
@@ -31703,7 +31703,7 @@
       </c>
       <c r="AE120" t="inlineStr">
         <is>
-          <t>[{'currencyIso': 'HKD', 'value': 428.0, 'priceType': 'BUY', 'formattedValue': '$ 428.00', 'membershipLevel': 'NORMAL'}, {'currencyIso': 'HKD', 'value': 294.400014, 'priceType': 'DISCOUNT', 'formattedValue': '$ 294.40', 'membershipLevel': 'NORMAL'}]</t>
+          <t>[{'currencyIso': 'HKD', 'value': 198.0, 'priceType': 'BUY', 'formattedValue': '$ 198.00', 'membershipLevel': 'NORMAL'}, {'currencyIso': 'HKD', 'value': 154.00000440000002, 'priceType': 'DISCOUNT', 'formattedValue': '$ 154.00', 'membershipLevel': 'NORMAL'}]</t>
         </is>
       </c>
       <c r="AF120" t="inlineStr">
@@ -31711,10 +31711,14 @@
           <t>[{'colorName': 'Default', 'colorValue': ''}]</t>
         </is>
       </c>
-      <c r="AG120" t="inlineStr"/>
+      <c r="AG120" t="inlineStr">
+        <is>
+          <t>Original Price: $290</t>
+        </is>
+      </c>
       <c r="AH120" t="inlineStr">
         <is>
-          <t>GREY</t>
+          <t>RED</t>
         </is>
       </c>
       <c r="AI120" t="inlineStr"/>
@@ -31723,17 +31727,17 @@
       </c>
       <c r="AK120" t="inlineStr">
         <is>
-          <t>[{'currencyIso': 'HKD', 'value': 133.599986, 'priceType': 'DISCOUNT', 'formattedValue': '$ 133.60', 'membershipLevel': 'NORMAL'}]</t>
+          <t>[{'currencyIso': 'HKD', 'value': 43.99999559999998, 'priceType': 'DISCOUNT', 'formattedValue': '$ 44.00', 'membershipLevel': 'NORMAL'}]</t>
         </is>
       </c>
       <c r="AL120" t="inlineStr">
         <is>
-          <t>S08390</t>
+          <t>P69890</t>
         </is>
       </c>
       <c r="AM120" t="inlineStr">
         <is>
-          <t>AA13307310001</t>
+          <t>AA13205005201</t>
         </is>
       </c>
       <c r="AN120" t="b">
@@ -31762,7 +31766,7 @@
       </c>
       <c r="AV120" t="inlineStr">
         <is>
-          <t>{'code': 'H7304001'}</t>
+          <t>{'code': 'H8503001'}</t>
         </is>
       </c>
       <c r="AW120" t="inlineStr">
@@ -31778,17 +31782,17 @@
       </c>
       <c r="AZ120" t="inlineStr">
         <is>
-          <t>1,000+ Sold</t>
+          <t>3,000+ Sold</t>
         </is>
       </c>
       <c r="BA120" t="n">
+        <v>60</v>
+      </c>
+      <c r="BB120" t="n">
         <v>141</v>
       </c>
-      <c r="BB120" t="n">
-        <v>54</v>
-      </c>
       <c r="BC120" t="n">
-        <v>87</v>
+        <v>44</v>
       </c>
       <c r="BD120" t="inlineStr">
         <is>
@@ -31805,21 +31809,17 @@
         <v>0</v>
       </c>
       <c r="BH120" t="n">
-        <v>1545</v>
+        <v>3033</v>
       </c>
       <c r="BI120" t="inlineStr">
         <is>
           <t>[{'startTime': 1708617600000, 'endTime': 1708660800000, 'deliveryMode': 'standard-same-day'}, {'startTime': 1708660800000, 'endTime': 1708696800000, 'deliveryMode': 'standard-express'}, {'startTime': 1708696800000, 'endTime': 1708704000000, 'deliveryMode': 'standard-express'}, {'startTime': 1708704000000, 'endTime': 1708747200000, 'deliveryMode': 'standard-same-day'}, {'startTime': 1708747200000, 'endTime': 1708783200000, 'deliveryMode': 'standard-express'}, {'startTime': 1708783200000, 'endTime': 1708790400000, 'deliveryMode': 'standard-express'}, {'startTime': 1708790400000, 'endTime': 1708833600000, 'deliveryMode': 'standard-same-day'}, {'startTime': 1708833600000, 'endTime': 1708869600000, 'deliveryMode': 'standard-express'}, {'startTime': 1708869600000, 'endTime': 1708876800000, 'deliveryMode': 'standard-express'}, {'startTime': 1708876800000, 'endTime': 1708920000000, 'deliveryMode': 'standard-same-day'}, {'startTime': 1708920000000, 'endTime': 1708956000000, 'deliveryMode': 'standard-express'}, {'startTime': 1708956000000, 'endTime': 1708963200000, 'deliveryMode': 'standard-express'}]</t>
         </is>
       </c>
-      <c r="BJ120" t="inlineStr">
-        <is>
-          <t>{'code': 'MMS_RP_H7304001_20231106_00024', 'name': '$35 Redeem Holdbody Super C', 'label': '$35 Holdbody Super C', 'description': 'Redeem Holdbody Super C (20 Tablets) at $35 upon purchasing designated products.\nWhile stocks last.\nRedemption period till 31 Jan 2024.', 'shortDescription': 'Redeption - Redeem Holdbody Super C', 'colorCode': '#FF0000', 'discountType': 'QUANTITY', 'startTime': 1699243200000, 'endTime': 1711900740000}</t>
-        </is>
-      </c>
+      <c r="BJ120" t="inlineStr"/>
       <c r="BK120" t="inlineStr">
         <is>
-          <t>['MO']</t>
+          <t>['MO', 'UK', 'AU', 'CA']</t>
         </is>
       </c>
       <c r="BL120" t="inlineStr"/>
@@ -31828,22 +31828,22 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>H8503001_S_SKYN_PE</t>
+          <t>H0303001_S_VSUCA060BXHK01</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>【JAPAN EDITION】Package - Premium x Extra Lub (2 boxes, 20 pcs) (JP Condom) (Parallel Import)</t>
+          <t>Brain Fortifier: Smarten Up - 60 Capsules</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>main/Pooni-Mall/s/H8503001/Personal-Care-%26-Health/Personal-Care-%26-Health/Personal-Care/Condom-%26-Sexual-Wellness/Condoms/Long-lasting-Condom/JAPAN-EDITIONPackage-Premium-x-Extra-Lub-2-boxes-20-pcs-JP-Condom-Parallel-Import/p/H8503001_S_SKYN_PE</t>
+          <t>main/Vita-Green/s/H0303001/Personal-Care-%26-Health/Personal-Care-%26-Health/Health/Brain-Health/Brain-Fortifier-Smarten-Up-60-Capsules/p/H0303001_S_VSUCA060BXHK01</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>【JAPAN EDITION】Package - Premium x Extra Lub (2 boxes, 20 pcs)&lt;br /&gt;&lt;br /&gt;High-end revolutionary products, adopted SKYNFEEL ™ ultra-soft material, Ryokin general patch. Top-class lipophilic strength, safety and flexibility, dexterity-sensitive, custom-made, self-adjustment, double-strength guard.&lt;br /&gt;&lt;br /&gt;SKYN® iR non-glue safe, adopted one kind of advanced material SKYNFEEL ™ made, no natural natural glue component, soft skin sticking feeling, soft and soft fit, strong heat feeling, strong skin sticking bond, super active Feeling.</t>
+          <t>&lt;p style="vertical-align: baseline;font-size: 14px;"&gt;&lt;b style="vertical-align: baseline;"&gt;&lt;b&gt;91%人士受腦力衰退問題困擾*&lt;/b&gt;&lt;/b&gt;&lt;br/&gt;全球每3秒便有人有腦力衰退，香港每10個有1個腦活力退化外，調查顯示超過9成人士受腦力退化問題困擾，影響日常生活。三大影響日常生活表現，首位是無記性，如忘記日常鎖事(帶鎖匙等)、有時忘記剛說的話；第二，情緒變化，如變得多疑、時而低落時而暴躁；第三，表達力變差，如用錯表達用詞等。&lt;br/&gt;&lt;br/&gt;&lt;b style="vertical-align: baseline;"&gt;&lt;b&gt;您或您家人有以下情況嗎？&lt;/b&gt;&lt;/b&gt;&lt;br/&gt;• 記憶力變差&lt;br/&gt;常常找不到經常需要使用的東西（手機、錢包、鑰匙）&lt;br/&gt;• 難以集中精神&lt;br/&gt;平時熟練的事，需花更多時間完成，無法集中做該做的事&lt;br/&gt;• 睡眠質素差&lt;br/&gt;怎樣睡也睡不飽，經常覺得頭腦暈暈重重&lt;br/&gt;• 情緒起伏大&lt;br/&gt;忽然暴躁，忽然情緒變負面，變得多疑&lt;br/&gt;• 思考反應遲緩&lt;br/&gt;思緒理解緩慢混沌，要做決定時，覺得困難&lt;br/&gt;• 疲倦精神差&lt;br/&gt;身心昏沉, 日常生活變得提不起勁，總覺身體不適，頭暈、耳暈、頭脹等&lt;br/&gt;&lt;br/&gt;以上都是腦力減退表現！如中2項，建議開始服用「腦精靈 – 記憶配方」！&lt;br/&gt;&lt;/p&gt;&lt;p style="vertical-align: baseline;font-size: 14px;"&gt;&lt;b style="vertical-align: baseline;"&gt;&lt;b&gt;主要成分&lt;/b&gt;&lt;/b&gt;&lt;br/&gt;巴戟天、菟絲子、人參、紅景天、黃精、遠志、高良薑、丹參、靈芝、小麥、龍骨、牡蠣、百合、地黃、首烏藤、大棗、合歡花、炙甘草、茯苓、竹茹、生薑、維他命B12、維他命D3、維他命B6、維他命B1、維他命B9&lt;/p&gt;&lt;p style="vertical-align: baseline;font-size: 14px;"&gt;「腦精靈 – 記憶配方」5效激活腦活力&lt;br/&gt;腦力減退有三大原因，一、有害蛋白積聚過多；二、細胞氧化；三、神經細胞受損。維特健靈「腦精靈 – 記憶配方」正能針對問題背後成因，維持腦部健康活力。&lt;br/&gt;&lt;br/&gt;「腦精靈 – 記憶配方」由中西醫藥團隊研發，在活用益智經典草本漢方基礎上，特別加入活腦維他命B群，其中西合璧配方，透過激活腦部細胞，促進神經細胞訊息傳遞，減緩及抑制細胞氧化，從而幫助升記憶、認知、思考及反應，幫助保持腦活力。&lt;br/&gt;1.清除有害蛋白：清除及抑制腦部有害蛋白&lt;br/&gt;2.重啟細胞訊息傳達：幫助訊息傳遞過程&lt;br/&gt;3.激活腦細胞修復：修復並抑制腦部細胞氧化&lt;br/&gt;4.保護神經細胞減少損傷：減少損傷保持細胞活性&lt;br/&gt;5.調和情緒精神：清心安神減憂慮&lt;br/&gt;&lt;br/&gt;&lt;b style="vertical-align: baseline;"&gt;&lt;b&gt;每日２粒 輕鬆激活腦力！&lt;br/&gt;&lt;/b&gt;•    提升記憶力、認知力、思考能力、反應思考&lt;br/&gt;•    保持情緒健康&lt;br/&gt;•    提升睡眠質素&lt;br/&gt;•    激活修復腦細胞&lt;br/&gt;•    維持腦部健康&lt;br/&gt;&lt;/b&gt;&lt;br/&gt;&lt;b style="vertical-align: baseline;"&gt;&lt;b&gt; 獨有中西合璧科研配方&lt;/b&gt;&lt;/b&gt;&lt;br/&gt;•    源自中、日健腦中草本配方&lt;br/&gt;– 參考傳統中草本健腦古方，包括《普濟方》的《還少丹》、日本《醫心方》的「開心散」、《甘麥大棗湯》等，活用調配而獨創健腦配方，能大補元氣腎氣血氣，無西藥副作用&lt;br/&gt;•     逾20種健腦中草本&lt;br/&gt;包括：&lt;br/&gt;–珍貴的靈芝： 減輕神經元損傷、促進抗氧化活性&lt;br/&gt;–人參：減少腦部有害蛋白積聚&lt;br/&gt;–高山紅景天：促進腦部血液循環&lt;br/&gt;•    特別添加健腦維他命B群 提升效能&lt;br/&gt;– 維他命B1維持神經正常&lt;br/&gt;– 維他命 B6幫助神經傳遞物質及保持良好情緒&lt;br/&gt;– 維他命B9協助新細胞製造&lt;br/&gt;– 維他命B12幫助增強認知力&lt;br/&gt;用家實證4星期體驗抗衡腦化*&lt;br/&gt;•    91% 用家實證服用後能在腦活力測試 (MMSE) 獲取較佳分數&lt;br/&gt;•    91% 用家認同4星期有效幫助提升認知機能，包括：&lt;br/&gt;提升自理能力及生活質素 /記性變好/提升判斷力及解難能力&lt;br/&gt;反應變快 / 提升思考速度/表達能力/ 認知力&lt;br/&gt;*根據 NuanceTree Ltd. 2021-2022年度「腦精靈 – 記憶配方」試食調查報告，調查人數44人&lt;br/&gt;# Data on file&lt;br/&gt;&lt;br/&gt;&lt;b style="vertical-align: baseline;"&gt;&lt;b&gt;適合人士&lt;br/&gt;&lt;/b&gt;•    關注腦部健康&lt;br/&gt;•    關注腦霧人士&lt;br/&gt;•    記憶力差&lt;br/&gt;•    經常善忘&lt;br/&gt;•    判斷力減&lt;br/&gt;•    思考及學習力減&lt;br/&gt;•    情緒變差&lt;br/&gt;•    反應變慢&lt;br/&gt;•    表達能力變差&lt;br/&gt;&lt;/b&gt;&lt;br/&gt;&lt;b style="vertical-align: baseline;"&gt;&lt;b&gt;建議用法&lt;br/&gt;&lt;/b&gt;保健：每日2次 每次1粒&lt;br/&gt;改善：每日2次 每次2粒&lt;/b&gt;&lt;/p&gt;&lt;!--EndFragment--&gt;&lt;p&gt;&lt;br/&gt;&lt;/p&gt;&lt;p&gt;&lt;br/&gt;&lt;/p&gt;</t>
         </is>
       </c>
       <c r="E121" t="b">
@@ -31858,73 +31858,73 @@
         </is>
       </c>
       <c r="H121" t="n">
-        <v>4.7</v>
+        <v>4.3</v>
       </c>
       <c r="I121" t="n">
         <v>17</v>
       </c>
       <c r="J121" t="inlineStr">
         <is>
-          <t>&lt;p&gt;High-end revolutionary products, adopted SKYNFEEL ™ ultra-soft material, Ryokin general patch. Top-class lipophilic strength, safety and flexibility, dexterity-sensitive, custom-made, self-adjustment, double-strength guard.&lt;/p&gt;</t>
+          <t>&lt;p style="vertical-align: baseline;font-size: 14px;"&gt;&lt;b&gt;Brain Fortifier: Smarten Up&lt;/b&gt;&lt;/p&gt;&lt;p style="vertical-align: baseline;font-size: 14px;"&gt;- Fight against brain fogging&lt;br/&gt;- Stimulate brain cell repair&lt;br/&gt;- Improve memory, thinking, cognition, judgment and reaction&lt;br/&gt;- More than 20 kinds of precious Chinese herbs for brain health&lt;br/&gt;- 91% of users prove to improve brain vitality*&lt;/p&gt;</t>
         </is>
       </c>
       <c r="K121" t="inlineStr">
         <is>
-          <t>{'currencyIso': 'HKD', 'value': 198.0, 'priceType': 'BUY', 'formattedValue': '$ 198.00', 'membershipLevel': 'NORMAL'}</t>
+          <t>{'currencyIso': 'HKD', 'value': 559.0, 'priceType': 'BUY', 'formattedValue': '$ 559.00', 'membershipLevel': 'NORMAL'}</t>
         </is>
       </c>
       <c r="L121" t="inlineStr">
         <is>
-          <t>H8503001SKYN_PE</t>
+          <t>H0303001VSUCA060BXHK01</t>
         </is>
       </c>
       <c r="M121" t="inlineStr">
         <is>
-          <t>[{'imageType': 'PRIMARY', 'format': 'product', 'url': 'https://images.hktv-img.com/images/HKTV/34458/SKYN_PE_main_56744102_20201229004012_01_300.jpg', 'hoverImageUrl': ''}]</t>
+          <t>[{'imageType': 'PRIMARY', 'format': 'product', 'url': 'https://cdn-mms.hktvmall.com/hktv/mms/uploadProductImage/2fe9/41d1/0146/KiiDHVLMRd20220516183402_300.png', 'hoverImageUrl': ''}]</t>
         </is>
       </c>
       <c r="N121" t="inlineStr">
         <is>
-          <t>[{'code': 'AA11858510001', 'name': 'Condoms &amp; Lube', 'sequence': 0}, {'code': 'AA13205005201', 'name': 'Long-lasting Condom', 'sequence': 0}, {'code': 'AA13205005101', 'name': 'Sensitive Condom', 'sequence': 0}]</t>
+          <t>[{'code': 'AA13303600001', 'name': 'Lingzhi Cordyceps &amp; Ginseng', 'sequence': 0}, {'code': 'AA13303000001', 'name': 'Stress &amp; Fatigue', 'sequence': 0}, {'code': 'AA13306100001', 'name': 'Brain Health', 'sequence': 0}]</t>
         </is>
       </c>
       <c r="O121" t="inlineStr">
         <is>
-          <t>[{'code': 'H8503001_S_SKYN_PE', 'stock': {'stockLevelStatus': {'code': 'inStock', 'type': 'StockLevelStatus'}, 'consignmentWarehouse': False, 'forceInStock': False, 'thirdPartyLogisticsWarehouse': False}, 'url': 'main/Pooni-Mall/s/H8503001/Personal-Care-%26-Health/Personal-Care-%26-Health/Personal-Care/Condom-%26-Sexual-Wellness/Condoms/Long-lasting-Condom/JAPAN-EDITIONPackage-Premium-x-Extra-Lub-2-boxes-20-pcs-JP-Condom-Parallel-Import/p/H8503001_S_SKYN_PE', 'priceData': {'currencyIso': 'HKD', 'value': 198.0, 'priceType': 'BUY', 'formattedValue': '$ 198.00', 'membershipLevel': 'NORMAL'}, 'variantOptionQualifiers': [], 'color': 'Default', 'mainImage': {'imageType': 'PRIMARY', 'format': 'product', 'url': 'https://images.hktv-img.com/images/HKTV/34458/SKYN_PE_main_56744102_20201229004012_01_300.jpg'}, 'swatchImage': {'imageType': 'PRIMARY', 'format': 'styleSwatch', 'url': 'https://images.hktv-img.com/images/HKTV/34458/SKYN_PE_main_56744102_20201229004012_01_300.jpg'}, 'discountPrice': {'currencyIso': 'HKD', 'value': 154.0, 'priceType': 'DISCOUNT', 'formattedValue': '$ 154.00'}, 'loyalityPoints': '0.0', 'promotionText': 'RED', 'packingSpec': '20pcs (2 boxes)', 'countryOfOrigin': 'Thailand', 'labels': [{'type': 'OFFER', 'name': 'Fixed price Discount (normal)'}, {'type': 'REBATE', 'name': '0% Rewards', 'amount': 0.0, 'loyaltyPoint': '0'}], 'potentialPromotions': [{'code': 'mms_percentage_discountH8503001_S_SKYN_PE_sys', 'promotionType': 'HktvProductPercentageDiscountPromotion', 'endDate': 'Dec 31, 2099 12:00:00 AM', 'description': 'Mms_FixedPrice_H8503001_S_SKYN_PE', 'priority': 95, 'percentage': 22.22222, 'percentageDiscountRow': [{'discount': 22.22222, 'customerType': 'NORMAL', 'priority': 0, 'description': 'Fixed price Discount (normal)'}], 'creationTime': 'Jan 31, 2024 10:24:35 AM'}], 'priceList': [{'currencyIso': 'HKD', 'value': 198.0, 'priceType': 'BUY', 'formattedValue': '$ 198.00', 'membershipLevel': 'NORMAL'}, {'currencyIso': 'HKD', 'value': 154.00000440000002, 'priceType': 'DISCOUNT', 'formattedValue': '$ 154.00', 'membershipLevel': 'NORMAL'}], 'recommendedSellingPrice': [], 'savedPrice': [{'currencyIso': 'HKD', 'value': 43.99999559999998, 'priceType': 'DISCOUNT', 'formattedValue': '$ 44.00', 'membershipLevel': 'NORMAL'}]}]</t>
+          <t>[{'code': 'H0303001_S_VSUCA060BXHK01', 'stock': {'stockLevelStatus': {'code': 'inStock', 'type': 'StockLevelStatus'}, 'consignmentWarehouse': False, 'forceInStock': False, 'thirdPartyLogisticsWarehouse': False}, 'url': 'main/Vita-Green/s/H0303001/Personal-Care-%26-Health/Personal-Care-%26-Health/Health/Brain-Health/Brain-Fortifier-Smarten-Up-60-Capsules/p/H0303001_S_VSUCA060BXHK01', 'priceData': {'currencyIso': 'HKD', 'value': 559.0, 'priceType': 'BUY', 'formattedValue': '$ 559.00', 'membershipLevel': 'NORMAL'}, 'variantOptionQualifiers': [], 'color': 'Default', 'mainImage': {'imageType': 'PRIMARY', 'format': 'product', 'url': 'https://cdn-mms.hktvmall.com/hktv/mms/uploadProductImage/2fe9/41d1/0146/KiiDHVLMRd20220516183402_300.png'}, 'swatchImage': {'imageType': 'PRIMARY', 'format': 'styleSwatch', 'url': 'https://cdn-mms.hktvmall.com/hktv/mms/uploadProductImage/2fe9/41d1/0146/KiiDHVLMRd20220516183402_300.png'}, 'discountPrice': {'currencyIso': 'HKD', 'value': 459.0, 'priceType': 'DISCOUNT', 'formattedValue': '$ 459.00'}, 'loyalityPoints': '0.0', 'promotionText': 'RED', 'packingSpec': '', 'countryOfOrigin': 'Hong Kong', 'labels': [{'type': 'OFFER'}, {'type': 'REBATE', 'name': '0% Rewards', 'amount': 0.0, 'loyaltyPoint': '0'}], 'potentialPromotions': [{'code': 'BMSM_H0303001_S_VSUCA060BXHK01_exchange_20240221095719', 'endDate': 'Jan 01, 2099 11:59:59 PM', 'priority': 95, 'percentage': 0.0, 'creationTime': 'Feb 21, 2024 09:57:20 AM'}, {'code': 'MGQ_H0303001_20240208_VG2', 'promotionType': 'Product Threshold Free Gift Promotion', 'endDate': 'Mar 01, 2024 12:00:00 AM', 'description': 'MGQ_H0303001_20240208_VG2', 'priority': 70, 'percentage': 0.0, 'creationTime': 'Feb 08, 2024 10:48:19 AM'}], 'thresholdPromotion': {'name': "FREE DC 1's Sachet", 'label': "FREE DC 1's Sachet", 'description': "Buy selected Vita Green items &gt;$599 get Doctor's Choice - DC SUPER-biotic Immun-Allergy Pro 1's Sachet for free !&lt;br /&gt;Each transaction can enjoy the offer once.&lt;br /&gt;The promotion vailds till 29/2/2024", 'shortDescription': "FREE DC 1's Sachet", 'code': 'MGQ_H0303001_20240208_VG2', 'categories': ['ZZ24020800005'], 'thresholdType': 'AMOUNT', 'discountType': 'FREEGIFT', 'productCount': 1, 'colorCode': '#9900CC', 'startTime': 1707393600000, 'endTime': 1709222400000}, 'priceList': [{'currencyIso': 'HKD', 'value': 559.0, 'priceType': 'BUY', 'formattedValue': '$ 559.00', 'membershipLevel': 'NORMAL'}, {'currencyIso': 'HKD', 'value': 459.0, 'priceType': 'DISCOUNT', 'formattedValue': '$ 459.00', 'membershipLevel': 'NORMAL'}], 'recommendedSellingPrice': [{'name': '', 'fontColor': '#000000', 'fontBgColor': '#FFFFFF', 'hasStrikeThrough': True}], 'savedPrice': [{'currencyIso': 'HKD', 'value': 100.0, 'priceType': 'DISCOUNT', 'formattedValue': '$ 100.00', 'membershipLevel': 'NORMAL'}], 'buyMoreSaveMore': {'promotionLevels': [{'quantity': 2, 'message': "&lt;font color='#fa7200'&gt;&lt;Strong&gt;Buy 2 $899.00&lt;br&gt;Avg.&lt;/Strong&gt;&lt;/font&gt; &lt;font color='#7d3d06'&gt;&lt;Strong&gt;$449.50&lt;/Strong&gt;&lt;/font&gt;"}], 'promotionMessage': 'Buy More Save More', 'promotionTagColor': '#EE740E', 'startTime': 946656000000, 'endTime': 4070966399000}}]</t>
         </is>
       </c>
       <c r="P121" t="inlineStr">
         <is>
-          <t>SKYN</t>
+          <t>VITA GREEN</t>
         </is>
       </c>
       <c r="Q121" t="inlineStr">
         <is>
-          <t>H8503001</t>
+          <t>H0303001</t>
         </is>
       </c>
       <c r="R121" t="inlineStr">
         <is>
-          <t>H8503001</t>
+          <t>H0303001</t>
         </is>
       </c>
       <c r="S121" t="inlineStr">
         <is>
-          <t>Pooni Mall</t>
+          <t>Vita Green</t>
         </is>
       </c>
       <c r="T121" t="inlineStr">
         <is>
-          <t>trustworthy_store</t>
+          <t>flagship_store</t>
         </is>
       </c>
       <c r="U121" t="inlineStr">
         <is>
-          <t>Trustworthy Store</t>
+          <t>Flagship store</t>
         </is>
       </c>
       <c r="V121" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="W121" t="b">
         <v>0</v>
@@ -31939,24 +31939,20 @@
           <t>hktv-standard-delivery</t>
         </is>
       </c>
-      <c r="Z121" t="inlineStr">
-        <is>
-          <t>20pcs (2 boxes)</t>
-        </is>
-      </c>
+      <c r="Z121" t="inlineStr"/>
       <c r="AA121" t="inlineStr">
         <is>
-          <t>Thailand</t>
+          <t>Hong Kong</t>
         </is>
       </c>
       <c r="AB121" t="inlineStr">
         <is>
-          <t>&lt;p&gt;&amp;bull; 本店將依照個人資料 ( 私隱 ) 條例相關規定保護您的個人資料 , 並遵守 HKTVmall 的私隱保護政策。&lt;/p&gt;&lt;p&gt;&amp;bull; 如有任何爭議 , 商戶將保留最終決定權而毋須另行通知。&lt;/p&gt;&lt;p&gt;&amp;bull; 貨品顏色或會因電腦螢幕設定差異會略有不同 , 一切以實物為準。&lt;/p&gt;&lt;p&gt;&amp;bull; 因實際情況所限 ,HKTVmall 與門市銷售價格、促銷活動、條件與限制有機會各為不同 , 一切條款只適用於 HKTVmall 。&lt;/p&gt;&lt;p&gt;&amp;bull; 為提供最佳保證給消費者，本店設有「貨品退換購物保證」。顧客在收貨後7天內，發現貨品有問題及需要退換時，您可於「訂單紀錄」中選擇相關訂單後按「回報商品問題」處理問題貨品或漏貨等事宜。每張購物單據只限換貨一次，但不能退款。&lt;/p&gt;&lt;p&gt;以下情況將不受換貨處理安排：&lt;/p&gt;&lt;p&gt;1. 貨品已經開封或曾被使用 ( 例如包裝膠紙或盒被撕去 ) 。&lt;/p&gt;&lt;p&gt;2. 貨品並未保持完好包裝，已受破壞，損毀或不完整。&lt;/p&gt;&lt;p&gt;3. 任何顯示不接受退貨的折扣貨品，清貨貨品或特賣貨品。&lt;/p&gt;&lt;p&gt;4. 任何免費贈品，附件，試用裝禮品。&lt;/p&gt;&lt;p&gt;5. 未能出示貨品銷售清單或購物單據已經換貨一次。&lt;/p&gt;&lt;p&gt;我們在退換之前，必須檢查及驗證退貨，如發現情況未能符合以上的退換規條，所有退貨將不獲退換。在退貨時，原來訂單的運費及處理費用 ( 如有 ) 將由顧客承擔，不便之處，敬請原諒。如您退回的貨品附送有推廣贈品或特價購買貨品等，亦必須將該貨品一併退回，否則退換將不獲處理。&lt;/p&gt;&lt;p&gt;如發現退貨貨品不符合本公司的退貨條款，將不獲處理，不便之處，敬請原諒。&lt;/p&gt;</t>
+          <t>&lt;p&gt;&amp;bull;本店將依照個人資料保護法相關規定保護您的個人資料，並遵守HKTVmall 的私隱保護政策。&lt;br /&gt;&lt;br /&gt;&amp;bull;如有任何爭議，商戶將保留最終決定權而毋須另行通知。&lt;br /&gt;&lt;br /&gt;&amp;bull;商品顏色或會因電腦螢幕設定差異會略有不同，一切以實物為準。&lt;br /&gt;&lt;br /&gt;&amp;bull;因實際情況所限，HKTVmall 與門市銷售價格、促銷活動、條件與限制有機會各為不同，一切條款只適用於HKTVmall。&lt;/p&gt;&lt;p&gt;&amp;nbsp;&lt;/p&gt;&lt;p&gt;&amp;nbsp;&lt;/p&gt;&lt;p&gt;&amp;nbsp;&lt;/p&gt;&lt;p&gt;&amp;nbsp;&lt;/p&gt;&lt;p&gt;&amp;nbsp;&lt;/p&gt;</t>
         </is>
       </c>
       <c r="AC121" t="inlineStr">
         <is>
-          <t>[{'type': 'OFFER', 'name': 'Fixed price Discount (normal)'}, {'type': 'REBATE', 'name': '0% Rewards', 'amount': 0.0, 'loyaltyPoint': '0'}]</t>
+          <t>[{'type': 'OFFER'}, {'type': 'REBATE', 'name': '0% Rewards', 'amount': 0.0, 'loyaltyPoint': '0'}]</t>
         </is>
       </c>
       <c r="AD121" t="inlineStr">
@@ -31966,7 +31962,7 @@
       </c>
       <c r="AE121" t="inlineStr">
         <is>
-          <t>[{'currencyIso': 'HKD', 'value': 198.0, 'priceType': 'BUY', 'formattedValue': '$ 198.00', 'membershipLevel': 'NORMAL'}, {'currencyIso': 'HKD', 'value': 154.00000440000002, 'priceType': 'DISCOUNT', 'formattedValue': '$ 154.00', 'membershipLevel': 'NORMAL'}]</t>
+          <t>[{'currencyIso': 'HKD', 'value': 559.0, 'priceType': 'BUY', 'formattedValue': '$ 559.00', 'membershipLevel': 'NORMAL'}, {'currencyIso': 'HKD', 'value': 459.0, 'priceType': 'DISCOUNT', 'formattedValue': '$ 459.00', 'membershipLevel': 'NORMAL'}]</t>
         </is>
       </c>
       <c r="AF121" t="inlineStr">
@@ -31976,7 +31972,7 @@
       </c>
       <c r="AG121" t="inlineStr">
         <is>
-          <t>Original Price: $290</t>
+          <t>Buy More Save More|RSP $559</t>
         </is>
       </c>
       <c r="AH121" t="inlineStr">
@@ -31984,23 +31980,27 @@
           <t>RED</t>
         </is>
       </c>
-      <c r="AI121" t="inlineStr"/>
+      <c r="AI121" t="inlineStr">
+        <is>
+          <t>{'name': "FREE DC 1's Sachet", 'label': "FREE DC 1's Sachet", 'description': "Buy selected Vita Green items &gt;$599 get Doctor's Choice - DC SUPER-biotic Immun-Allergy Pro 1's Sachet for free !&lt;br /&gt;Each transaction can enjoy the offer once.&lt;br /&gt;The promotion vailds till 29/2/2024", 'shortDescription': "FREE DC 1's Sachet", 'code': 'MGQ_H0303001_20240208_VG2', 'categories': ['ZZ24020800005'], 'thresholdType': 'AMOUNT', 'discountType': 'FREEGIFT', 'productCount': 1, 'colorCode': '#9900CC', 'startTime': 1707393600000, 'endTime': 1709222400000}</t>
+        </is>
+      </c>
       <c r="AJ121" t="b">
         <v>0</v>
       </c>
       <c r="AK121" t="inlineStr">
         <is>
-          <t>[{'currencyIso': 'HKD', 'value': 43.99999559999998, 'priceType': 'DISCOUNT', 'formattedValue': '$ 44.00', 'membershipLevel': 'NORMAL'}]</t>
+          <t>[{'currencyIso': 'HKD', 'value': 100.0, 'priceType': 'DISCOUNT', 'formattedValue': '$ 100.00', 'membershipLevel': 'NORMAL'}]</t>
         </is>
       </c>
       <c r="AL121" t="inlineStr">
         <is>
-          <t>P69890</t>
+          <t>AA02387</t>
         </is>
       </c>
       <c r="AM121" t="inlineStr">
         <is>
-          <t>AA13205005201</t>
+          <t>AA13306100001</t>
         </is>
       </c>
       <c r="AN121" t="b">
@@ -32029,7 +32029,7 @@
       </c>
       <c r="AV121" t="inlineStr">
         <is>
-          <t>{'code': 'H8503001'}</t>
+          <t>{'code': 'H0303001'}</t>
         </is>
       </c>
       <c r="AW121" t="inlineStr">
@@ -32045,17 +32045,17 @@
       </c>
       <c r="AZ121" t="inlineStr">
         <is>
-          <t>3,000+ Sold</t>
+          <t>1,000+ Sold</t>
         </is>
       </c>
       <c r="BA121" t="n">
+        <v>120</v>
+      </c>
+      <c r="BB121" t="n">
+        <v>160</v>
+      </c>
+      <c r="BC121" t="n">
         <v>60</v>
-      </c>
-      <c r="BB121" t="n">
-        <v>141</v>
-      </c>
-      <c r="BC121" t="n">
-        <v>44</v>
       </c>
       <c r="BD121" t="inlineStr">
         <is>
@@ -32072,7 +32072,7 @@
         <v>0</v>
       </c>
       <c r="BH121" t="n">
-        <v>3033</v>
+        <v>1708</v>
       </c>
       <c r="BI121" t="inlineStr">
         <is>
@@ -32080,13 +32080,13 @@
         </is>
       </c>
       <c r="BJ121" t="inlineStr"/>
-      <c r="BK121" t="inlineStr">
-        <is>
-          <t>['MO', 'UK', 'AU', 'CA']</t>
-        </is>
-      </c>
+      <c r="BK121" t="inlineStr"/>
       <c r="BL121" t="inlineStr"/>
-      <c r="BM121" t="inlineStr"/>
+      <c r="BM121" t="inlineStr">
+        <is>
+          <t>{'promotionLevels': [{'quantity': 2, 'message': "&lt;font color='#fa7200'&gt;&lt;Strong&gt;Buy 2 $899.00&lt;br&gt;Avg.&lt;/Strong&gt;&lt;/font&gt; &lt;font color='#7d3d06'&gt;&lt;Strong&gt;$449.50&lt;/Strong&gt;&lt;/font&gt;"}], 'promotionMessage': 'Buy More Save More', 'promotionTagColor': '#EE740E', 'startTime': 946656000000, 'endTime': 4070966399000}</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
